--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR5_경부선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR5_경부선.xlsx
@@ -45,10 +45,10 @@
     <t>NBEATS</t>
   </si>
   <si>
-    <t>RNN</t>
+    <t>NHITS</t>
   </si>
   <si>
-    <t>TCN</t>
+    <t>RNN</t>
   </si>
   <si>
     <t>DilatedRNN</t>
@@ -57,28 +57,28 @@
     <t>LSTM</t>
   </si>
   <si>
-    <t>NHITS</t>
-  </si>
-  <si>
-    <t>NBEATSx</t>
+    <t>TCN</t>
   </si>
   <si>
     <t>GRU</t>
   </si>
   <si>
-    <t>LightGBM</t>
+    <t>CatBoost</t>
   </si>
   <si>
-    <t>CatBoost</t>
+    <t>XGBoost</t>
   </si>
   <si>
     <t>RandomForest</t>
   </si>
   <si>
-    <t>XGBoost</t>
+    <t>TiDE</t>
   </si>
   <si>
-    <t>TiDE</t>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>NBEATSx</t>
   </si>
   <si>
     <t>MLP</t>
@@ -514,25 +514,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1164986711585.943</v>
+        <v>1265204576981.411</v>
       </c>
       <c r="C3">
-        <v>1079345.501489649</v>
+        <v>1124813.129804863</v>
       </c>
       <c r="D3">
-        <v>0.02747227502447467</v>
+        <v>0.0311979799404739</v>
       </c>
       <c r="E3">
-        <v>473149.4375</v>
+        <v>555402.6041666666</v>
       </c>
       <c r="F3">
-        <v>0.09303297976181739</v>
+        <v>0.1146408828211905</v>
       </c>
       <c r="G3">
-        <v>182582.125</v>
+        <v>255665.875</v>
       </c>
       <c r="H3">
-        <v>0.05251295807410654</v>
+        <v>0.0747663508951604</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -540,25 +540,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>930489052488.8802</v>
+        <v>1113997618697.49</v>
       </c>
       <c r="C4">
-        <v>964618.6046769366</v>
+        <v>1055460.856070698</v>
       </c>
       <c r="D4">
-        <v>0.02481751643045028</v>
+        <v>0.02801634672581138</v>
       </c>
       <c r="E4">
-        <v>483955.4791666667</v>
+        <v>528000.125</v>
       </c>
       <c r="F4">
-        <v>0.1019731525501366</v>
+        <v>0.1104802568099038</v>
       </c>
       <c r="G4">
-        <v>224826</v>
+        <v>302742.25</v>
       </c>
       <c r="H4">
-        <v>0.06243659319955899</v>
+        <v>0.08518734936317968</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -566,25 +566,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1121366753362.969</v>
+        <v>1114721438636.016</v>
       </c>
       <c r="C5">
-        <v>1058946.057815491</v>
+        <v>1055803.693229009</v>
       </c>
       <c r="D5">
-        <v>0.02774278369462564</v>
+        <v>0.0289949279561157</v>
       </c>
       <c r="E5">
-        <v>516069.625</v>
+        <v>540750.8125</v>
       </c>
       <c r="F5">
-        <v>0.1068746617487479</v>
+        <v>0.1149315023637054</v>
       </c>
       <c r="G5">
-        <v>261496.375</v>
+        <v>293979.25</v>
       </c>
       <c r="H5">
-        <v>0.07593224950272739</v>
+        <v>0.08589293324119998</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -592,25 +592,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1143287184840.745</v>
+        <v>1138200993038.271</v>
       </c>
       <c r="C6">
-        <v>1069246.08245284</v>
+        <v>1066865.030375572</v>
       </c>
       <c r="D6">
-        <v>0.02870699603926808</v>
+        <v>0.0311779388047809</v>
       </c>
       <c r="E6">
-        <v>531642.8958333334</v>
+        <v>578503.875</v>
       </c>
       <c r="F6">
-        <v>0.1111168629515949</v>
+        <v>0.126332031313454</v>
       </c>
       <c r="G6">
-        <v>267081.875</v>
+        <v>294438.25</v>
       </c>
       <c r="H6">
-        <v>0.07713103101004448</v>
+        <v>0.08644501453210265</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -618,25 +618,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1265135935124.01</v>
+        <v>1232287295740.24</v>
       </c>
       <c r="C7">
-        <v>1124782.616830475</v>
+        <v>1110084.364244556</v>
       </c>
       <c r="D7">
-        <v>0.03119442446433683</v>
+        <v>0.04398699143585393</v>
       </c>
       <c r="E7">
-        <v>555337.9583333334</v>
+        <v>659511.7083333334</v>
       </c>
       <c r="F7">
-        <v>0.1146227325204786</v>
+        <v>0.1509557897863496</v>
       </c>
       <c r="G7">
-        <v>255612.125</v>
+        <v>284962.5</v>
       </c>
       <c r="H7">
-        <v>0.07475057811501802</v>
+        <v>0.07919131625017636</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -644,25 +644,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1265201796494.625</v>
+        <v>1215995974164.646</v>
       </c>
       <c r="C8">
-        <v>1124811.893826975</v>
+        <v>1102722.074760747</v>
       </c>
       <c r="D8">
-        <v>0.03119782085345944</v>
+        <v>0.03356030374352276</v>
       </c>
       <c r="E8">
-        <v>555399.5833333334</v>
+        <v>617356.625</v>
       </c>
       <c r="F8">
-        <v>0.1146400255929119</v>
+        <v>0.1361365435259324</v>
       </c>
       <c r="G8">
-        <v>255664.25</v>
+        <v>371393.5</v>
       </c>
       <c r="H8">
-        <v>0.07476587457303631</v>
+        <v>0.104419323020832</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -670,25 +670,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1112345225671.479</v>
+        <v>1679505823985.865</v>
       </c>
       <c r="C9">
-        <v>1054677.78286616</v>
+        <v>1295957.493124626</v>
       </c>
       <c r="D9">
-        <v>0.0291291815568484</v>
+        <v>0.060532498811138</v>
       </c>
       <c r="E9">
-        <v>538433.9583333334</v>
+        <v>884607.9509127392</v>
       </c>
       <c r="F9">
-        <v>0.1143349740133767</v>
+        <v>0.2103789808392701</v>
       </c>
       <c r="G9">
-        <v>279583.75</v>
+        <v>629340.4664682844</v>
       </c>
       <c r="H9">
-        <v>0.08078225945697148</v>
+        <v>0.1831330289082285</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -696,25 +696,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>1277433321834.923</v>
+        <v>1687808164552.875</v>
       </c>
       <c r="C10">
-        <v>1130235.958477221</v>
+        <v>1299156.712853717</v>
       </c>
       <c r="D10">
-        <v>0.03323165370685949</v>
+        <v>0.06094157561133024</v>
       </c>
       <c r="E10">
-        <v>595641.4547499317</v>
+        <v>883758.75</v>
       </c>
       <c r="F10">
-        <v>0.1268900147830463</v>
+        <v>0.2099927631889949</v>
       </c>
       <c r="G10">
-        <v>316222.0204516479</v>
+        <v>660050.5</v>
       </c>
       <c r="H10">
-        <v>0.09543147741516257</v>
+        <v>0.1898381085220437</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -722,25 +722,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>1384316031650.059</v>
+        <v>1632705561059.35</v>
       </c>
       <c r="C11">
-        <v>1176569.603402221</v>
+        <v>1277773.673644652</v>
       </c>
       <c r="D11">
-        <v>0.03586651399029627</v>
+        <v>0.05747106047919624</v>
       </c>
       <c r="E11">
-        <v>622691.2118016741</v>
+        <v>877429.6873529386</v>
       </c>
       <c r="F11">
-        <v>0.134033137390961</v>
+        <v>0.2086342084074503</v>
       </c>
       <c r="G11">
-        <v>324730.0743766392</v>
+        <v>632318.541615481</v>
       </c>
       <c r="H11">
-        <v>0.09260302411843771</v>
+        <v>0.1918019099789053</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -748,25 +748,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>1377403451415.727</v>
+        <v>1726998290308.365</v>
       </c>
       <c r="C12">
-        <v>1173628.327630058</v>
+        <v>1314153.069588305</v>
       </c>
       <c r="D12">
-        <v>0.03553117993510651</v>
+        <v>0.06485912992982107</v>
       </c>
       <c r="E12">
-        <v>626222.808807028</v>
+        <v>845572.1666666666</v>
       </c>
       <c r="F12">
-        <v>0.1348094444047331</v>
+        <v>0.1993201494444471</v>
       </c>
       <c r="G12">
-        <v>337036.8149114356</v>
+        <v>762427.25</v>
       </c>
       <c r="H12">
-        <v>0.09534596934686665</v>
+        <v>0.2170985127531626</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -774,25 +774,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>1427375410550.422</v>
+        <v>1701574354546.23</v>
       </c>
       <c r="C13">
-        <v>1194728.174335243</v>
+        <v>1304444.07873478</v>
       </c>
       <c r="D13">
-        <v>0.03890112030115322</v>
+        <v>0.06208400641954492</v>
       </c>
       <c r="E13">
-        <v>662948.6458333334</v>
+        <v>930892.2389819097</v>
       </c>
       <c r="F13">
-        <v>0.1457458018099658</v>
+        <v>0.2233928010260437</v>
       </c>
       <c r="G13">
-        <v>380843.125</v>
+        <v>683116.7514986205</v>
       </c>
       <c r="H13">
-        <v>0.1099636311689207</v>
+        <v>0.200492099256458</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -800,25 +800,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>1724767841591.328</v>
+        <v>4745617492057.903</v>
       </c>
       <c r="C14">
-        <v>1313304.169486768</v>
+        <v>2178443.823479941</v>
       </c>
       <c r="D14">
-        <v>0.06501083034433069</v>
+        <v>0.2797475838598955</v>
       </c>
       <c r="E14">
-        <v>844594.0625</v>
+        <v>1964099.75</v>
       </c>
       <c r="F14">
-        <v>0.1991053082801593</v>
+        <v>0.5137759526312273</v>
       </c>
       <c r="G14">
-        <v>759860.25</v>
+        <v>1993245.75</v>
       </c>
       <c r="H14">
-        <v>0.2164610034662228</v>
+        <v>0.5479745677383171</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -826,25 +826,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>437734330989481.5</v>
+        <v>375646440048227.8</v>
       </c>
       <c r="C15">
-        <v>20922101.49553533</v>
+        <v>19381600.55434607</v>
       </c>
       <c r="D15">
-        <v>37.2888770313536</v>
+        <v>33.08356413566889</v>
       </c>
       <c r="E15">
-        <v>17995916.5</v>
+        <v>14688609.25</v>
       </c>
       <c r="F15">
-        <v>5.222978855304901</v>
+        <v>4.194477213929386</v>
       </c>
       <c r="G15">
-        <v>17303556.5</v>
+        <v>12711304.25</v>
       </c>
       <c r="H15">
-        <v>5.227807142538117</v>
+        <v>3.462029600282842</v>
       </c>
     </row>
   </sheetData>
@@ -927,43 +927,43 @@
         <v>3209957.25</v>
       </c>
       <c r="E2">
-        <v>3258838</v>
+        <v>3152500.25</v>
       </c>
       <c r="F2">
-        <v>3539814</v>
+        <v>3388371.5</v>
       </c>
       <c r="G2">
-        <v>3289878.75</v>
+        <v>3209468.25</v>
       </c>
       <c r="H2">
-        <v>3481501</v>
+        <v>3602737.5</v>
       </c>
       <c r="I2">
-        <v>3152553.5</v>
+        <v>3328565.25</v>
       </c>
       <c r="J2">
-        <v>3152503.25</v>
+        <v>3186574.5</v>
       </c>
       <c r="K2">
-        <v>3261566.75</v>
+        <v>2913474.883088162</v>
       </c>
       <c r="L2">
-        <v>3045828.441343881</v>
+        <v>2914426</v>
       </c>
       <c r="M2">
-        <v>3038521.340885951</v>
+        <v>2905411.786159091</v>
       </c>
       <c r="N2">
-        <v>3034036.207563492</v>
+        <v>3269672.25</v>
       </c>
       <c r="O2">
-        <v>3036068</v>
+        <v>2844105.038343429</v>
       </c>
       <c r="P2">
-        <v>3284764.75</v>
+        <v>2095973</v>
       </c>
       <c r="Q2">
-        <v>20735746</v>
+        <v>16508909</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -980,43 +980,43 @@
         <v>3232945.5</v>
       </c>
       <c r="E3">
-        <v>3261638.25</v>
+        <v>3152500.25</v>
       </c>
       <c r="F3">
-        <v>3734033.75</v>
+        <v>3391520</v>
       </c>
       <c r="G3">
-        <v>3366070.75</v>
+        <v>3410640.5</v>
       </c>
       <c r="H3">
-        <v>3343712.25</v>
+        <v>3415491.5</v>
       </c>
       <c r="I3">
-        <v>3152553.5</v>
+        <v>3556425</v>
       </c>
       <c r="J3">
-        <v>3152502</v>
+        <v>3303425.25</v>
       </c>
       <c r="K3">
-        <v>3421346.25</v>
+        <v>2994699.71371784</v>
       </c>
       <c r="L3">
-        <v>3175931.173398636</v>
+        <v>2988824.25</v>
       </c>
       <c r="M3">
-        <v>3006871.679563061</v>
+        <v>3016078.480999999</v>
       </c>
       <c r="N3">
-        <v>3016364.499666666</v>
+        <v>3000702.5</v>
       </c>
       <c r="O3">
-        <v>2988830.5</v>
+        <v>2996229.392522769</v>
       </c>
       <c r="P3">
-        <v>3009060.75</v>
+        <v>2171748.25</v>
       </c>
       <c r="Q3">
-        <v>11040195</v>
+        <v>-5739085.5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1033,43 +1033,43 @@
         <v>3186083.75</v>
       </c>
       <c r="E4">
-        <v>2849845.5</v>
+        <v>3152500</v>
       </c>
       <c r="F4">
-        <v>3190951.75</v>
+        <v>3050349</v>
       </c>
       <c r="G4">
-        <v>2902823.5</v>
+        <v>2987117</v>
       </c>
       <c r="H4">
-        <v>3071801.75</v>
+        <v>3028935.5</v>
       </c>
       <c r="I4">
-        <v>3152553</v>
+        <v>3029408</v>
       </c>
       <c r="J4">
-        <v>3152500.25</v>
+        <v>2725295</v>
       </c>
       <c r="K4">
-        <v>2896296.75</v>
+        <v>2712965.01255566</v>
       </c>
       <c r="L4">
-        <v>2964375.27690461</v>
+        <v>2722987.5</v>
       </c>
       <c r="M4">
-        <v>2843418.233498034</v>
+        <v>2652343.086726912</v>
       </c>
       <c r="N4">
-        <v>2826964.281904762</v>
+        <v>2962920</v>
       </c>
       <c r="O4">
-        <v>2723026.75</v>
+        <v>2462063.38413366</v>
       </c>
       <c r="P4">
-        <v>2984163.75</v>
+        <v>1708340.375</v>
       </c>
       <c r="Q4">
-        <v>20427100</v>
+        <v>14165833</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1086,43 +1086,43 @@
         <v>3169345.25</v>
       </c>
       <c r="E5">
-        <v>3231049.5</v>
+        <v>3152500.75</v>
       </c>
       <c r="F5">
-        <v>3251846.75</v>
+        <v>3180677.5</v>
       </c>
       <c r="G5">
-        <v>3084344.5</v>
+        <v>3104031</v>
       </c>
       <c r="H5">
-        <v>3025482.75</v>
+        <v>3152331.25</v>
       </c>
       <c r="I5">
-        <v>3152553.75</v>
+        <v>3186038</v>
       </c>
       <c r="J5">
-        <v>3152502.5</v>
+        <v>2949001.5</v>
       </c>
       <c r="K5">
-        <v>3138413.25</v>
+        <v>2249788.429585312</v>
       </c>
       <c r="L5">
-        <v>3298366.961602651</v>
+        <v>2240371.5</v>
       </c>
       <c r="M5">
-        <v>2803389.985544699</v>
+        <v>2414179.645094988</v>
       </c>
       <c r="N5">
-        <v>2899719.079556638</v>
+        <v>2959540.75</v>
       </c>
       <c r="O5">
-        <v>2710981</v>
+        <v>2894503.369328785</v>
       </c>
       <c r="P5">
-        <v>2959548.25</v>
+        <v>1735297.375</v>
       </c>
       <c r="Q5">
-        <v>-11633962</v>
+        <v>-49327156</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1139,43 +1139,43 @@
         <v>3189311.5</v>
       </c>
       <c r="E6">
-        <v>3150890.5</v>
+        <v>3152501.5</v>
       </c>
       <c r="F6">
-        <v>3260218.5</v>
+        <v>3014767.5</v>
       </c>
       <c r="G6">
-        <v>3082306</v>
+        <v>3000495.25</v>
       </c>
       <c r="H6">
-        <v>3128388.75</v>
+        <v>2859550.25</v>
       </c>
       <c r="I6">
-        <v>3152554.75</v>
+        <v>2956933.75</v>
       </c>
       <c r="J6">
-        <v>3152503</v>
+        <v>2940326</v>
       </c>
       <c r="K6">
-        <v>2944453.75</v>
+        <v>2672145.874151633</v>
       </c>
       <c r="L6">
-        <v>3029765.682192095</v>
+        <v>2672633</v>
       </c>
       <c r="M6">
-        <v>3121161.024127041</v>
+        <v>2676049.830042126</v>
       </c>
       <c r="N6">
-        <v>3107651.991000002</v>
+        <v>2694814</v>
       </c>
       <c r="O6">
-        <v>3126357.25</v>
+        <v>2626744.686562946</v>
       </c>
       <c r="P6">
-        <v>2689189.5</v>
+        <v>2151328</v>
       </c>
       <c r="Q6">
-        <v>7336411</v>
+        <v>-13252629</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1192,43 +1192,43 @@
         <v>3298762.75</v>
       </c>
       <c r="E7">
-        <v>3289611</v>
+        <v>3152502.25</v>
       </c>
       <c r="F7">
-        <v>3240298.75</v>
+        <v>3202956</v>
       </c>
       <c r="G7">
-        <v>3208788.5</v>
+        <v>3215638.25</v>
       </c>
       <c r="H7">
-        <v>3258934.75</v>
+        <v>3074373.25</v>
       </c>
       <c r="I7">
-        <v>3152566</v>
+        <v>3084509.75</v>
       </c>
       <c r="J7">
-        <v>3152508.5</v>
+        <v>3061460</v>
       </c>
       <c r="K7">
-        <v>3140186</v>
+        <v>2892740.110891248</v>
       </c>
       <c r="L7">
-        <v>3196109.75152237</v>
+        <v>2891301.75</v>
       </c>
       <c r="M7">
-        <v>2920011.577840093</v>
+        <v>2878093.762119048</v>
       </c>
       <c r="N7">
-        <v>3020569.772952382</v>
+        <v>2373105.75</v>
       </c>
       <c r="O7">
-        <v>2891302</v>
+        <v>2706828.019842821</v>
       </c>
       <c r="P7">
-        <v>2378297.5</v>
+        <v>2438377</v>
       </c>
       <c r="Q7">
-        <v>28087778</v>
+        <v>6241889.5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1245,43 +1245,43 @@
         <v>3367579.25</v>
       </c>
       <c r="E8">
-        <v>3479586.25</v>
+        <v>3152501.75</v>
       </c>
       <c r="F8">
-        <v>3485431.5</v>
+        <v>3317956</v>
       </c>
       <c r="G8">
-        <v>3534617</v>
+        <v>3333809.25</v>
       </c>
       <c r="H8">
-        <v>3319504.25</v>
+        <v>3566379.5</v>
       </c>
       <c r="I8">
-        <v>3152595.5</v>
+        <v>3511008</v>
       </c>
       <c r="J8">
-        <v>3152508.5</v>
+        <v>3270672.25</v>
       </c>
       <c r="K8">
-        <v>3477792</v>
+        <v>3031259.192911799</v>
       </c>
       <c r="L8">
-        <v>3174340.915427745</v>
+        <v>2969352</v>
       </c>
       <c r="M8">
-        <v>3402293.723536174</v>
+        <v>3130349.822525974</v>
       </c>
       <c r="N8">
-        <v>3281773.321583335</v>
+        <v>2775972.5</v>
       </c>
       <c r="O8">
-        <v>3399107</v>
+        <v>2790699.171335946</v>
       </c>
       <c r="P8">
-        <v>2786731</v>
+        <v>5657463</v>
       </c>
       <c r="Q8">
-        <v>-4305740</v>
+        <v>-11054678</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1298,43 +1298,43 @@
         <v>3385911</v>
       </c>
       <c r="E9">
-        <v>3480132.75</v>
+        <v>3152501.5</v>
       </c>
       <c r="F9">
-        <v>3341179.5</v>
+        <v>3410940.75</v>
       </c>
       <c r="G9">
-        <v>3294101.25</v>
+        <v>3325006.75</v>
       </c>
       <c r="H9">
-        <v>3473312</v>
+        <v>3341544.75</v>
       </c>
       <c r="I9">
-        <v>3152609</v>
+        <v>3272113.5</v>
       </c>
       <c r="J9">
-        <v>3152504</v>
+        <v>3169287.25</v>
       </c>
       <c r="K9">
-        <v>3416129</v>
+        <v>3119440.235270682</v>
       </c>
       <c r="L9">
-        <v>3107160.520950276</v>
+        <v>3119839</v>
       </c>
       <c r="M9">
-        <v>3251232.711214602</v>
+        <v>3111203.513983045</v>
       </c>
       <c r="N9">
-        <v>3222848.978432539</v>
+        <v>3510482.75</v>
       </c>
       <c r="O9">
-        <v>3251039.5</v>
+        <v>2872866.810439813</v>
       </c>
       <c r="P9">
-        <v>3507192.5</v>
+        <v>5738431</v>
       </c>
       <c r="Q9">
-        <v>36957760</v>
+        <v>16309099</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1351,43 +1351,43 @@
         <v>3357167.25</v>
       </c>
       <c r="E10">
-        <v>3386870.75</v>
+        <v>3152502</v>
       </c>
       <c r="F10">
-        <v>3403892.5</v>
+        <v>3343561.5</v>
       </c>
       <c r="G10">
-        <v>3303223.75</v>
+        <v>3502293.25</v>
       </c>
       <c r="H10">
-        <v>3367669.5</v>
+        <v>3380037</v>
       </c>
       <c r="I10">
-        <v>3152579.5</v>
+        <v>3352685.5</v>
       </c>
       <c r="J10">
-        <v>3152505.25</v>
+        <v>3432311.5</v>
       </c>
       <c r="K10">
-        <v>3392587.75</v>
+        <v>2673387.363089243</v>
       </c>
       <c r="L10">
-        <v>3089986.50194906</v>
+        <v>2676677.25</v>
       </c>
       <c r="M10">
-        <v>3119984.14003212</v>
+        <v>2731061.926285714</v>
       </c>
       <c r="N10">
-        <v>3123754.39174459</v>
+        <v>3704310.75</v>
       </c>
       <c r="O10">
-        <v>3111612.75</v>
+        <v>2804887.92305674</v>
       </c>
       <c r="P10">
-        <v>3704303.5</v>
+        <v>5628745.5</v>
       </c>
       <c r="Q10">
-        <v>22677224</v>
+        <v>-6557849</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1404,43 +1404,43 @@
         <v>3326395.75</v>
       </c>
       <c r="E11">
-        <v>3183416.5</v>
+        <v>3152502</v>
       </c>
       <c r="F11">
-        <v>2776882.5</v>
+        <v>2965860.5</v>
       </c>
       <c r="G11">
-        <v>3103313</v>
+        <v>2744117.5</v>
       </c>
       <c r="H11">
-        <v>3009929</v>
+        <v>2916884</v>
       </c>
       <c r="I11">
-        <v>3152556.5</v>
+        <v>2695551.25</v>
       </c>
       <c r="J11">
-        <v>3152505.75</v>
+        <v>2948626.75</v>
       </c>
       <c r="K11">
-        <v>3014461.75</v>
+        <v>2672145.874151633</v>
       </c>
       <c r="L11">
-        <v>3029765.682192095</v>
+        <v>2672633</v>
       </c>
       <c r="M11">
-        <v>3121161.024127041</v>
+        <v>2676049.830042126</v>
       </c>
       <c r="N11">
-        <v>3107651.991000002</v>
+        <v>2415991</v>
       </c>
       <c r="O11">
-        <v>3126357.25</v>
+        <v>2626744.686562946</v>
       </c>
       <c r="P11">
-        <v>2415989.25</v>
+        <v>5323963</v>
       </c>
       <c r="Q11">
-        <v>-22577924</v>
+        <v>-18221050</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1457,43 +1457,43 @@
         <v>3274700</v>
       </c>
       <c r="E12">
-        <v>3075627.75</v>
+        <v>3152501.75</v>
       </c>
       <c r="F12">
-        <v>3127707.75</v>
+        <v>3162613</v>
       </c>
       <c r="G12">
-        <v>3130676.25</v>
+        <v>3163396.5</v>
       </c>
       <c r="H12">
-        <v>3135444.5</v>
+        <v>3049203.5</v>
       </c>
       <c r="I12">
-        <v>3152556</v>
+        <v>2596612.75</v>
       </c>
       <c r="J12">
-        <v>3152503.5</v>
+        <v>3190637.5</v>
       </c>
       <c r="K12">
-        <v>3092085.75</v>
+        <v>3274117.536544676</v>
       </c>
       <c r="L12">
-        <v>3182730.056773642</v>
+        <v>3344019.5</v>
       </c>
       <c r="M12">
-        <v>3274522.877978979</v>
+        <v>3043807.1415</v>
       </c>
       <c r="N12">
-        <v>3215084.387166667</v>
+        <v>2335037</v>
       </c>
       <c r="O12">
-        <v>3063168.5</v>
+        <v>2893579.727030487</v>
       </c>
       <c r="P12">
-        <v>2317435.75</v>
+        <v>5700329</v>
       </c>
       <c r="Q12">
-        <v>42178848</v>
+        <v>2723631.5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1510,43 +1510,43 @@
         <v>3403701.5</v>
       </c>
       <c r="E13">
-        <v>3169547</v>
+        <v>3152501.75</v>
       </c>
       <c r="F13">
-        <v>2852008</v>
+        <v>2943271.25</v>
       </c>
       <c r="G13">
-        <v>3018881.75</v>
+        <v>3009823.75</v>
       </c>
       <c r="H13">
-        <v>2899709.75</v>
+        <v>2808063.5</v>
       </c>
       <c r="I13">
-        <v>3152560.5</v>
+        <v>2105242.25</v>
       </c>
       <c r="J13">
-        <v>3152505.5</v>
+        <v>2908950</v>
       </c>
       <c r="K13">
-        <v>2838320.5</v>
+        <v>2673387.363089243</v>
       </c>
       <c r="L13">
-        <v>3089986.50194906</v>
+        <v>2676677.25</v>
       </c>
       <c r="M13">
-        <v>3119984.14003212</v>
+        <v>2731061.926285714</v>
       </c>
       <c r="N13">
-        <v>3123754.39174459</v>
+        <v>2458957.25</v>
       </c>
       <c r="O13">
-        <v>3111612.75</v>
+        <v>2804887.92305674</v>
       </c>
       <c r="P13">
-        <v>2443338.25</v>
+        <v>5515326.5</v>
       </c>
       <c r="Q13">
-        <v>12003449</v>
+        <v>-3901935.5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1563,43 +1563,43 @@
         <v>3526623</v>
       </c>
       <c r="E14">
-        <v>3374755</v>
+        <v>3152501.75</v>
       </c>
       <c r="F14">
-        <v>2876143.75</v>
+        <v>3060048.75</v>
       </c>
       <c r="G14">
-        <v>3032989.25</v>
+        <v>2880281.5</v>
       </c>
       <c r="H14">
-        <v>3014639.5</v>
+        <v>2794626.75</v>
       </c>
       <c r="I14">
-        <v>3152595</v>
+        <v>1979063.25</v>
       </c>
       <c r="J14">
-        <v>3152504.75</v>
+        <v>3060698</v>
       </c>
       <c r="K14">
-        <v>3048552.5</v>
+        <v>2329099.165598785</v>
       </c>
       <c r="L14">
-        <v>2992599.116845962</v>
+        <v>2329365.75</v>
       </c>
       <c r="M14">
-        <v>2995768.860906325</v>
+        <v>2310881.209453241</v>
       </c>
       <c r="N14">
-        <v>2962004.748690475</v>
+        <v>2641864.5</v>
       </c>
       <c r="O14">
-        <v>2994144.5</v>
+        <v>2430957.245304233</v>
       </c>
       <c r="P14">
-        <v>2641866.5</v>
+        <v>5636220</v>
       </c>
       <c r="Q14">
-        <v>51113040</v>
+        <v>-7675519</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1616,43 +1616,43 @@
         <v>3611019</v>
       </c>
       <c r="E15">
-        <v>3498677.5</v>
+        <v>3152502.25</v>
       </c>
       <c r="F15">
-        <v>3141576.25</v>
+        <v>3367644.5</v>
       </c>
       <c r="G15">
-        <v>3260436.5</v>
+        <v>3364520.5</v>
       </c>
       <c r="H15">
-        <v>3201052</v>
+        <v>3510789</v>
       </c>
       <c r="I15">
-        <v>3152625.75</v>
+        <v>2662136.75</v>
       </c>
       <c r="J15">
-        <v>3152506</v>
+        <v>3089306.75</v>
       </c>
       <c r="K15">
-        <v>3287177.75</v>
+        <v>3228099.266638572</v>
       </c>
       <c r="L15">
-        <v>3174340.915427745</v>
+        <v>3242008</v>
       </c>
       <c r="M15">
-        <v>3319000.977915027</v>
+        <v>3121757.017150794</v>
       </c>
       <c r="N15">
-        <v>3150543.246809524</v>
+        <v>2138781.5</v>
       </c>
       <c r="O15">
-        <v>3048502.5</v>
+        <v>3022729.830918036</v>
       </c>
       <c r="P15">
-        <v>2128025</v>
+        <v>5995094.5</v>
       </c>
       <c r="Q15">
-        <v>4005618.75</v>
+        <v>7620087</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1669,43 +1669,43 @@
         <v>3573648.5</v>
       </c>
       <c r="E16">
-        <v>3102312.5</v>
+        <v>3152502.25</v>
       </c>
       <c r="F16">
-        <v>2829048.25</v>
+        <v>3218099</v>
       </c>
       <c r="G16">
-        <v>2926503.5</v>
+        <v>3045836</v>
       </c>
       <c r="H16">
-        <v>3069817.5</v>
+        <v>2708888.5</v>
       </c>
       <c r="I16">
-        <v>3152623.5</v>
+        <v>2381118</v>
       </c>
       <c r="J16">
-        <v>3152505.25</v>
+        <v>2851443.5</v>
       </c>
       <c r="K16">
-        <v>2937790.25</v>
+        <v>2864018.890950729</v>
       </c>
       <c r="L16">
-        <v>2931267.037239566</v>
+        <v>2862355.5</v>
       </c>
       <c r="M16">
-        <v>2844134.447498387</v>
+        <v>2824702.83187013</v>
       </c>
       <c r="N16">
-        <v>2880851.357619047</v>
+        <v>1865287.375</v>
       </c>
       <c r="O16">
-        <v>2862347.75</v>
+        <v>2713656.034459227</v>
       </c>
       <c r="P16">
-        <v>1864228.125</v>
+        <v>6072661</v>
       </c>
       <c r="Q16">
-        <v>9367581</v>
+        <v>-22370190</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1722,43 +1722,43 @@
         <v>3660756.75</v>
       </c>
       <c r="E17">
-        <v>3029362.75</v>
+        <v>3152502.5</v>
       </c>
       <c r="F17">
-        <v>2816993</v>
+        <v>3030124.75</v>
       </c>
       <c r="G17">
-        <v>2945979</v>
+        <v>2907143.5</v>
       </c>
       <c r="H17">
-        <v>3039840.5</v>
+        <v>2981599.25</v>
       </c>
       <c r="I17">
-        <v>3152621</v>
+        <v>2537133.5</v>
       </c>
       <c r="J17">
-        <v>3152504.5</v>
+        <v>2679586.5</v>
       </c>
       <c r="K17">
-        <v>2921767.75</v>
+        <v>2932825.390485556</v>
       </c>
       <c r="L17">
-        <v>3144327.086296409</v>
+        <v>2928653.75</v>
       </c>
       <c r="M17">
-        <v>2962143.919997941</v>
+        <v>2944349.174283411</v>
       </c>
       <c r="N17">
-        <v>2973403.516166667</v>
+        <v>1756285.375</v>
       </c>
       <c r="O17">
-        <v>2928666.25</v>
+        <v>2962130.798632894</v>
       </c>
       <c r="P17">
-        <v>1764958.125</v>
+        <v>6170564.5</v>
       </c>
       <c r="Q17">
-        <v>-2558830.5</v>
+        <v>26564290</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1775,43 +1775,43 @@
         <v>3604046.75</v>
       </c>
       <c r="E18">
-        <v>3114090</v>
+        <v>3152502.75</v>
       </c>
       <c r="F18">
-        <v>2978655.75</v>
+        <v>3015422.25</v>
       </c>
       <c r="G18">
-        <v>3073702</v>
+        <v>2895911.25</v>
       </c>
       <c r="H18">
-        <v>3180951.75</v>
+        <v>3051903.5</v>
       </c>
       <c r="I18">
-        <v>3152621.25</v>
+        <v>2691324.75</v>
       </c>
       <c r="J18">
-        <v>3152505.75</v>
+        <v>2673022.25</v>
       </c>
       <c r="K18">
-        <v>3065045.5</v>
+        <v>3042449.787037775</v>
       </c>
       <c r="L18">
-        <v>3183805.557498336</v>
+        <v>3043010.25</v>
       </c>
       <c r="M18">
-        <v>3173222.295174504</v>
+        <v>3038435.073032939</v>
       </c>
       <c r="N18">
-        <v>3163673.268246393</v>
+        <v>1699132.75</v>
       </c>
       <c r="O18">
-        <v>3178981.75</v>
+        <v>2855286.254042096</v>
       </c>
       <c r="P18">
-        <v>1647075.125</v>
+        <v>6037562.5</v>
       </c>
       <c r="Q18">
-        <v>-3740749.25</v>
+        <v>13045284</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1828,43 +1828,43 @@
         <v>3650265.25</v>
       </c>
       <c r="E19">
-        <v>2912035.25</v>
+        <v>3152502.75</v>
       </c>
       <c r="F19">
-        <v>2871410</v>
+        <v>2988883.25</v>
       </c>
       <c r="G19">
-        <v>2918403.5</v>
+        <v>2907864.75</v>
       </c>
       <c r="H19">
-        <v>2846737.75</v>
+        <v>2944376.75</v>
       </c>
       <c r="I19">
-        <v>3152621.5</v>
+        <v>2612615.25</v>
       </c>
       <c r="J19">
-        <v>3152504.25</v>
+        <v>2428681.75</v>
       </c>
       <c r="K19">
-        <v>2913751.75</v>
+        <v>3115469.949290305</v>
       </c>
       <c r="L19">
-        <v>3181139.798802751</v>
+        <v>3113884.25</v>
       </c>
       <c r="M19">
-        <v>3162482.083569347</v>
+        <v>3086513.534416666</v>
       </c>
       <c r="N19">
-        <v>3149964.007</v>
+        <v>1454335.5</v>
       </c>
       <c r="O19">
-        <v>3173879</v>
+        <v>2920080.165425754</v>
       </c>
       <c r="P19">
-        <v>1475093.5</v>
+        <v>5822165</v>
       </c>
       <c r="Q19">
-        <v>1188960.75</v>
+        <v>-21974512</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1881,43 +1881,43 @@
         <v>3759440.5</v>
       </c>
       <c r="E20">
-        <v>3298610</v>
+        <v>3152503.25</v>
       </c>
       <c r="F20">
-        <v>2989991.25</v>
+        <v>3245488.25</v>
       </c>
       <c r="G20">
-        <v>3015770.75</v>
+        <v>3016787.25</v>
       </c>
       <c r="H20">
-        <v>3101098.75</v>
+        <v>3082113.25</v>
       </c>
       <c r="I20">
-        <v>3152621.75</v>
+        <v>2240595.25</v>
       </c>
       <c r="J20">
-        <v>3152504.25</v>
+        <v>2390486.75</v>
       </c>
       <c r="K20">
-        <v>3116996</v>
+        <v>3080398.910284646</v>
       </c>
       <c r="L20">
-        <v>3175931.173398636</v>
+        <v>3078905.5</v>
       </c>
       <c r="M20">
-        <v>3070615.40801684</v>
+        <v>3059817.766261905</v>
       </c>
       <c r="N20">
-        <v>3095912.5285</v>
+        <v>1669065.5</v>
       </c>
       <c r="O20">
-        <v>3078906.5</v>
+        <v>2782445.740467214</v>
       </c>
       <c r="P20">
-        <v>1660089.625</v>
+        <v>6188110</v>
       </c>
       <c r="Q20">
-        <v>7557280.5</v>
+        <v>1590507.5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1934,43 +1934,43 @@
         <v>3788538.5</v>
       </c>
       <c r="E21">
-        <v>3121636</v>
+        <v>3152502.75</v>
       </c>
       <c r="F21">
-        <v>3026225.5</v>
+        <v>3111347.5</v>
       </c>
       <c r="G21">
-        <v>3028548.25</v>
+        <v>3248531</v>
       </c>
       <c r="H21">
-        <v>3117392.75</v>
+        <v>3103433.25</v>
       </c>
       <c r="I21">
-        <v>3152622.25</v>
+        <v>2356717.75</v>
       </c>
       <c r="J21">
-        <v>3152503.5</v>
+        <v>2153672</v>
       </c>
       <c r="K21">
-        <v>3060277.5</v>
+        <v>2913474.883088162</v>
       </c>
       <c r="L21">
-        <v>3045828.441343881</v>
+        <v>2914426</v>
       </c>
       <c r="M21">
-        <v>3038521.340885951</v>
+        <v>2905411.786159091</v>
       </c>
       <c r="N21">
-        <v>3034036.207563492</v>
+        <v>1021815.4375</v>
       </c>
       <c r="O21">
-        <v>3036068</v>
+        <v>2844105.038343429</v>
       </c>
       <c r="P21">
-        <v>1021819.6875</v>
+        <v>6466238</v>
       </c>
       <c r="Q21">
-        <v>34157576</v>
+        <v>-7594990.5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1987,43 +1987,43 @@
         <v>3839723</v>
       </c>
       <c r="E22">
-        <v>3134558.25</v>
+        <v>3152502.5</v>
       </c>
       <c r="F22">
-        <v>3084073.5</v>
+        <v>3275268.5</v>
       </c>
       <c r="G22">
-        <v>3056794.25</v>
+        <v>3257016.5</v>
       </c>
       <c r="H22">
-        <v>3087475.25</v>
+        <v>3193888</v>
       </c>
       <c r="I22">
-        <v>3152621.75</v>
+        <v>2443561</v>
       </c>
       <c r="J22">
-        <v>3152506.25</v>
+        <v>2574309.75</v>
       </c>
       <c r="K22">
-        <v>3073241</v>
+        <v>2532864.840379054</v>
       </c>
       <c r="L22">
-        <v>3028175.424221204</v>
+        <v>2531378.75</v>
       </c>
       <c r="M22">
-        <v>3081610.127252227</v>
+        <v>2519590.838060162</v>
       </c>
       <c r="N22">
-        <v>3053199.238115081</v>
+        <v>2776743.75</v>
       </c>
       <c r="O22">
-        <v>3080256.25</v>
+        <v>2627829.257913424</v>
       </c>
       <c r="P22">
-        <v>2776739.75</v>
+        <v>6592885.5</v>
       </c>
       <c r="Q22">
-        <v>-8384226</v>
+        <v>3076205.5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2040,43 +2040,43 @@
         <v>3808182.75</v>
       </c>
       <c r="E23">
-        <v>2929051</v>
+        <v>3152502</v>
       </c>
       <c r="F23">
-        <v>2858329</v>
+        <v>3052940.75</v>
       </c>
       <c r="G23">
-        <v>2911244.25</v>
+        <v>3018811.75</v>
       </c>
       <c r="H23">
-        <v>2866580.5</v>
+        <v>2970788.75</v>
       </c>
       <c r="I23">
-        <v>3152621.25</v>
+        <v>2782553</v>
       </c>
       <c r="J23">
-        <v>3152505.75</v>
+        <v>2538115.75</v>
       </c>
       <c r="K23">
-        <v>2885790</v>
+        <v>3002141.623673105</v>
       </c>
       <c r="L23">
-        <v>3174340.915427745</v>
+        <v>3000941.75</v>
       </c>
       <c r="M23">
-        <v>2926258.861272521</v>
+        <v>3003043.037174603</v>
       </c>
       <c r="N23">
-        <v>2962192.515642858</v>
+        <v>1745140.625</v>
       </c>
       <c r="O23">
-        <v>2904348.75</v>
+        <v>3022729.830918036</v>
       </c>
       <c r="P23">
-        <v>1745138.875</v>
+        <v>6473791.5</v>
       </c>
       <c r="Q23">
-        <v>20047352</v>
+        <v>-18543250</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2093,43 +2093,43 @@
         <v>3862500.25</v>
       </c>
       <c r="E24">
-        <v>2583194.25</v>
+        <v>3152500.75</v>
       </c>
       <c r="F24">
-        <v>2555042</v>
+        <v>2258928.75</v>
       </c>
       <c r="G24">
-        <v>2581631.5</v>
+        <v>2428668</v>
       </c>
       <c r="H24">
-        <v>2578434</v>
+        <v>2477286.5</v>
       </c>
       <c r="I24">
-        <v>3152622.5</v>
+        <v>1877138.125</v>
       </c>
       <c r="J24">
-        <v>3152505.25</v>
+        <v>1500316.125</v>
       </c>
       <c r="K24">
-        <v>2656169.5</v>
+        <v>2839539.437045123</v>
       </c>
       <c r="L24">
-        <v>2956167.579492387</v>
+        <v>2841466.75</v>
       </c>
       <c r="M24">
-        <v>2592751.570520413</v>
+        <v>2768917.722666666</v>
       </c>
       <c r="N24">
-        <v>2772963.62104762</v>
+        <v>1965844.5</v>
       </c>
       <c r="O24">
-        <v>2568852</v>
+        <v>2720301.800342828</v>
       </c>
       <c r="P24">
-        <v>1965849.875</v>
+        <v>6748954.5</v>
       </c>
       <c r="Q24">
-        <v>14935515</v>
+        <v>20709414</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2146,43 +2146,43 @@
         <v>3918111.25</v>
       </c>
       <c r="E25">
-        <v>2757423</v>
+        <v>3152500.25</v>
       </c>
       <c r="F25">
-        <v>2717595.75</v>
+        <v>1757311</v>
       </c>
       <c r="G25">
-        <v>2851193</v>
+        <v>2212829.5</v>
       </c>
       <c r="H25">
-        <v>2692782.25</v>
+        <v>2540610.25</v>
       </c>
       <c r="I25">
-        <v>3152624.5</v>
+        <v>1829284.75</v>
       </c>
       <c r="J25">
-        <v>3152505.5</v>
+        <v>874234.5</v>
       </c>
       <c r="K25">
-        <v>2837897</v>
+        <v>3644067.415369751</v>
       </c>
       <c r="L25">
-        <v>3415105.214362752</v>
+        <v>3647472.25</v>
       </c>
       <c r="M25">
-        <v>3733914.79963611</v>
+        <v>3624270.223000001</v>
       </c>
       <c r="N25">
-        <v>3690216.450666666</v>
+        <v>2999299.25</v>
       </c>
       <c r="O25">
-        <v>3744437</v>
+        <v>3018156.167464618</v>
       </c>
       <c r="P25">
-        <v>2999298.75</v>
+        <v>6750587</v>
       </c>
       <c r="Q25">
-        <v>43609472</v>
+        <v>-25402770</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2199,43 +2199,43 @@
         <v>4008163</v>
       </c>
       <c r="E26">
-        <v>2876342.5</v>
+        <v>3152501</v>
       </c>
       <c r="F26">
-        <v>2829397.25</v>
+        <v>2044267</v>
       </c>
       <c r="G26">
-        <v>2869141.5</v>
+        <v>2611065.75</v>
       </c>
       <c r="H26">
-        <v>2854586.75</v>
+        <v>2734669</v>
       </c>
       <c r="I26">
-        <v>3152623.25</v>
+        <v>2032604</v>
       </c>
       <c r="J26">
-        <v>3152505.25</v>
+        <v>1044742.5</v>
       </c>
       <c r="K26">
-        <v>2919249.75</v>
+        <v>3119440.235270682</v>
       </c>
       <c r="L26">
-        <v>3107160.520950276</v>
+        <v>3119839</v>
       </c>
       <c r="M26">
-        <v>3251232.711214602</v>
+        <v>3111203.513983045</v>
       </c>
       <c r="N26">
-        <v>3222848.978432539</v>
+        <v>2433136.5</v>
       </c>
       <c r="O26">
-        <v>3251039.5</v>
+        <v>2872866.810439813</v>
       </c>
       <c r="P26">
-        <v>2433135.5</v>
+        <v>7132496</v>
       </c>
       <c r="Q26">
-        <v>30191742</v>
+        <v>27552616</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2252,43 +2252,43 @@
         <v>4007408</v>
       </c>
       <c r="E27">
-        <v>3116436.25</v>
+        <v>3152502</v>
       </c>
       <c r="F27">
-        <v>3067165</v>
+        <v>2354871</v>
       </c>
       <c r="G27">
-        <v>3077904.5</v>
+        <v>2800605</v>
       </c>
       <c r="H27">
-        <v>3097529</v>
+        <v>2900738.25</v>
       </c>
       <c r="I27">
-        <v>3152620.75</v>
+        <v>2568801</v>
       </c>
       <c r="J27">
-        <v>3152505.5</v>
+        <v>2053957</v>
       </c>
       <c r="K27">
-        <v>3003520.5</v>
+        <v>2125240.048596869</v>
       </c>
       <c r="L27">
-        <v>3415105.214362752</v>
+        <v>2101937.5</v>
       </c>
       <c r="M27">
-        <v>3695588.499842188</v>
+        <v>2545323.636</v>
       </c>
       <c r="N27">
-        <v>3675044.955000001</v>
+        <v>3129182.25</v>
       </c>
       <c r="O27">
-        <v>3745085.5</v>
+        <v>3053265.89607428</v>
       </c>
       <c r="P27">
-        <v>3129182</v>
+        <v>6849016.5</v>
       </c>
       <c r="Q27">
-        <v>9551012</v>
+        <v>8704109</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2305,43 +2305,43 @@
         <v>4037032.5</v>
       </c>
       <c r="E28">
-        <v>2873568.5</v>
+        <v>3152502.75</v>
       </c>
       <c r="F28">
-        <v>2845461.25</v>
+        <v>2535241.25</v>
       </c>
       <c r="G28">
-        <v>2827514.25</v>
+        <v>2666245.75</v>
       </c>
       <c r="H28">
-        <v>2688094</v>
+        <v>2794436</v>
       </c>
       <c r="I28">
-        <v>3152619.75</v>
+        <v>2386635.5</v>
       </c>
       <c r="J28">
-        <v>3152505</v>
+        <v>1787906</v>
       </c>
       <c r="K28">
-        <v>2811249.25</v>
+        <v>2712965.01255566</v>
       </c>
       <c r="L28">
-        <v>2964375.27690461</v>
+        <v>2722987.5</v>
       </c>
       <c r="M28">
-        <v>2843418.233498034</v>
+        <v>2652343.086726912</v>
       </c>
       <c r="N28">
-        <v>2826964.281904762</v>
+        <v>1959054.75</v>
       </c>
       <c r="O28">
-        <v>2723026.75</v>
+        <v>2462063.38413366</v>
       </c>
       <c r="P28">
-        <v>1959059.125</v>
+        <v>7168226.5</v>
       </c>
       <c r="Q28">
-        <v>-9201879</v>
+        <v>1941165.5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2358,43 +2358,43 @@
         <v>4060179.25</v>
       </c>
       <c r="E29">
-        <v>2919278</v>
+        <v>3152502.75</v>
       </c>
       <c r="F29">
-        <v>2970636.75</v>
+        <v>2556284.5</v>
       </c>
       <c r="G29">
-        <v>2914482</v>
+        <v>2872420</v>
       </c>
       <c r="H29">
-        <v>3146182.5</v>
+        <v>2916805.5</v>
       </c>
       <c r="I29">
-        <v>3152619</v>
+        <v>2320636</v>
       </c>
       <c r="J29">
-        <v>3152505.25</v>
+        <v>1963249</v>
       </c>
       <c r="K29">
-        <v>2946728.75</v>
+        <v>2932825.390485556</v>
       </c>
       <c r="L29">
-        <v>3144327.086296409</v>
+        <v>2928653.75</v>
       </c>
       <c r="M29">
-        <v>2962143.919997941</v>
+        <v>2944349.174283411</v>
       </c>
       <c r="N29">
-        <v>2973403.516166667</v>
+        <v>2575956.25</v>
       </c>
       <c r="O29">
-        <v>2928666.25</v>
+        <v>2962130.798632894</v>
       </c>
       <c r="P29">
-        <v>2575035</v>
+        <v>7097400.5</v>
       </c>
       <c r="Q29">
-        <v>-15676979</v>
+        <v>11389222</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2411,43 +2411,43 @@
         <v>4097172.25</v>
       </c>
       <c r="E30">
-        <v>2998322.25</v>
+        <v>3152502.25</v>
       </c>
       <c r="F30">
-        <v>2954715</v>
+        <v>2892802.25</v>
       </c>
       <c r="G30">
-        <v>3020056.5</v>
+        <v>3054702.75</v>
       </c>
       <c r="H30">
-        <v>2938642.25</v>
+        <v>3174786.25</v>
       </c>
       <c r="I30">
-        <v>3152617</v>
+        <v>2473080</v>
       </c>
       <c r="J30">
-        <v>3152505.5</v>
+        <v>1997623.125</v>
       </c>
       <c r="K30">
-        <v>2906150.25</v>
+        <v>2673387.363089243</v>
       </c>
       <c r="L30">
-        <v>3089986.50194906</v>
+        <v>2676677.25</v>
       </c>
       <c r="M30">
-        <v>3119984.14003212</v>
+        <v>2731061.926285714</v>
       </c>
       <c r="N30">
-        <v>3123754.39174459</v>
+        <v>2798417.75</v>
       </c>
       <c r="O30">
-        <v>3111612.75</v>
+        <v>2804887.92305674</v>
       </c>
       <c r="P30">
-        <v>2798417.5</v>
+        <v>7354845</v>
       </c>
       <c r="Q30">
-        <v>-9709959</v>
+        <v>27426338</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2464,43 +2464,43 @@
         <v>4099446.75</v>
       </c>
       <c r="E31">
-        <v>2487346.5</v>
+        <v>3152502.25</v>
       </c>
       <c r="F31">
-        <v>2607382.25</v>
+        <v>2086352.375</v>
       </c>
       <c r="G31">
-        <v>2632360</v>
+        <v>2596153.5</v>
       </c>
       <c r="H31">
-        <v>2606315.25</v>
+        <v>2663226.5</v>
       </c>
       <c r="I31">
-        <v>3152614.25</v>
+        <v>1807093.25</v>
       </c>
       <c r="J31">
-        <v>3152506</v>
+        <v>1435838.875</v>
       </c>
       <c r="K31">
-        <v>2619548.75</v>
+        <v>3119440.235270682</v>
       </c>
       <c r="L31">
-        <v>3107160.520950276</v>
+        <v>3119839</v>
       </c>
       <c r="M31">
-        <v>3251232.711214602</v>
+        <v>3111203.513983045</v>
       </c>
       <c r="N31">
-        <v>3222848.978432539</v>
+        <v>2192411.75</v>
       </c>
       <c r="O31">
-        <v>3251039.5</v>
+        <v>2872866.810439813</v>
       </c>
       <c r="P31">
-        <v>2192415.25</v>
+        <v>7414236.5</v>
       </c>
       <c r="Q31">
-        <v>177773504</v>
+        <v>124757608</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2517,43 +2517,43 @@
         <v>4081235</v>
       </c>
       <c r="E32">
-        <v>3112693.75</v>
+        <v>3152501.5</v>
       </c>
       <c r="F32">
-        <v>3048347.75</v>
+        <v>2768211</v>
       </c>
       <c r="G32">
-        <v>3112652</v>
+        <v>3041088.75</v>
       </c>
       <c r="H32">
-        <v>3124526.5</v>
+        <v>3020355.75</v>
       </c>
       <c r="I32">
-        <v>3152613.25</v>
+        <v>2688216.5</v>
       </c>
       <c r="J32">
-        <v>3152505.5</v>
+        <v>2265675.75</v>
       </c>
       <c r="K32">
-        <v>3005371.5</v>
+        <v>3002141.623673105</v>
       </c>
       <c r="L32">
-        <v>3174340.915427745</v>
+        <v>3000941.75</v>
       </c>
       <c r="M32">
-        <v>2926258.861272521</v>
+        <v>3003043.037174603</v>
       </c>
       <c r="N32">
-        <v>2962192.515642858</v>
+        <v>2939240.25</v>
       </c>
       <c r="O32">
-        <v>2904348.75</v>
+        <v>3022729.830918036</v>
       </c>
       <c r="P32">
-        <v>2939235.5</v>
+        <v>7455405.5</v>
       </c>
       <c r="Q32">
-        <v>289711104</v>
+        <v>334907584</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2570,43 +2570,43 @@
         <v>4114394.75</v>
       </c>
       <c r="E33">
-        <v>2883694.25</v>
+        <v>3152500.5</v>
       </c>
       <c r="F33">
-        <v>2892056</v>
+        <v>2819592.25</v>
       </c>
       <c r="G33">
-        <v>2854536</v>
+        <v>2765919.5</v>
       </c>
       <c r="H33">
-        <v>2905329.75</v>
+        <v>3072902.75</v>
       </c>
       <c r="I33">
-        <v>3152614</v>
+        <v>2726067.5</v>
       </c>
       <c r="J33">
-        <v>3152505.75</v>
+        <v>2402542</v>
       </c>
       <c r="K33">
-        <v>2905323.5</v>
+        <v>2913474.883088162</v>
       </c>
       <c r="L33">
-        <v>3045828.441343881</v>
+        <v>2914426</v>
       </c>
       <c r="M33">
-        <v>3038521.340885951</v>
+        <v>2905411.786159091</v>
       </c>
       <c r="N33">
-        <v>3034036.207563492</v>
+        <v>2405181.5</v>
       </c>
       <c r="O33">
-        <v>3036068</v>
+        <v>2844105.038343429</v>
       </c>
       <c r="P33">
-        <v>2405180.25</v>
+        <v>8026496</v>
       </c>
       <c r="Q33">
-        <v>653034112</v>
+        <v>399302400</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2623,43 +2623,43 @@
         <v>4202335.5</v>
       </c>
       <c r="E34">
-        <v>3077447.5</v>
+        <v>3152500.25</v>
       </c>
       <c r="F34">
-        <v>3026379.75</v>
+        <v>2206129.5</v>
       </c>
       <c r="G34">
-        <v>2859218.25</v>
+        <v>2731764.25</v>
       </c>
       <c r="H34">
-        <v>2925047</v>
+        <v>2913983.5</v>
       </c>
       <c r="I34">
-        <v>3152614.5</v>
+        <v>2641983.75</v>
       </c>
       <c r="J34">
-        <v>3152505.5</v>
+        <v>1532109.75</v>
       </c>
       <c r="K34">
-        <v>2934237.75</v>
+        <v>2672145.874151633</v>
       </c>
       <c r="L34">
-        <v>3029765.682192095</v>
+        <v>2672633</v>
       </c>
       <c r="M34">
-        <v>3121161.024127041</v>
+        <v>2676049.830042126</v>
       </c>
       <c r="N34">
-        <v>3107651.991000002</v>
+        <v>1744079.5</v>
       </c>
       <c r="O34">
-        <v>3126357.25</v>
+        <v>2626744.686562946</v>
       </c>
       <c r="P34">
-        <v>1744085.75</v>
+        <v>7902550.5</v>
       </c>
       <c r="Q34">
-        <v>886212608</v>
+        <v>562155264</v>
       </c>
     </row>
   </sheetData>
@@ -2700,340 +2700,340 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>240729907770.2344</v>
+        <v>218413477828.9583</v>
       </c>
       <c r="C2">
-        <v>490642.3420071227</v>
+        <v>467347.2775452515</v>
       </c>
       <c r="D2">
-        <v>0.02780646577952136</v>
+        <v>0.02457015167334106</v>
       </c>
       <c r="E2">
-        <v>240554.1041666667</v>
+        <v>223098.3958333333</v>
       </c>
       <c r="F2">
-        <v>0.1029751260574924</v>
+        <v>0.09432458770415279</v>
       </c>
       <c r="G2">
-        <v>89993.125</v>
+        <v>81325.125</v>
       </c>
       <c r="H2">
-        <v>0.05389628265160278</v>
+        <v>0.05069993070492583</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>213801125687.3164</v>
+        <v>242757474918.4154</v>
       </c>
       <c r="C3">
-        <v>462386.3381278868</v>
+        <v>492704.246905195</v>
       </c>
       <c r="D3">
-        <v>0.02507193854019879</v>
+        <v>0.0279016268801614</v>
       </c>
       <c r="E3">
-        <v>241069.21875</v>
+        <v>241392.9479166667</v>
       </c>
       <c r="F3">
-        <v>0.1035800111009893</v>
+        <v>0.1029283373209956</v>
       </c>
       <c r="G3">
-        <v>100352.125</v>
+        <v>86835.5</v>
       </c>
       <c r="H3">
-        <v>0.06246249829524461</v>
+        <v>0.05042544201591731</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>223455158977.3281</v>
+        <v>243013090238.0104</v>
       </c>
       <c r="C4">
-        <v>472710.438828389</v>
+        <v>492963.5790177712</v>
       </c>
       <c r="D4">
-        <v>0.02756822736018179</v>
+        <v>0.02783705999208239</v>
       </c>
       <c r="E4">
-        <v>247546.4375</v>
+        <v>238034.625</v>
       </c>
       <c r="F4">
-        <v>0.1097766816761782</v>
+        <v>0.1013511360898098</v>
       </c>
       <c r="G4">
-        <v>109914.75</v>
+        <v>92496.4375</v>
       </c>
       <c r="H4">
-        <v>0.0672284002920804</v>
+        <v>0.05206580477570503</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>284328517298.6232</v>
+        <v>213801125687.3164</v>
       </c>
       <c r="C5">
-        <v>533224.6405583891</v>
+        <v>462386.3381278868</v>
       </c>
       <c r="D5">
-        <v>0.03360002126573287</v>
+        <v>0.02507193854019879</v>
       </c>
       <c r="E5">
-        <v>285629.6233879469</v>
+        <v>241069.21875</v>
       </c>
       <c r="F5">
-        <v>0.1226933743247601</v>
+        <v>0.1035800111009893</v>
       </c>
       <c r="G5">
-        <v>120653.443812039</v>
+        <v>100352.125</v>
       </c>
       <c r="H5">
-        <v>0.06907306209442959</v>
+        <v>0.06246249829524461</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>250919606841.6752</v>
+        <v>228457328587.4141</v>
       </c>
       <c r="C6">
-        <v>500918.7627167455</v>
+        <v>477972.1002186363</v>
       </c>
       <c r="D6">
-        <v>0.02954564861074785</v>
+        <v>0.02664816016037736</v>
       </c>
       <c r="E6">
-        <v>264422.9878510808</v>
+        <v>241195.6875</v>
       </c>
       <c r="F6">
-        <v>0.1142562041486737</v>
+        <v>0.1033665077292503</v>
       </c>
       <c r="G6">
-        <v>147531.7013546494</v>
+        <v>129680.25</v>
       </c>
       <c r="H6">
-        <v>0.0835937565298497</v>
+        <v>0.07128725827321941</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>287930012568.9104</v>
+        <v>237689233897.2826</v>
       </c>
       <c r="C7">
-        <v>536591.1036989995</v>
+        <v>487533.8284645308</v>
       </c>
       <c r="D7">
-        <v>0.03302128831952755</v>
+        <v>0.02721092314026352</v>
       </c>
       <c r="E7">
-        <v>276434.1044448035</v>
+        <v>231430.53125</v>
       </c>
       <c r="F7">
-        <v>0.1179449771387035</v>
+        <v>0.09847583082830373</v>
       </c>
       <c r="G7">
-        <v>132808.8067059518</v>
+        <v>127109.9375</v>
       </c>
       <c r="H7">
-        <v>0.0820658899178667</v>
+        <v>0.07771870856291388</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>304560499795.7747</v>
+        <v>247199670627.6641</v>
       </c>
       <c r="C8">
-        <v>551870.0026236022</v>
+        <v>497191.7845536711</v>
       </c>
       <c r="D8">
-        <v>0.0344655428174458</v>
+        <v>0.03036069453859159</v>
       </c>
       <c r="E8">
-        <v>278642.8645833333</v>
+        <v>282766.8125</v>
       </c>
       <c r="F8">
-        <v>0.1181057409016805</v>
+        <v>0.1235349772150863</v>
       </c>
       <c r="G8">
-        <v>141188.875</v>
+        <v>132180.1875</v>
       </c>
       <c r="H8">
-        <v>0.08405213050645813</v>
+        <v>0.08037676708171781</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>247200233642.4037</v>
+        <v>338009699472.8268</v>
       </c>
       <c r="C9">
-        <v>497192.3507480819</v>
+        <v>581386.0158903264</v>
       </c>
       <c r="D9">
-        <v>0.03036077980052907</v>
+        <v>0.05488690027920087</v>
       </c>
       <c r="E9">
-        <v>282767.3125</v>
+        <v>379622.71875</v>
       </c>
       <c r="F9">
-        <v>0.1235351948199645</v>
+        <v>0.1822243675451237</v>
       </c>
       <c r="G9">
-        <v>132180.3125</v>
+        <v>257982.625</v>
       </c>
       <c r="H9">
-        <v>0.08037678208830412</v>
+        <v>0.1455564083664238</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>235573727944.4596</v>
+        <v>398761668216.0394</v>
       </c>
       <c r="C10">
-        <v>485359.3801962208</v>
+        <v>631475.7859301015</v>
       </c>
       <c r="D10">
-        <v>0.02948790183882105</v>
+        <v>0.05899126158986721</v>
       </c>
       <c r="E10">
-        <v>263301.4479166667</v>
+        <v>427519.6901822548</v>
       </c>
       <c r="F10">
-        <v>0.1179077213551934</v>
+        <v>0.2020709781579455</v>
       </c>
       <c r="G10">
-        <v>159181.5625</v>
+        <v>264222.5697775854</v>
       </c>
       <c r="H10">
-        <v>0.09647854846309115</v>
+        <v>0.1556120647637498</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>227758239770.112</v>
+        <v>456020602694.944</v>
       </c>
       <c r="C11">
-        <v>477240.2327655454</v>
+        <v>675292.9754520952</v>
       </c>
       <c r="D11">
-        <v>0.03031947305248245</v>
+        <v>0.06534679437301573</v>
       </c>
       <c r="E11">
-        <v>283957.9791666667</v>
+        <v>448327.4895833333</v>
       </c>
       <c r="F11">
-        <v>0.1304904156155903</v>
+        <v>0.2106377807566827</v>
       </c>
       <c r="G11">
-        <v>176889.625</v>
+        <v>269849.3125</v>
       </c>
       <c r="H11">
-        <v>0.09890301713662286</v>
+        <v>0.1556169209015091</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>271896059414.8438</v>
+        <v>381992967205.2991</v>
       </c>
       <c r="C12">
-        <v>521436.5344074423</v>
+        <v>618055.7961910067</v>
       </c>
       <c r="D12">
-        <v>0.03393246849998413</v>
+        <v>0.06020833197102277</v>
       </c>
       <c r="E12">
-        <v>305115.6666666667</v>
+        <v>441586.3563890685</v>
       </c>
       <c r="F12">
-        <v>0.138730658354323</v>
+        <v>0.2120049920333621</v>
       </c>
       <c r="G12">
-        <v>187589.625</v>
+        <v>272799.7787001334</v>
       </c>
       <c r="H12">
-        <v>0.1109230699845279</v>
+        <v>0.1681337955906951</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>282140365285.9336</v>
+        <v>430958427005.9175</v>
       </c>
       <c r="C13">
-        <v>531168.8670149386</v>
+        <v>656474.2394076994</v>
       </c>
       <c r="D13">
-        <v>0.05266277600406802</v>
+        <v>0.06309638084805512</v>
       </c>
       <c r="E13">
-        <v>371458.71875</v>
+        <v>449890.0699850105</v>
       </c>
       <c r="F13">
-        <v>0.1765029792786626</v>
+        <v>0.2120791310383352</v>
       </c>
       <c r="G13">
-        <v>231541.1875</v>
+        <v>289863.0755536533</v>
       </c>
       <c r="H13">
-        <v>0.1211250237433677</v>
+        <v>0.1797210794798603</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>340350954880.9089</v>
+        <v>13726674607922.48</v>
       </c>
       <c r="C14">
-        <v>583396.0531927765</v>
+        <v>3704952.71331801</v>
       </c>
       <c r="D14">
-        <v>0.05495339977800109</v>
+        <v>4.403913693165217</v>
       </c>
       <c r="E14">
-        <v>380602.5</v>
+        <v>3334526.516927083</v>
       </c>
       <c r="F14">
-        <v>0.1824259752627141</v>
+        <v>1.867888949242807</v>
       </c>
       <c r="G14">
-        <v>268285.375</v>
+        <v>3073163.4140625</v>
       </c>
       <c r="H14">
-        <v>0.1512063908398456</v>
+        <v>1.741561622707276</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3041,25 +3041,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>24991704200347.85</v>
+        <v>168063966492705.2</v>
       </c>
       <c r="C15">
-        <v>4999170.351203072</v>
+        <v>12963948.72300509</v>
       </c>
       <c r="D15">
-        <v>8.252603044470511</v>
+        <v>48.35527767479628</v>
       </c>
       <c r="E15">
-        <v>4251483.104166667</v>
+        <v>9602327.25</v>
       </c>
       <c r="F15">
-        <v>2.3818614085881</v>
+        <v>5.180163685300779</v>
       </c>
       <c r="G15">
-        <v>3813448.75</v>
+        <v>7142389.75</v>
       </c>
       <c r="H15">
-        <v>2.122922536117698</v>
+        <v>3.890723625776691</v>
       </c>
     </row>
   </sheetData>
@@ -3086,43 +3086,43 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>20</v>
@@ -3139,46 +3139,46 @@
         <v>1831775</v>
       </c>
       <c r="D2">
-        <v>1817919.5</v>
+        <v>1881027.875</v>
       </c>
       <c r="E2">
+        <v>1783042</v>
+      </c>
+      <c r="F2">
+        <v>1918696.5</v>
+      </c>
+      <c r="G2">
         <v>1699556.5</v>
       </c>
-      <c r="F2">
-        <v>1806343.375</v>
-      </c>
-      <c r="G2">
-        <v>1719281.553689491</v>
-      </c>
       <c r="H2">
-        <v>1659392.11191362</v>
+        <v>1877148.5</v>
       </c>
       <c r="I2">
-        <v>1652745.084995453</v>
+        <v>1828108.125</v>
       </c>
       <c r="J2">
-        <v>1653210.875</v>
+        <v>1633390.625</v>
       </c>
       <c r="K2">
-        <v>1633390.25</v>
+        <v>1692501</v>
       </c>
       <c r="L2">
-        <v>1810532.625</v>
+        <v>1577056.373167345</v>
       </c>
       <c r="M2">
-        <v>1872948.875</v>
+        <v>1573084.5</v>
       </c>
       <c r="N2">
-        <v>1776310.75</v>
+        <v>1573140.788124288</v>
       </c>
       <c r="O2">
-        <v>1880245.625</v>
+        <v>1585893.393873661</v>
       </c>
       <c r="P2">
-        <v>1685541.375</v>
+        <v>-1489702.25</v>
       </c>
       <c r="Q2">
-        <v>-3990894.25</v>
+        <v>6841545</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3192,46 +3192,46 @@
         <v>3222240</v>
       </c>
       <c r="D3">
-        <v>1593644.75</v>
+        <v>1660794.25</v>
       </c>
       <c r="E3">
+        <v>1586031.25</v>
+      </c>
+      <c r="F3">
+        <v>1580643</v>
+      </c>
+      <c r="G3">
         <v>1706143.25</v>
       </c>
-      <c r="F3">
-        <v>1671811.875</v>
-      </c>
-      <c r="G3">
-        <v>1481920.108912802</v>
-      </c>
       <c r="H3">
-        <v>1574937.886759287</v>
+        <v>1643963.75</v>
       </c>
       <c r="I3">
-        <v>1446178.542547619</v>
+        <v>1598326.875</v>
       </c>
       <c r="J3">
-        <v>1387114.875</v>
+        <v>1633388.625</v>
       </c>
       <c r="K3">
-        <v>1633387.375</v>
+        <v>1524739.375</v>
       </c>
       <c r="L3">
-        <v>1642856.625</v>
+        <v>1311097.965650433</v>
       </c>
       <c r="M3">
-        <v>1698813.75</v>
+        <v>1147885</v>
       </c>
       <c r="N3">
-        <v>1526072.75</v>
+        <v>1407300.091833307</v>
       </c>
       <c r="O3">
-        <v>1880245.75</v>
+        <v>1235633.837670139</v>
       </c>
       <c r="P3">
-        <v>1514727.75</v>
+        <v>190331.921875</v>
       </c>
       <c r="Q3">
-        <v>7087157.5</v>
+        <v>-7156669</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3245,46 +3245,46 @@
         <v>1678704</v>
       </c>
       <c r="D4">
-        <v>1750548.5</v>
+        <v>1744866.625</v>
       </c>
       <c r="E4">
+        <v>1772906</v>
+      </c>
+      <c r="F4">
+        <v>1659510.875</v>
+      </c>
+      <c r="G4">
         <v>1674776.375</v>
       </c>
-      <c r="F4">
-        <v>1729261</v>
-      </c>
-      <c r="G4">
-        <v>1549890.558686431</v>
-      </c>
       <c r="H4">
-        <v>1556023.485377082</v>
+        <v>1687529.5</v>
       </c>
       <c r="I4">
-        <v>1551697.39442143</v>
+        <v>1672841.125</v>
       </c>
       <c r="J4">
-        <v>1553440.5</v>
+        <v>1633387</v>
       </c>
       <c r="K4">
-        <v>1633386.25</v>
+        <v>1599459.25</v>
       </c>
       <c r="L4">
-        <v>1723972.25</v>
+        <v>1404977.487277484</v>
       </c>
       <c r="M4">
-        <v>1722995.75</v>
+        <v>1397695.875</v>
       </c>
       <c r="N4">
-        <v>1560452.25</v>
+        <v>1397348.895083698</v>
       </c>
       <c r="O4">
-        <v>1799172.625</v>
+        <v>1430026.011222554</v>
       </c>
       <c r="P4">
-        <v>1606778.5</v>
+        <v>3776664.25</v>
       </c>
       <c r="Q4">
-        <v>1726950.25</v>
+        <v>1782819</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3298,46 +3298,46 @@
         <v>1688805</v>
       </c>
       <c r="D5">
-        <v>1741362.75</v>
+        <v>1603415.125</v>
       </c>
       <c r="E5">
+        <v>1671789.25</v>
+      </c>
+      <c r="F5">
+        <v>1529770.25</v>
+      </c>
+      <c r="G5">
         <v>1580422.125</v>
       </c>
-      <c r="F5">
-        <v>1708765</v>
-      </c>
-      <c r="G5">
-        <v>1719281.553689491</v>
-      </c>
       <c r="H5">
-        <v>1659392.11191362</v>
+        <v>1539802.75</v>
       </c>
       <c r="I5">
-        <v>1652745.084995453</v>
+        <v>1641789</v>
       </c>
       <c r="J5">
-        <v>1653210.875</v>
+        <v>1633388.625</v>
       </c>
       <c r="K5">
-        <v>1633387.375</v>
+        <v>1588335.25</v>
       </c>
       <c r="L5">
-        <v>1667612.875</v>
+        <v>1577056.373167345</v>
       </c>
       <c r="M5">
-        <v>1549190.125</v>
+        <v>1573084.5</v>
       </c>
       <c r="N5">
-        <v>1557225</v>
+        <v>1573140.788124288</v>
       </c>
       <c r="O5">
-        <v>1613862.625</v>
+        <v>1585893.393873661</v>
       </c>
       <c r="P5">
-        <v>1583096.5</v>
+        <v>3740449</v>
       </c>
       <c r="Q5">
-        <v>-5136206</v>
+        <v>-22982858</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3351,46 +3351,46 @@
         <v>1519750</v>
       </c>
       <c r="D6">
-        <v>1436826.375</v>
+        <v>1442489.625</v>
       </c>
       <c r="E6">
+        <v>1468622.25</v>
+      </c>
+      <c r="F6">
+        <v>1479210.625</v>
+      </c>
+      <c r="G6">
         <v>1612071.375</v>
       </c>
-      <c r="F6">
-        <v>1392902.625</v>
-      </c>
-      <c r="G6">
-        <v>1447315.876818894</v>
-      </c>
       <c r="H6">
-        <v>1482215.997574415</v>
+        <v>1526710.625</v>
       </c>
       <c r="I6">
-        <v>1477420.188709828</v>
+        <v>1413417.25</v>
       </c>
       <c r="J6">
-        <v>1483997.25</v>
+        <v>1633393.25</v>
       </c>
       <c r="K6">
-        <v>1633392.125</v>
+        <v>1194480.5</v>
       </c>
       <c r="L6">
-        <v>1343121.875</v>
+        <v>1294574.883054811</v>
       </c>
       <c r="M6">
-        <v>1377264</v>
+        <v>1301152.25</v>
       </c>
       <c r="N6">
-        <v>1341667.5</v>
+        <v>1301223.094813609</v>
       </c>
       <c r="O6">
-        <v>1428552.75</v>
+        <v>1296976.770405408</v>
       </c>
       <c r="P6">
-        <v>1196168.5</v>
+        <v>-1594668.75</v>
       </c>
       <c r="Q6">
-        <v>5281730</v>
+        <v>-5624222.5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3404,46 +3404,46 @@
         <v>1730278</v>
       </c>
       <c r="D7">
-        <v>1621155.5</v>
+        <v>1593462.875</v>
       </c>
       <c r="E7">
+        <v>1535988.625</v>
+      </c>
+      <c r="F7">
+        <v>1632206.625</v>
+      </c>
+      <c r="G7">
         <v>1646030</v>
       </c>
-      <c r="F7">
-        <v>1531998.25</v>
-      </c>
-      <c r="G7">
-        <v>1777086.139051838</v>
-      </c>
       <c r="H7">
-        <v>1607711.258567202</v>
+        <v>1529132.125</v>
       </c>
       <c r="I7">
-        <v>1623760.693809524</v>
+        <v>1582390.875</v>
       </c>
       <c r="J7">
-        <v>1577891.75</v>
+        <v>1633395.875</v>
       </c>
       <c r="K7">
-        <v>1633395.125</v>
+        <v>1454097.25</v>
       </c>
       <c r="L7">
-        <v>1534460.5</v>
+        <v>1616382.641584249</v>
       </c>
       <c r="M7">
-        <v>1516351.625</v>
+        <v>1920173.375</v>
       </c>
       <c r="N7">
-        <v>1503820.875</v>
+        <v>1259751.897384204</v>
       </c>
       <c r="O7">
-        <v>1243242.75</v>
+        <v>1505980.484778641</v>
       </c>
       <c r="P7">
-        <v>1454096.25</v>
+        <v>-2826063</v>
       </c>
       <c r="Q7">
-        <v>-6364974.5</v>
+        <v>458287.5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3457,46 +3457,46 @@
         <v>1823506</v>
       </c>
       <c r="D8">
-        <v>1726443.375</v>
+        <v>1827731.875</v>
       </c>
       <c r="E8">
+        <v>1784449</v>
+      </c>
+      <c r="F8">
+        <v>1869152</v>
+      </c>
+      <c r="G8">
         <v>1741602.25</v>
       </c>
-      <c r="F8">
-        <v>1730523.875</v>
-      </c>
-      <c r="G8">
-        <v>1549890.558686431</v>
-      </c>
       <c r="H8">
-        <v>1556023.485377082</v>
+        <v>1891940.625</v>
       </c>
       <c r="I8">
-        <v>1551697.39442143</v>
+        <v>1831194</v>
       </c>
       <c r="J8">
-        <v>1553440.5</v>
+        <v>1633393.125</v>
       </c>
       <c r="K8">
-        <v>1633392.5</v>
+        <v>1583721.5</v>
       </c>
       <c r="L8">
-        <v>1695649.75</v>
+        <v>1404977.487277484</v>
       </c>
       <c r="M8">
-        <v>1732192.25</v>
+        <v>1397695.875</v>
       </c>
       <c r="N8">
-        <v>1632644.5</v>
+        <v>1397348.895083698</v>
       </c>
       <c r="O8">
-        <v>1147675.5</v>
+        <v>1430026.011222554</v>
       </c>
       <c r="P8">
-        <v>1563117</v>
+        <v>3791650.75</v>
       </c>
       <c r="Q8">
-        <v>3927755.75</v>
+        <v>8964313</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3510,46 +3510,46 @@
         <v>1776440</v>
       </c>
       <c r="D9">
-        <v>1767444</v>
+        <v>1769922.25</v>
       </c>
       <c r="E9">
+        <v>1696971</v>
+      </c>
+      <c r="F9">
+        <v>1761180.5</v>
+      </c>
+      <c r="G9">
         <v>1792734.625</v>
       </c>
-      <c r="F9">
-        <v>1729585.625</v>
-      </c>
-      <c r="G9">
-        <v>1447315.876818894</v>
-      </c>
       <c r="H9">
-        <v>1482215.997574415</v>
+        <v>1731571.625</v>
       </c>
       <c r="I9">
-        <v>1477420.188709828</v>
+        <v>1621454.25</v>
       </c>
       <c r="J9">
-        <v>1483997.25</v>
+        <v>1633389.875</v>
       </c>
       <c r="K9">
-        <v>1633388.5</v>
+        <v>1854001.25</v>
       </c>
       <c r="L9">
-        <v>1634705</v>
+        <v>1294574.883054811</v>
       </c>
       <c r="M9">
-        <v>1638269.375</v>
+        <v>1301152.25</v>
       </c>
       <c r="N9">
-        <v>1597364.375</v>
+        <v>1301223.094813609</v>
       </c>
       <c r="O9">
-        <v>1249542.125</v>
+        <v>1296976.770405408</v>
       </c>
       <c r="P9">
-        <v>1835396.75</v>
+        <v>8318005</v>
       </c>
       <c r="Q9">
-        <v>2617964</v>
+        <v>7857252.5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3563,46 +3563,46 @@
         <v>2030693</v>
       </c>
       <c r="D10">
-        <v>1952975</v>
+        <v>2101399.5</v>
       </c>
       <c r="E10">
+        <v>1979209</v>
+      </c>
+      <c r="F10">
+        <v>1989082</v>
+      </c>
+      <c r="G10">
         <v>1783036.375</v>
       </c>
-      <c r="F10">
-        <v>1939735.375</v>
-      </c>
-      <c r="G10">
-        <v>1719281.553689491</v>
-      </c>
       <c r="H10">
-        <v>1831848.908674619</v>
+        <v>2141051.25</v>
       </c>
       <c r="I10">
-        <v>1816042.937913393</v>
+        <v>2020832</v>
       </c>
       <c r="J10">
-        <v>1857816.5</v>
+        <v>1633390.75</v>
       </c>
       <c r="K10">
-        <v>1633389</v>
+        <v>2095700</v>
       </c>
       <c r="L10">
-        <v>1979464</v>
+        <v>1782518.693607143</v>
       </c>
       <c r="M10">
-        <v>1819399.75</v>
+        <v>1805938.75</v>
       </c>
       <c r="N10">
-        <v>1846375.25</v>
+        <v>1805096.800257878</v>
       </c>
       <c r="O10">
-        <v>1351408.75</v>
+        <v>1585893.393873661</v>
       </c>
       <c r="P10">
-        <v>2106206.75</v>
+        <v>7417212.5</v>
       </c>
       <c r="Q10">
-        <v>-499877</v>
+        <v>9880277</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3616,46 +3616,46 @@
         <v>1512083</v>
       </c>
       <c r="D11">
-        <v>1334436</v>
+        <v>1385665.375</v>
       </c>
       <c r="E11">
+        <v>1385649.375</v>
+      </c>
+      <c r="F11">
+        <v>1286823</v>
+      </c>
+      <c r="G11">
         <v>1717228.25</v>
       </c>
-      <c r="F11">
-        <v>1290630.625</v>
-      </c>
-      <c r="G11">
-        <v>1447315.876818894</v>
-      </c>
       <c r="H11">
-        <v>1482215.997574415</v>
+        <v>1328095.125</v>
       </c>
       <c r="I11">
-        <v>1477420.188709828</v>
+        <v>1301476.375</v>
       </c>
       <c r="J11">
-        <v>1483997.25</v>
+        <v>1633393.25</v>
       </c>
       <c r="K11">
-        <v>1633392.125</v>
+        <v>1171223.875</v>
       </c>
       <c r="L11">
-        <v>1312642.875</v>
+        <v>1294574.883054811</v>
       </c>
       <c r="M11">
-        <v>1272403.875</v>
+        <v>1301152.25</v>
       </c>
       <c r="N11">
-        <v>1314055.25</v>
+        <v>1301223.094813609</v>
       </c>
       <c r="O11">
-        <v>1453275.375</v>
+        <v>1296976.770405408</v>
       </c>
       <c r="P11">
-        <v>1171230.625</v>
+        <v>6262512.5</v>
       </c>
       <c r="Q11">
-        <v>4189152</v>
+        <v>9322751</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3669,46 +3669,46 @@
         <v>1566682</v>
       </c>
       <c r="D12">
-        <v>1315713.125</v>
+        <v>1347644.625</v>
       </c>
       <c r="E12">
+        <v>1314378.875</v>
+      </c>
+      <c r="F12">
+        <v>1376366.125</v>
+      </c>
+      <c r="G12">
         <v>1646643.125</v>
       </c>
-      <c r="F12">
-        <v>1271211.5</v>
-      </c>
-      <c r="G12">
-        <v>1481920.108912802</v>
-      </c>
       <c r="H12">
-        <v>1389439.831696038</v>
+        <v>1386669.75</v>
       </c>
       <c r="I12">
-        <v>1428070.992166667</v>
+        <v>1390440.25</v>
       </c>
       <c r="J12">
-        <v>1436690.5</v>
+        <v>1633390.5</v>
       </c>
       <c r="K12">
-        <v>1633389.375</v>
+        <v>1092843.125</v>
       </c>
       <c r="L12">
-        <v>1291359.75</v>
+        <v>1226555.37102381</v>
       </c>
       <c r="M12">
-        <v>1252588</v>
+        <v>1199544.875</v>
       </c>
       <c r="N12">
-        <v>1324070.375</v>
+        <v>1302437.547516035</v>
       </c>
       <c r="O12">
-        <v>1556719.75</v>
+        <v>1235633.837670139</v>
       </c>
       <c r="P12">
-        <v>1101196.25</v>
+        <v>4182832.75</v>
       </c>
       <c r="Q12">
-        <v>9721570</v>
+        <v>8224925.5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3722,46 +3722,46 @@
         <v>2009616</v>
       </c>
       <c r="D13">
-        <v>1694258.375</v>
+        <v>1735667</v>
       </c>
       <c r="E13">
+        <v>1703224</v>
+      </c>
+      <c r="F13">
+        <v>1716650</v>
+      </c>
+      <c r="G13">
         <v>1684941.875</v>
       </c>
-      <c r="F13">
-        <v>1758279.625</v>
-      </c>
-      <c r="G13">
-        <v>1777086.139051838</v>
-      </c>
       <c r="H13">
-        <v>1936079.072785237</v>
+        <v>1692513.125</v>
       </c>
       <c r="I13">
-        <v>1918164.055261905</v>
+        <v>1726511.5</v>
       </c>
       <c r="J13">
-        <v>1922049.5</v>
+        <v>1633392.75</v>
       </c>
       <c r="K13">
-        <v>1633391.5</v>
+        <v>1269133.5</v>
       </c>
       <c r="L13">
-        <v>1685113</v>
+        <v>1475988.675893217</v>
       </c>
       <c r="M13">
-        <v>1701590.125</v>
+        <v>1471873.375</v>
       </c>
       <c r="N13">
-        <v>1749125.125</v>
+        <v>1472300.735482956</v>
       </c>
       <c r="O13">
-        <v>1667002.25</v>
+        <v>1505980.484778641</v>
       </c>
       <c r="P13">
-        <v>1274726.75</v>
+        <v>1431856.625</v>
       </c>
       <c r="Q13">
-        <v>-4281804</v>
+        <v>-29097776</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3775,46 +3775,46 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1455385.375</v>
+        <v>1540944.125</v>
       </c>
       <c r="E14">
+        <v>1429018.625</v>
+      </c>
+      <c r="F14">
+        <v>1434985.75</v>
+      </c>
+      <c r="G14">
         <v>1780438.75</v>
       </c>
-      <c r="F14">
-        <v>1447356.5</v>
-      </c>
-      <c r="G14">
-        <v>1447315.876818894</v>
-      </c>
       <c r="H14">
-        <v>1482215.997574415</v>
+        <v>1390547.375</v>
       </c>
       <c r="I14">
-        <v>1477420.188709828</v>
+        <v>1445237</v>
       </c>
       <c r="J14">
-        <v>1483997.25</v>
+        <v>1633393.375</v>
       </c>
       <c r="K14">
-        <v>1633392</v>
+        <v>1522083.75</v>
       </c>
       <c r="L14">
-        <v>1442944</v>
+        <v>1294574.883054811</v>
       </c>
       <c r="M14">
-        <v>1467052.375</v>
+        <v>1301152.25</v>
       </c>
       <c r="N14">
-        <v>1532692.375</v>
+        <v>1301223.094813609</v>
       </c>
       <c r="O14">
-        <v>1777284.375</v>
+        <v>1296976.770405408</v>
       </c>
       <c r="P14">
-        <v>1522086.125</v>
+        <v>-4520499</v>
       </c>
       <c r="Q14">
-        <v>-310602.90625</v>
+        <v>-13558821</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3828,46 +3828,46 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1600866.375</v>
+        <v>1394782.25</v>
       </c>
       <c r="E15">
+        <v>1508875.5</v>
+      </c>
+      <c r="F15">
+        <v>1480049.5</v>
+      </c>
+      <c r="G15">
         <v>1918910.625</v>
       </c>
-      <c r="F15">
-        <v>1550058</v>
-      </c>
-      <c r="G15">
-        <v>1607695.144048778</v>
-      </c>
       <c r="H15">
-        <v>1676842.357788674</v>
+        <v>1412659.625</v>
       </c>
       <c r="I15">
-        <v>1716770.882952381</v>
+        <v>1511017.75</v>
       </c>
       <c r="J15">
-        <v>1780658.75</v>
+        <v>1633392.75</v>
       </c>
       <c r="K15">
-        <v>1633391.625</v>
+        <v>1080884.25</v>
       </c>
       <c r="L15">
-        <v>1570619</v>
+        <v>1010955.78231277</v>
       </c>
       <c r="M15">
-        <v>1514104.125</v>
+        <v>1006218.875</v>
       </c>
       <c r="N15">
-        <v>1573275.125</v>
+        <v>1008050.338460679</v>
       </c>
       <c r="O15">
-        <v>1887567</v>
+        <v>1357112.014799315</v>
       </c>
       <c r="P15">
-        <v>1086287</v>
+        <v>-9366522</v>
       </c>
       <c r="Q15">
-        <v>-8601642</v>
+        <v>11437883</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3881,46 +3881,46 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1585134.5</v>
+        <v>1530657.625</v>
       </c>
       <c r="E16">
+        <v>1515144.125</v>
+      </c>
+      <c r="F16">
+        <v>1569171.375</v>
+      </c>
+      <c r="G16">
         <v>1857128</v>
       </c>
-      <c r="F16">
-        <v>1576523.5</v>
-      </c>
-      <c r="G16">
-        <v>1719281.553689491</v>
-      </c>
       <c r="H16">
-        <v>1659392.11191362</v>
+        <v>1454143.5</v>
       </c>
       <c r="I16">
-        <v>1652745.084995453</v>
+        <v>1484779.625</v>
       </c>
       <c r="J16">
-        <v>1653210.875</v>
+        <v>1633391.875</v>
       </c>
       <c r="K16">
-        <v>1633391.25</v>
+        <v>992963.5625</v>
       </c>
       <c r="L16">
-        <v>1561645.875</v>
+        <v>1577056.373167345</v>
       </c>
       <c r="M16">
-        <v>1566990.125</v>
+        <v>1573084.5</v>
       </c>
       <c r="N16">
-        <v>1566209.5</v>
+        <v>1573140.788124288</v>
       </c>
       <c r="O16">
-        <v>1986806.25</v>
+        <v>1585893.393873661</v>
       </c>
       <c r="P16">
-        <v>1012327.0625</v>
+        <v>-3513175.75</v>
       </c>
       <c r="Q16">
-        <v>10379327</v>
+        <v>-27280610</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3934,46 +3934,46 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1353481.625</v>
+        <v>1398590.375</v>
       </c>
       <c r="E17">
+        <v>1355384</v>
+      </c>
+      <c r="F17">
+        <v>1393931.75</v>
+      </c>
+      <c r="G17">
         <v>1790162</v>
       </c>
-      <c r="F17">
-        <v>1386772</v>
-      </c>
-      <c r="G17">
-        <v>1447315.876818894</v>
-      </c>
       <c r="H17">
-        <v>1482215.997574415</v>
+        <v>1368704.25</v>
       </c>
       <c r="I17">
-        <v>1477420.188709828</v>
+        <v>1468301.5</v>
       </c>
       <c r="J17">
-        <v>1483997.25</v>
+        <v>1633391.75</v>
       </c>
       <c r="K17">
-        <v>1633390.375</v>
+        <v>850355.0625</v>
       </c>
       <c r="L17">
-        <v>1368784.375</v>
+        <v>1294574.883054811</v>
       </c>
       <c r="M17">
-        <v>1374171.75</v>
+        <v>1301152.25</v>
       </c>
       <c r="N17">
-        <v>1371630.5</v>
+        <v>1301223.094813609</v>
       </c>
       <c r="O17">
-        <v>1920401.75</v>
+        <v>1296976.770405408</v>
       </c>
       <c r="P17">
-        <v>840863.125</v>
+        <v>2310363</v>
       </c>
       <c r="Q17">
-        <v>3348536.5</v>
+        <v>26875498</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3987,46 +3987,46 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1577175.5</v>
+        <v>1491929.75</v>
       </c>
       <c r="E18">
+        <v>1547049.625</v>
+      </c>
+      <c r="F18">
+        <v>1532928.125</v>
+      </c>
+      <c r="G18">
         <v>1677914.5</v>
       </c>
-      <c r="F18">
-        <v>1578975.625</v>
-      </c>
-      <c r="G18">
-        <v>1719281.553689491</v>
-      </c>
       <c r="H18">
-        <v>1659392.11191362</v>
+        <v>1434320.625</v>
       </c>
       <c r="I18">
-        <v>1652745.084995453</v>
+        <v>1490651.125</v>
       </c>
       <c r="J18">
-        <v>1653210.875</v>
+        <v>1633392.75</v>
       </c>
       <c r="K18">
-        <v>1633391.25</v>
+        <v>668145.8125</v>
       </c>
       <c r="L18">
-        <v>1520833.25</v>
+        <v>1577056.373167345</v>
       </c>
       <c r="M18">
-        <v>1487363.375</v>
+        <v>1573084.5</v>
       </c>
       <c r="N18">
-        <v>1555046.375</v>
+        <v>1573140.788124288</v>
       </c>
       <c r="O18">
-        <v>1853997.25</v>
+        <v>1585893.393873661</v>
       </c>
       <c r="P18">
-        <v>668142.9375</v>
+        <v>4955671.5</v>
       </c>
       <c r="Q18">
-        <v>948352</v>
+        <v>8046869</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4040,46 +4040,46 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1499920.875</v>
+        <v>1495680.875</v>
       </c>
       <c r="E19">
+        <v>1450477.375</v>
+      </c>
+      <c r="F19">
+        <v>1483242.125</v>
+      </c>
+      <c r="G19">
         <v>1754288.25</v>
       </c>
-      <c r="F19">
-        <v>1475432.875</v>
-      </c>
-      <c r="G19">
-        <v>1549890.558686431</v>
-      </c>
       <c r="H19">
-        <v>1556023.485377082</v>
+        <v>1413129.75</v>
       </c>
       <c r="I19">
-        <v>1551697.39442143</v>
+        <v>1515870.125</v>
       </c>
       <c r="J19">
-        <v>1553440.5</v>
+        <v>1633391.625</v>
       </c>
       <c r="K19">
-        <v>1633390.875</v>
+        <v>742420.125</v>
       </c>
       <c r="L19">
-        <v>1525527.5</v>
+        <v>1404977.487277484</v>
       </c>
       <c r="M19">
-        <v>1440073.625</v>
+        <v>1397695.875</v>
       </c>
       <c r="N19">
-        <v>1522809</v>
+        <v>1397348.895083698</v>
       </c>
       <c r="O19">
-        <v>1787592.5</v>
+        <v>1430026.011222554</v>
       </c>
       <c r="P19">
-        <v>746149.6875</v>
+        <v>7600993.5</v>
       </c>
       <c r="Q19">
-        <v>12844779</v>
+        <v>-20636708</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4093,46 +4093,46 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1502476.875</v>
+        <v>1404560.375</v>
       </c>
       <c r="E20">
+        <v>1422774.125</v>
+      </c>
+      <c r="F20">
+        <v>1376159.625</v>
+      </c>
+      <c r="G20">
         <v>1894333.125</v>
       </c>
-      <c r="F20">
-        <v>1418117.875</v>
-      </c>
-      <c r="G20">
-        <v>1447315.876818894</v>
-      </c>
       <c r="H20">
-        <v>1482215.997574415</v>
+        <v>1339671.625</v>
       </c>
       <c r="I20">
-        <v>1477420.188709828</v>
+        <v>1196800</v>
       </c>
       <c r="J20">
-        <v>1483997.25</v>
+        <v>1633391.25</v>
       </c>
       <c r="K20">
-        <v>1633389.75</v>
+        <v>725525.4375</v>
       </c>
       <c r="L20">
-        <v>1300224.625</v>
+        <v>1294574.883054811</v>
       </c>
       <c r="M20">
-        <v>1422304.5</v>
+        <v>1301152.25</v>
       </c>
       <c r="N20">
-        <v>1440577.5</v>
+        <v>1301223.094813609</v>
       </c>
       <c r="O20">
-        <v>1721188</v>
+        <v>1296976.770405408</v>
       </c>
       <c r="P20">
-        <v>745651.5625</v>
+        <v>5387820</v>
       </c>
       <c r="Q20">
-        <v>2495737</v>
+        <v>75854240</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4146,46 +4146,46 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1644789.75</v>
+        <v>1580654.125</v>
       </c>
       <c r="E21">
+        <v>1555675.375</v>
+      </c>
+      <c r="F21">
+        <v>1650532.5</v>
+      </c>
+      <c r="G21">
         <v>2038888.25</v>
       </c>
-      <c r="F21">
-        <v>1574063.25</v>
-      </c>
-      <c r="G21">
-        <v>1719281.553689491</v>
-      </c>
       <c r="H21">
-        <v>1659392.11191362</v>
+        <v>1607548</v>
       </c>
       <c r="I21">
-        <v>1652745.084995453</v>
+        <v>1641508</v>
       </c>
       <c r="J21">
-        <v>1653210.875</v>
+        <v>1633390.5</v>
       </c>
       <c r="K21">
-        <v>1633389.75</v>
+        <v>633554</v>
       </c>
       <c r="L21">
-        <v>1583103.25</v>
+        <v>1577056.373167345</v>
       </c>
       <c r="M21">
-        <v>1700761</v>
+        <v>1573084.5</v>
       </c>
       <c r="N21">
-        <v>1583598.5</v>
+        <v>1573140.788124288</v>
       </c>
       <c r="O21">
-        <v>1775734.5</v>
+        <v>1585893.393873661</v>
       </c>
       <c r="P21">
-        <v>627048.6875</v>
+        <v>2957005.25</v>
       </c>
       <c r="Q21">
-        <v>5748605.5</v>
+        <v>94693184</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4199,46 +4199,46 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1672495.25</v>
+        <v>1660990.25</v>
       </c>
       <c r="E22">
+        <v>1624822</v>
+      </c>
+      <c r="F22">
+        <v>1638336.125</v>
+      </c>
+      <c r="G22">
         <v>2125874.75</v>
       </c>
-      <c r="F22">
-        <v>1635929.75</v>
-      </c>
-      <c r="G22">
-        <v>1549890.558686431</v>
-      </c>
       <c r="H22">
-        <v>1556023.485377082</v>
+        <v>1601672.875</v>
       </c>
       <c r="I22">
-        <v>1551697.39442143</v>
+        <v>1417777.875</v>
       </c>
       <c r="J22">
-        <v>1553440.5</v>
+        <v>1633392</v>
       </c>
       <c r="K22">
-        <v>1633390.5</v>
+        <v>1335752.25</v>
       </c>
       <c r="L22">
-        <v>1645375.25</v>
+        <v>1404977.487277484</v>
       </c>
       <c r="M22">
-        <v>1611432.75</v>
+        <v>1397695.875</v>
       </c>
       <c r="N22">
-        <v>1607070</v>
+        <v>1397348.895083698</v>
       </c>
       <c r="O22">
-        <v>1838344.375</v>
+        <v>1430026.011222554</v>
       </c>
       <c r="P22">
-        <v>1335748.125</v>
+        <v>6272134</v>
       </c>
       <c r="Q22">
-        <v>-193887.296875</v>
+        <v>71228328</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4252,46 +4252,46 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1411154.75</v>
+        <v>1238764.25</v>
       </c>
       <c r="E23">
+        <v>1294978.625</v>
+      </c>
+      <c r="F23">
+        <v>1304571.75</v>
+      </c>
+      <c r="G23">
         <v>2057758.75</v>
       </c>
-      <c r="F23">
-        <v>1377765.75</v>
-      </c>
-      <c r="G23">
-        <v>1549890.558686431</v>
-      </c>
       <c r="H23">
-        <v>1556023.485377082</v>
+        <v>1262013.375</v>
       </c>
       <c r="I23">
-        <v>1551697.39442143</v>
+        <v>1191125.875</v>
       </c>
       <c r="J23">
-        <v>1553440.5</v>
+        <v>1633392.75</v>
       </c>
       <c r="K23">
-        <v>1633391.625</v>
+        <v>863679.4375</v>
       </c>
       <c r="L23">
-        <v>1549221.75</v>
+        <v>1404977.487277484</v>
       </c>
       <c r="M23">
-        <v>1384855.875</v>
+        <v>1397695.875</v>
       </c>
       <c r="N23">
-        <v>1354094</v>
+        <v>1397348.895083698</v>
       </c>
       <c r="O23">
-        <v>1900954.375</v>
+        <v>1430026.011222554</v>
       </c>
       <c r="P23">
-        <v>863683.75</v>
+        <v>10182083</v>
       </c>
       <c r="Q23">
-        <v>-5351912</v>
+        <v>80643512</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4305,46 +4305,46 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1310749.125</v>
+        <v>1043854.5</v>
       </c>
       <c r="E24">
+        <v>1201762.75</v>
+      </c>
+      <c r="F24">
+        <v>1133242.625</v>
+      </c>
+      <c r="G24">
         <v>2058446.75</v>
       </c>
-      <c r="F24">
-        <v>1299588.375</v>
-      </c>
-      <c r="G24">
-        <v>1447315.876818894</v>
-      </c>
       <c r="H24">
-        <v>1482215.997574415</v>
+        <v>1083041.75</v>
       </c>
       <c r="I24">
-        <v>1477420.188709828</v>
+        <v>1054246.875</v>
       </c>
       <c r="J24">
-        <v>1483997.25</v>
+        <v>1633392.5</v>
       </c>
       <c r="K24">
-        <v>1633391.25</v>
+        <v>1175357.5</v>
       </c>
       <c r="L24">
-        <v>1322096.125</v>
+        <v>1294574.883054811</v>
       </c>
       <c r="M24">
-        <v>1327462.25</v>
+        <v>1301152.25</v>
       </c>
       <c r="N24">
-        <v>1280517.25</v>
+        <v>1301223.094813609</v>
       </c>
       <c r="O24">
-        <v>1963564</v>
+        <v>1296976.770405408</v>
       </c>
       <c r="P24">
-        <v>1175359.875</v>
+        <v>7234012.5</v>
       </c>
       <c r="Q24">
-        <v>9855827</v>
+        <v>77911320</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4358,46 +4358,46 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1589464.5</v>
+        <v>1201386</v>
       </c>
       <c r="E25">
+        <v>1528198.625</v>
+      </c>
+      <c r="F25">
+        <v>1454060.25</v>
+      </c>
+      <c r="G25">
         <v>2031496.875</v>
       </c>
-      <c r="F25">
-        <v>1591628.75</v>
-      </c>
-      <c r="G25">
-        <v>1777086.139051838</v>
-      </c>
       <c r="H25">
-        <v>1795982.383891933</v>
+        <v>1221429.875</v>
       </c>
       <c r="I25">
-        <v>1813836.763087912</v>
+        <v>1358636.125</v>
       </c>
       <c r="J25">
-        <v>1816392.375</v>
+        <v>1633392.75</v>
       </c>
       <c r="K25">
-        <v>1633391.5</v>
+        <v>1388723.625</v>
       </c>
       <c r="L25">
-        <v>1523041.375</v>
+        <v>1532445.604012432</v>
       </c>
       <c r="M25">
-        <v>1555415.125</v>
+        <v>1521003.625</v>
       </c>
       <c r="N25">
-        <v>1539310</v>
+        <v>1520934.012806861</v>
       </c>
       <c r="O25">
-        <v>2098867</v>
+        <v>1505980.484778641</v>
       </c>
       <c r="P25">
-        <v>1388728.75</v>
+        <v>3058717.25</v>
       </c>
       <c r="Q25">
-        <v>27504596</v>
+        <v>86174936</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4411,46 +4411,46 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1463011.75</v>
+        <v>1302534.25</v>
       </c>
       <c r="E26">
+        <v>1433418.875</v>
+      </c>
+      <c r="F26">
+        <v>1477456.875</v>
+      </c>
+      <c r="G26">
         <v>2138915.25</v>
       </c>
-      <c r="F26">
-        <v>1469664.625</v>
-      </c>
-      <c r="G26">
-        <v>1447315.876818894</v>
-      </c>
       <c r="H26">
-        <v>1482215.997574415</v>
+        <v>1418916.625</v>
       </c>
       <c r="I26">
-        <v>1477420.188709828</v>
+        <v>1419496.625</v>
       </c>
       <c r="J26">
-        <v>1483997.25</v>
+        <v>1633392.75</v>
       </c>
       <c r="K26">
-        <v>1633391.25</v>
+        <v>1264234.75</v>
       </c>
       <c r="L26">
-        <v>1430566</v>
+        <v>1294574.883054811</v>
       </c>
       <c r="M26">
-        <v>1517424.5</v>
+        <v>1301152.25</v>
       </c>
       <c r="N26">
-        <v>1444070.5</v>
+        <v>1301223.094813609</v>
       </c>
       <c r="O26">
-        <v>2250945</v>
+        <v>1296976.770405408</v>
       </c>
       <c r="P26">
-        <v>1238241.375</v>
+        <v>52520856</v>
       </c>
       <c r="Q26">
-        <v>30019794</v>
+        <v>98695368</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4464,46 +4464,46 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1640038.25</v>
+        <v>1492914.125</v>
       </c>
       <c r="E27">
+        <v>1659548</v>
+      </c>
+      <c r="F27">
+        <v>1578131.75</v>
+      </c>
+      <c r="G27">
         <v>2198296.5</v>
       </c>
-      <c r="F27">
-        <v>1615745.75</v>
-      </c>
-      <c r="G27">
-        <v>1719281.553689491</v>
-      </c>
       <c r="H27">
-        <v>1659392.11191362</v>
+        <v>1483176.75</v>
       </c>
       <c r="I27">
-        <v>1652745.084995453</v>
+        <v>1605559</v>
       </c>
       <c r="J27">
-        <v>1653210.875</v>
+        <v>1633392.5</v>
       </c>
       <c r="K27">
-        <v>1633391.375</v>
+        <v>1644044.75</v>
       </c>
       <c r="L27">
-        <v>1611730.25</v>
+        <v>1577056.373167345</v>
       </c>
       <c r="M27">
-        <v>1608320.375</v>
+        <v>1573084.5</v>
       </c>
       <c r="N27">
-        <v>1594073.125</v>
+        <v>1573140.788124288</v>
       </c>
       <c r="O27">
-        <v>2403023.5</v>
+        <v>1585893.393873661</v>
       </c>
       <c r="P27">
-        <v>1644050.125</v>
+        <v>116998744</v>
       </c>
       <c r="Q27">
-        <v>72737120</v>
+        <v>82349008</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4517,46 +4517,46 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1542671.625</v>
+        <v>1540859.125</v>
       </c>
       <c r="E28">
+        <v>1621589.625</v>
+      </c>
+      <c r="F28">
+        <v>1546813.875</v>
+      </c>
+      <c r="G28">
         <v>2161330.5</v>
       </c>
-      <c r="F28">
-        <v>1509804.625</v>
-      </c>
-      <c r="G28">
-        <v>1607695.144048778</v>
-      </c>
       <c r="H28">
-        <v>1676842.357788674</v>
+        <v>1550611.375</v>
       </c>
       <c r="I28">
-        <v>1716770.882952381</v>
+        <v>1468671.625</v>
       </c>
       <c r="J28">
-        <v>1780658.75</v>
+        <v>1633392.875</v>
       </c>
       <c r="K28">
-        <v>1633391</v>
+        <v>976551.1875</v>
       </c>
       <c r="L28">
-        <v>1574691</v>
+        <v>1010955.78231277</v>
       </c>
       <c r="M28">
-        <v>1548703.75</v>
+        <v>1006218.875</v>
       </c>
       <c r="N28">
-        <v>1575094.5</v>
+        <v>1008050.338460679</v>
       </c>
       <c r="O28">
-        <v>2555101.5</v>
+        <v>1357112.014799315</v>
       </c>
       <c r="P28">
-        <v>976554.125</v>
+        <v>152097488</v>
       </c>
       <c r="Q28">
-        <v>87770776</v>
+        <v>72016864</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4570,46 +4570,46 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1509170.125</v>
+        <v>1469352.5</v>
       </c>
       <c r="E29">
+        <v>1532251</v>
+      </c>
+      <c r="F29">
+        <v>1521049.5</v>
+      </c>
+      <c r="G29">
         <v>2102161.75</v>
       </c>
-      <c r="F29">
-        <v>1447024.875</v>
-      </c>
-      <c r="G29">
-        <v>1447315.876818894</v>
-      </c>
       <c r="H29">
-        <v>1482215.997574415</v>
+        <v>1474670</v>
       </c>
       <c r="I29">
-        <v>1477420.188709828</v>
+        <v>1415956.625</v>
       </c>
       <c r="J29">
-        <v>1483997.25</v>
+        <v>1633393</v>
       </c>
       <c r="K29">
-        <v>1633391.125</v>
+        <v>1381574</v>
       </c>
       <c r="L29">
-        <v>1481366.75</v>
+        <v>1294574.883054811</v>
       </c>
       <c r="M29">
-        <v>1492102.75</v>
+        <v>1301152.25</v>
       </c>
       <c r="N29">
-        <v>1435283.5</v>
+        <v>1301223.094813609</v>
       </c>
       <c r="O29">
-        <v>2541567</v>
+        <v>1296976.770405408</v>
       </c>
       <c r="P29">
-        <v>1381577.125</v>
+        <v>175696832</v>
       </c>
       <c r="Q29">
-        <v>86477120</v>
+        <v>86760872</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4623,46 +4623,46 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1647621.5</v>
+        <v>1627652.75</v>
       </c>
       <c r="E30">
+        <v>1651757.5</v>
+      </c>
+      <c r="F30">
+        <v>1793065.25</v>
+      </c>
+      <c r="G30">
         <v>2118349.25</v>
       </c>
-      <c r="F30">
-        <v>1677341</v>
-      </c>
-      <c r="G30">
-        <v>1777086.139051838</v>
-      </c>
       <c r="H30">
-        <v>1936079.072785237</v>
+        <v>1704974</v>
       </c>
       <c r="I30">
-        <v>1918164.055261905</v>
+        <v>1711299</v>
       </c>
       <c r="J30">
-        <v>1922049.5</v>
+        <v>1633393.25</v>
       </c>
       <c r="K30">
-        <v>1633391.25</v>
+        <v>1563135.5</v>
       </c>
       <c r="L30">
-        <v>1675115.875</v>
+        <v>1475988.675893217</v>
       </c>
       <c r="M30">
-        <v>1676266.25</v>
+        <v>1471873.375</v>
       </c>
       <c r="N30">
-        <v>1702122.5</v>
+        <v>1472300.735482956</v>
       </c>
       <c r="O30">
-        <v>2452753.75</v>
+        <v>1505980.484778641</v>
       </c>
       <c r="P30">
-        <v>1563135.375</v>
+        <v>187294608</v>
       </c>
       <c r="Q30">
-        <v>71421224</v>
+        <v>55034808</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4676,46 +4676,46 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1244080</v>
+        <v>1191998.25</v>
       </c>
       <c r="E31">
+        <v>1298321.5</v>
+      </c>
+      <c r="F31">
+        <v>1244180.5</v>
+      </c>
+      <c r="G31">
         <v>2126174.5</v>
       </c>
-      <c r="F31">
-        <v>1282242.5</v>
-      </c>
-      <c r="G31">
-        <v>1447315.876818894</v>
-      </c>
       <c r="H31">
-        <v>1482215.997574415</v>
+        <v>1387105.75</v>
       </c>
       <c r="I31">
-        <v>1477420.188709828</v>
+        <v>1257652</v>
       </c>
       <c r="J31">
-        <v>1483997.25</v>
+        <v>1633393.625</v>
       </c>
       <c r="K31">
-        <v>1633391.75</v>
+        <v>908942.0625</v>
       </c>
       <c r="L31">
-        <v>1270009.625</v>
+        <v>1294574.883054811</v>
       </c>
       <c r="M31">
-        <v>1254630.625</v>
+        <v>1301152.25</v>
       </c>
       <c r="N31">
-        <v>1275352.875</v>
+        <v>1301223.094813609</v>
       </c>
       <c r="O31">
-        <v>2363940.5</v>
+        <v>1296976.770405408</v>
       </c>
       <c r="P31">
-        <v>908946.3125</v>
+        <v>192606720</v>
       </c>
       <c r="Q31">
-        <v>174183840</v>
+        <v>78570952</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4729,46 +4729,46 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1493702.875</v>
+        <v>1406125.625</v>
       </c>
       <c r="E32">
+        <v>1411642.25</v>
+      </c>
+      <c r="F32">
+        <v>1444677.25</v>
+      </c>
+      <c r="G32">
         <v>2095500.375</v>
       </c>
-      <c r="F32">
-        <v>1525474.375</v>
-      </c>
-      <c r="G32">
-        <v>1607695.144048778</v>
-      </c>
       <c r="H32">
-        <v>1606563.778693921</v>
+        <v>1452085.125</v>
       </c>
       <c r="I32">
-        <v>1675518.9875</v>
+        <v>1485792.25</v>
       </c>
       <c r="J32">
-        <v>1668129.5</v>
+        <v>1633393.25</v>
       </c>
       <c r="K32">
-        <v>1633391.25</v>
+        <v>1383477.875</v>
       </c>
       <c r="L32">
-        <v>1458031.125</v>
+        <v>1657209.087059524</v>
       </c>
       <c r="M32">
-        <v>1499164.625</v>
+        <v>1444086.5</v>
       </c>
       <c r="N32">
-        <v>1495205.75</v>
+        <v>1519225.7991397</v>
       </c>
       <c r="O32">
-        <v>2275127.5</v>
+        <v>1357112.014799315</v>
       </c>
       <c r="P32">
-        <v>1383482.5</v>
+        <v>239213168</v>
       </c>
       <c r="Q32">
-        <v>228195552</v>
+        <v>124557400</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4782,46 +4782,46 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1776170.875</v>
+        <v>1754309.375</v>
       </c>
       <c r="E33">
+        <v>1867259.75</v>
+      </c>
+      <c r="F33">
+        <v>1739429.125</v>
+      </c>
+      <c r="G33">
         <v>2036192.625</v>
       </c>
-      <c r="F33">
-        <v>1711595.375</v>
-      </c>
-      <c r="G33">
-        <v>1719281.553689491</v>
-      </c>
       <c r="H33">
-        <v>1659392.11191362</v>
+        <v>1859886.375</v>
       </c>
       <c r="I33">
-        <v>1652745.084995453</v>
+        <v>1708508.25</v>
       </c>
       <c r="J33">
-        <v>1653210.875</v>
+        <v>1633393.25</v>
       </c>
       <c r="K33">
-        <v>1633391.5</v>
+        <v>1218730.125</v>
       </c>
       <c r="L33">
-        <v>1756844.875</v>
+        <v>1577056.373167345</v>
       </c>
       <c r="M33">
-        <v>1744002.75</v>
+        <v>1573084.5</v>
       </c>
       <c r="N33">
-        <v>1706004.125</v>
+        <v>1573140.788124288</v>
       </c>
       <c r="O33">
-        <v>2236271.5</v>
+        <v>1585893.393873661</v>
       </c>
       <c r="P33">
-        <v>1218729.125</v>
+        <v>314064864</v>
       </c>
       <c r="Q33">
-        <v>253962512</v>
+        <v>130749320</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4835,46 +4835,46 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1541623</v>
+        <v>1546482.375</v>
       </c>
       <c r="E34">
+        <v>1603145.375</v>
+      </c>
+      <c r="F34">
+        <v>1592069</v>
+      </c>
+      <c r="G34">
         <v>2123972</v>
       </c>
-      <c r="F34">
-        <v>1501690</v>
-      </c>
-      <c r="G34">
-        <v>1447315.876818894</v>
-      </c>
       <c r="H34">
-        <v>1482215.997574415</v>
+        <v>1641362.5</v>
       </c>
       <c r="I34">
-        <v>1477420.188709828</v>
+        <v>1415491.375</v>
       </c>
       <c r="J34">
-        <v>1483997.25</v>
+        <v>1633393.25</v>
       </c>
       <c r="K34">
-        <v>1633391.375</v>
+        <v>957974.5625</v>
       </c>
       <c r="L34">
-        <v>1582011.625</v>
+        <v>1294574.883054811</v>
       </c>
       <c r="M34">
-        <v>1459951.5</v>
+        <v>1301152.25</v>
       </c>
       <c r="N34">
-        <v>1440243.75</v>
+        <v>1301223.094813609</v>
       </c>
       <c r="O34">
-        <v>2236271.75</v>
+        <v>1296976.770405408</v>
       </c>
       <c r="P34">
-        <v>957974.875</v>
+        <v>349148256</v>
       </c>
       <c r="Q34">
-        <v>562086848</v>
+        <v>270904832</v>
       </c>
     </row>
   </sheetData>
@@ -4915,366 +4915,366 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>364569127222.8802</v>
+        <v>355672625904.4648</v>
       </c>
       <c r="C2">
-        <v>603795.6005328958</v>
+        <v>596382.9523925586</v>
       </c>
       <c r="D2">
-        <v>0.03372346419962045</v>
+        <v>0.03485556851280746</v>
       </c>
       <c r="E2">
-        <v>298957.2708333333</v>
+        <v>310078.2395833333</v>
       </c>
       <c r="F2">
-        <v>0.1237846703110617</v>
+        <v>0.130721368056455</v>
       </c>
       <c r="G2">
-        <v>140273.25</v>
+        <v>175064.3125</v>
       </c>
       <c r="H2">
-        <v>0.08088798890083151</v>
+        <v>0.100536206060583</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>411431621024.3099</v>
+        <v>438451842064.3737</v>
       </c>
       <c r="C3">
-        <v>641429.3577817513</v>
+        <v>662156.9618031465</v>
       </c>
       <c r="D3">
-        <v>0.04078158417556648</v>
+        <v>0.0417998703813297</v>
       </c>
       <c r="E3">
-        <v>345507.9166666667</v>
+        <v>343698.28125</v>
       </c>
       <c r="F3">
-        <v>0.1475819891412198</v>
+        <v>0.141018779079593</v>
       </c>
       <c r="G3">
-        <v>161197.5</v>
+        <v>174675.6875</v>
       </c>
       <c r="H3">
-        <v>0.09453964020619821</v>
+        <v>0.1012723172840722</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>438452482609.6888</v>
+        <v>438450893829.0651</v>
       </c>
       <c r="C4">
-        <v>662157.4454838432</v>
+        <v>662156.2457827195</v>
       </c>
       <c r="D4">
-        <v>0.04180024545164109</v>
+        <v>0.04179992748355474</v>
       </c>
       <c r="E4">
-        <v>343701.0520833333</v>
+        <v>343699.0833333333</v>
       </c>
       <c r="F4">
-        <v>0.1410204261254863</v>
+        <v>0.1410193524807227</v>
       </c>
       <c r="G4">
-        <v>174683.5</v>
+        <v>174680.1875</v>
       </c>
       <c r="H4">
-        <v>0.101276937563728</v>
+        <v>0.1012750399988068</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>400153095102.4644</v>
+        <v>460501263285.2643</v>
       </c>
       <c r="C5">
-        <v>632576.5527605844</v>
+        <v>678602.4338928239</v>
       </c>
       <c r="D5">
-        <v>0.03688949767824794</v>
+        <v>0.0431845355458178</v>
       </c>
       <c r="E5">
-        <v>325944.7637164441</v>
+        <v>350929.3645833333</v>
       </c>
       <c r="F5">
-        <v>0.134394734079693</v>
+        <v>0.1442689624597255</v>
       </c>
       <c r="G5">
-        <v>186858.1710115309</v>
+        <v>187916.5</v>
       </c>
       <c r="H5">
-        <v>0.1103155586150642</v>
+        <v>0.1103321401743857</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>393624569157.7643</v>
+        <v>402136112603.8372</v>
       </c>
       <c r="C6">
-        <v>627395.066252329</v>
+        <v>634142.0287316062</v>
       </c>
       <c r="D6">
-        <v>0.03924766358796732</v>
+        <v>0.04196958807036855</v>
       </c>
       <c r="E6">
-        <v>345082.787507981</v>
+        <v>359503.8229166667</v>
       </c>
       <c r="F6">
-        <v>0.1482948333291668</v>
+        <v>0.1589445555544583</v>
       </c>
       <c r="G6">
-        <v>179157.7904562165</v>
+        <v>186721.125</v>
       </c>
       <c r="H6">
-        <v>0.1005444596651093</v>
+        <v>0.1092944338227112</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>397114910947.2956</v>
+        <v>359878737101.7617</v>
       </c>
       <c r="C7">
-        <v>630170.5411611174</v>
+        <v>599898.9390737091</v>
       </c>
       <c r="D7">
-        <v>0.04028647647463381</v>
+        <v>0.0411248250088063</v>
       </c>
       <c r="E7">
-        <v>349738.0520833333</v>
+        <v>353871.6145833333</v>
       </c>
       <c r="F7">
-        <v>0.1507479433998543</v>
+        <v>0.1580678705555697</v>
       </c>
       <c r="G7">
-        <v>179465</v>
+        <v>242851.25</v>
       </c>
       <c r="H7">
-        <v>0.09896949464684121</v>
+        <v>0.134966367363078</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>405121320474.0482</v>
+        <v>408053703394.5886</v>
       </c>
       <c r="C8">
-        <v>636491.4142971986</v>
+        <v>638790.8134863779</v>
       </c>
       <c r="D8">
-        <v>0.04131620677907872</v>
+        <v>0.04912415830263839</v>
       </c>
       <c r="E8">
-        <v>340521.1979166667</v>
+        <v>386822.2708333333</v>
       </c>
       <c r="F8">
-        <v>0.144513499755225</v>
+        <v>0.1748605251556144</v>
       </c>
       <c r="G8">
-        <v>193215.875</v>
+        <v>228523</v>
       </c>
       <c r="H8">
-        <v>0.106559039896763</v>
+        <v>0.1336441776587921</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>460501263285.2643</v>
+        <v>428751801654.6354</v>
       </c>
       <c r="C9">
-        <v>678602.4338928239</v>
+        <v>654791.4184338669</v>
       </c>
       <c r="D9">
-        <v>0.0431845355458178</v>
+        <v>0.0515681000603806</v>
       </c>
       <c r="E9">
-        <v>350929.3645833333</v>
+        <v>406751.9375</v>
       </c>
       <c r="F9">
-        <v>0.1442689624597255</v>
+        <v>0.1856088049829405</v>
       </c>
       <c r="G9">
-        <v>187916.5</v>
+        <v>285572.1875</v>
       </c>
       <c r="H9">
-        <v>0.1103321401743857</v>
+        <v>0.1690562585100195</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>351044799601.0911</v>
+        <v>511004115342.0595</v>
       </c>
       <c r="C10">
-        <v>592490.3371373166</v>
+        <v>714845.5185157557</v>
       </c>
       <c r="D10">
-        <v>0.03709552348029593</v>
+        <v>0.06212360477041039</v>
       </c>
       <c r="E10">
-        <v>319428.6666666667</v>
+        <v>468826.5686384171</v>
       </c>
       <c r="F10">
-        <v>0.1367602929544099</v>
+        <v>0.2167399540175605</v>
       </c>
       <c r="G10">
-        <v>191723.8125</v>
+        <v>332633.0832993905</v>
       </c>
       <c r="H10">
-        <v>0.1193651765989228</v>
+        <v>0.1927208646397953</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>401979556085.6574</v>
+        <v>551469471895.5131</v>
       </c>
       <c r="C11">
-        <v>634018.5770824522</v>
+        <v>742609.9056001833</v>
       </c>
       <c r="D11">
-        <v>0.04102043543973415</v>
+        <v>0.07738291434745002</v>
       </c>
       <c r="E11">
-        <v>357281.5097375773</v>
+        <v>515408.7098127464</v>
       </c>
       <c r="F11">
-        <v>0.1551519583141145</v>
+        <v>0.2442473833592276</v>
       </c>
       <c r="G11">
-        <v>191346.596406732</v>
+        <v>386807.1837238795</v>
       </c>
       <c r="H11">
-        <v>0.1116360981417468</v>
+        <v>0.2125983898802027</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>441013619225.2682</v>
+        <v>543827428310.2305</v>
       </c>
       <c r="C12">
-        <v>664088.562787576</v>
+        <v>737446.5596300728</v>
       </c>
       <c r="D12">
-        <v>0.04352914535949484</v>
+        <v>0.07585815015356369</v>
       </c>
       <c r="E12">
-        <v>365531.2291666667</v>
+        <v>488249.15625</v>
       </c>
       <c r="F12">
-        <v>0.1584755866838916</v>
+        <v>0.2279481403766437</v>
       </c>
       <c r="G12">
-        <v>209226.9375</v>
+        <v>381761.9375</v>
       </c>
       <c r="H12">
-        <v>0.1301147836362661</v>
+        <v>0.2328738441979647</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>540516142265.2344</v>
+        <v>551456497194.179</v>
       </c>
       <c r="C13">
-        <v>735198.029285467</v>
+        <v>742601.1696692774</v>
       </c>
       <c r="D13">
-        <v>0.0749448899106101</v>
+        <v>0.07665938038688526</v>
       </c>
       <c r="E13">
-        <v>483692.5</v>
+        <v>516156.1146082203</v>
       </c>
       <c r="F13">
-        <v>0.2253983336703822</v>
+        <v>0.2443931866395865</v>
       </c>
       <c r="G13">
-        <v>384984.75</v>
+        <v>370689.4759802831</v>
       </c>
       <c r="H13">
-        <v>0.2347817593228689</v>
+        <v>0.2207321456726261</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>61788033290473.66</v>
+        <v>565979785592.1979</v>
       </c>
       <c r="C14">
-        <v>7860536.450553083</v>
+        <v>752316.2802918716</v>
       </c>
       <c r="D14">
-        <v>22.28641364140365</v>
+        <v>0.08152135966820766</v>
       </c>
       <c r="E14">
-        <v>6496255.25</v>
+        <v>529044.0833333334</v>
       </c>
       <c r="F14">
-        <v>3.785781320857545</v>
+        <v>0.2516718614670594</v>
       </c>
       <c r="G14">
-        <v>5110328.5</v>
+        <v>388229.3125</v>
       </c>
       <c r="H14">
-        <v>2.505355972525939</v>
+        <v>0.2205584409765367</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>8887454112059011</v>
+        <v>7997225105447.375</v>
       </c>
       <c r="C15">
-        <v>94273294.79793847</v>
+        <v>2827936.54551289</v>
       </c>
       <c r="D15">
-        <v>3064.513420338473</v>
+        <v>2.128715624234633</v>
       </c>
       <c r="E15">
-        <v>68265883.72395833</v>
+        <v>2464791.79296875</v>
       </c>
       <c r="F15">
-        <v>39.58946904619336</v>
+        <v>1.325020719149465</v>
       </c>
       <c r="G15">
-        <v>65143566.5</v>
+        <v>1989308.34375</v>
       </c>
       <c r="H15">
-        <v>36.29921267620274</v>
+        <v>1.169500003912574</v>
       </c>
     </row>
   </sheetData>
@@ -5301,46 +5301,46 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5354,46 +5354,46 @@
         <v>1449597</v>
       </c>
       <c r="D2">
-        <v>1328690.625</v>
+        <v>1508140.375</v>
       </c>
       <c r="E2">
-        <v>1380547.75</v>
+        <v>1519109</v>
       </c>
       <c r="F2">
-        <v>1519112.25</v>
+        <v>1519113.625</v>
       </c>
       <c r="G2">
-        <v>1378359.383405433</v>
+        <v>1479137.5</v>
       </c>
       <c r="H2">
-        <v>1339828.049465796</v>
+        <v>1328482.125</v>
       </c>
       <c r="I2">
-        <v>1345837</v>
+        <v>1419313.125</v>
       </c>
       <c r="J2">
-        <v>1451339.625</v>
+        <v>1490509.25</v>
       </c>
       <c r="K2">
-        <v>1479137.5</v>
+        <v>1409436.125</v>
       </c>
       <c r="L2">
-        <v>1475726.875</v>
+        <v>1246216.310953626</v>
       </c>
       <c r="M2">
-        <v>1338782.533041181</v>
+        <v>1234342.654181498</v>
       </c>
       <c r="N2">
-        <v>1310229.875</v>
+        <v>1581517.75</v>
       </c>
       <c r="O2">
-        <v>1575083.375</v>
+        <v>1231191.071115424</v>
       </c>
       <c r="P2">
-        <v>15293461</v>
+        <v>1234547.875</v>
       </c>
       <c r="Q2">
-        <v>-987129.5625</v>
+        <v>-230283.671875</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -5407,46 +5407,46 @@
         <v>3699360</v>
       </c>
       <c r="D3">
-        <v>1681071.5</v>
+        <v>1727789.25</v>
       </c>
       <c r="E3">
-        <v>1590697</v>
+        <v>1519110.125</v>
       </c>
       <c r="F3">
-        <v>1519112.125</v>
+        <v>1519114.125</v>
       </c>
       <c r="G3">
-        <v>1596554.252462479</v>
+        <v>1453901.125</v>
       </c>
       <c r="H3">
-        <v>1640372.209543783</v>
+        <v>1623148.375</v>
       </c>
       <c r="I3">
-        <v>1640065</v>
+        <v>1779503</v>
       </c>
       <c r="J3">
-        <v>1620456.625</v>
+        <v>1682833.875</v>
       </c>
       <c r="K3">
-        <v>1453901.125</v>
+        <v>1630606.75</v>
       </c>
       <c r="L3">
-        <v>1775381.25</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="M3">
-        <v>1628183.403593268</v>
+        <v>1486643.648419273</v>
       </c>
       <c r="N3">
-        <v>1509774.75</v>
+        <v>1504797</v>
       </c>
       <c r="O3">
-        <v>1504796.125</v>
+        <v>1479461.2672061</v>
       </c>
       <c r="P3">
-        <v>9082177</v>
+        <v>1483729.25</v>
       </c>
       <c r="Q3">
-        <v>13916060</v>
+        <v>-1988878.5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -5460,46 +5460,46 @@
         <v>1595657</v>
       </c>
       <c r="D4">
-        <v>1436250.125</v>
+        <v>1468317.5</v>
       </c>
       <c r="E4">
-        <v>1450464</v>
+        <v>1519112.375</v>
       </c>
       <c r="F4">
-        <v>1519111.875</v>
+        <v>1519112.375</v>
       </c>
       <c r="G4">
-        <v>1546412.336450647</v>
+        <v>1459812.25</v>
       </c>
       <c r="H4">
-        <v>1477479.022868395</v>
+        <v>1323990</v>
       </c>
       <c r="I4">
-        <v>1476213.5</v>
+        <v>1333263.75</v>
       </c>
       <c r="J4">
-        <v>1366534.5</v>
+        <v>1374969.75</v>
       </c>
       <c r="K4">
-        <v>1459812.25</v>
+        <v>1306365.375</v>
       </c>
       <c r="L4">
-        <v>1404104.375</v>
+        <v>1435000.503529123</v>
       </c>
       <c r="M4">
-        <v>1467276.503207348</v>
+        <v>1491106.297808664</v>
       </c>
       <c r="N4">
-        <v>1378072.875</v>
+        <v>1412428.125</v>
       </c>
       <c r="O4">
-        <v>1404782.25</v>
+        <v>1483025.473766511</v>
       </c>
       <c r="P4">
-        <v>12946664</v>
+        <v>1491449.625</v>
       </c>
       <c r="Q4">
-        <v>2012810.875</v>
+        <v>1144208.875</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -5513,46 +5513,46 @@
         <v>1590963</v>
       </c>
       <c r="D5">
-        <v>1518463.375</v>
+        <v>1514410.25</v>
       </c>
       <c r="E5">
-        <v>1473732.125</v>
+        <v>1519113.25</v>
       </c>
       <c r="F5">
-        <v>1519111.875</v>
+        <v>1519111.375</v>
       </c>
       <c r="G5">
-        <v>1504682.242519008</v>
+        <v>1487305.375</v>
       </c>
       <c r="H5">
-        <v>1504988.800214461</v>
+        <v>1468185.125</v>
       </c>
       <c r="I5">
-        <v>1506749.25</v>
+        <v>1461171.25</v>
       </c>
       <c r="J5">
-        <v>1502570.25</v>
+        <v>1479026.125</v>
       </c>
       <c r="K5">
-        <v>1487305.375</v>
+        <v>1238950.75</v>
       </c>
       <c r="L5">
-        <v>1603508.375</v>
+        <v>1325968.934625182</v>
       </c>
       <c r="M5">
-        <v>1502384.60077528</v>
+        <v>1337989.748700644</v>
       </c>
       <c r="N5">
-        <v>1412151.875</v>
+        <v>1419515.75</v>
       </c>
       <c r="O5">
-        <v>1419519.5</v>
+        <v>1337960.877529952</v>
       </c>
       <c r="P5">
-        <v>-1371941.5</v>
+        <v>1337818.125</v>
       </c>
       <c r="Q5">
-        <v>2456744.25</v>
+        <v>-2478484.5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -5566,46 +5566,46 @@
         <v>1832474</v>
       </c>
       <c r="D6">
-        <v>1693508</v>
+        <v>1619806</v>
       </c>
       <c r="E6">
-        <v>1635202.875</v>
+        <v>1519112.625</v>
       </c>
       <c r="F6">
-        <v>1519112.875</v>
+        <v>1519115.875</v>
       </c>
       <c r="G6">
-        <v>1596554.252462479</v>
+        <v>1477078.75</v>
       </c>
       <c r="H6">
-        <v>1640372.209543783</v>
+        <v>1550159.125</v>
       </c>
       <c r="I6">
-        <v>1640065</v>
+        <v>1603247.375</v>
       </c>
       <c r="J6">
-        <v>1678705.875</v>
+        <v>1596115.25</v>
       </c>
       <c r="K6">
-        <v>1477078.75</v>
+        <v>1561002.75</v>
       </c>
       <c r="L6">
-        <v>1734241.375</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="M6">
-        <v>1628183.403593268</v>
+        <v>1486643.648419273</v>
       </c>
       <c r="N6">
-        <v>1605486.625</v>
+        <v>1376279.25</v>
       </c>
       <c r="O6">
-        <v>1380327.875</v>
+        <v>1479461.2672061</v>
       </c>
       <c r="P6">
-        <v>5026757.5</v>
+        <v>1483729.25</v>
       </c>
       <c r="Q6">
-        <v>-4780149.5</v>
+        <v>-238028.1875</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -5619,46 +5619,46 @@
         <v>1560822</v>
       </c>
       <c r="D7">
-        <v>1492780</v>
+        <v>1543127.5</v>
       </c>
       <c r="E7">
-        <v>1440081.125</v>
+        <v>1519112.875</v>
       </c>
       <c r="F7">
-        <v>1519112.875</v>
+        <v>1519116.5</v>
       </c>
       <c r="G7">
-        <v>1438620.485344651</v>
+        <v>1479298.375</v>
       </c>
       <c r="H7">
-        <v>1410581.977114478</v>
+        <v>1429460.375</v>
       </c>
       <c r="I7">
-        <v>1415760.125</v>
+        <v>1496762.625</v>
       </c>
       <c r="J7">
-        <v>1579334.25</v>
+        <v>1519878</v>
       </c>
       <c r="K7">
-        <v>1479298.375</v>
+        <v>1502140.25</v>
       </c>
       <c r="L7">
-        <v>1546132.625</v>
+        <v>1294396.914580809</v>
       </c>
       <c r="M7">
-        <v>1386339.7275</v>
+        <v>1133037.984132968</v>
       </c>
       <c r="N7">
-        <v>1345127.625</v>
+        <v>1071676.25</v>
       </c>
       <c r="O7">
-        <v>1071674.5</v>
+        <v>1172455.780833333</v>
       </c>
       <c r="P7">
-        <v>3419108.25</v>
+        <v>1133108.125</v>
       </c>
       <c r="Q7">
-        <v>2311755.5</v>
+        <v>-1720805.375</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -5672,46 +5672,46 @@
         <v>1819911</v>
       </c>
       <c r="D8">
-        <v>1780575.75</v>
+        <v>1768315.5</v>
       </c>
       <c r="E8">
-        <v>1735575.5</v>
+        <v>1519116.125</v>
       </c>
       <c r="F8">
-        <v>1519111.875</v>
+        <v>1519117.625</v>
       </c>
       <c r="G8">
-        <v>1596554.252462479</v>
+        <v>1548621</v>
       </c>
       <c r="H8">
-        <v>1606497.758342461</v>
+        <v>1650381.5</v>
       </c>
       <c r="I8">
-        <v>1580430.625</v>
+        <v>1694701.75</v>
       </c>
       <c r="J8">
-        <v>1626568.75</v>
+        <v>1652434.75</v>
       </c>
       <c r="K8">
-        <v>1548621</v>
+        <v>1643700.25</v>
       </c>
       <c r="L8">
-        <v>1736598</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="M8">
-        <v>1543929.789506494</v>
+        <v>1389550.12540709</v>
       </c>
       <c r="N8">
-        <v>1696989.375</v>
+        <v>1402165.5</v>
       </c>
       <c r="O8">
-        <v>1397771</v>
+        <v>1330843.077422796</v>
       </c>
       <c r="P8">
-        <v>2363527.25</v>
+        <v>1236039.375</v>
       </c>
       <c r="Q8">
-        <v>130822256</v>
+        <v>-352761.28125</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -5725,46 +5725,46 @@
         <v>1770736</v>
       </c>
       <c r="D9">
-        <v>1622337</v>
+        <v>1491596.625</v>
       </c>
       <c r="E9">
-        <v>1457861.875</v>
+        <v>1519119.25</v>
       </c>
       <c r="F9">
-        <v>1519111.375</v>
+        <v>1519117</v>
       </c>
       <c r="G9">
-        <v>1575254.172632287</v>
+        <v>1530747.75</v>
       </c>
       <c r="H9">
-        <v>1572121.270695592</v>
+        <v>1464484</v>
       </c>
       <c r="I9">
-        <v>1566701.125</v>
+        <v>1514260.125</v>
       </c>
       <c r="J9">
-        <v>1566773</v>
+        <v>1345547.375</v>
       </c>
       <c r="K9">
-        <v>1530747.75</v>
+        <v>1488883.25</v>
       </c>
       <c r="L9">
-        <v>1469062.25</v>
+        <v>1346048.108305059</v>
       </c>
       <c r="M9">
-        <v>1553785.750038043</v>
+        <v>1327784.253650768</v>
       </c>
       <c r="N9">
-        <v>1527252.125</v>
+        <v>1710890.625</v>
       </c>
       <c r="O9">
-        <v>1732088.75</v>
+        <v>1319821.940061159</v>
       </c>
       <c r="P9">
-        <v>6608576</v>
+        <v>1326629.625</v>
       </c>
       <c r="Q9">
-        <v>134128480</v>
+        <v>378053.71875</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -5778,46 +5778,46 @@
         <v>1616855</v>
       </c>
       <c r="D10">
-        <v>1537221.625</v>
+        <v>1479394.375</v>
       </c>
       <c r="E10">
-        <v>1486726.75</v>
+        <v>1519120.375</v>
       </c>
       <c r="F10">
-        <v>1519112.625</v>
+        <v>1519113.625</v>
       </c>
       <c r="G10">
-        <v>1438620.485344651</v>
+        <v>1560215.875</v>
       </c>
       <c r="H10">
-        <v>1282394.117060028</v>
+        <v>1433999.25</v>
       </c>
       <c r="I10">
-        <v>1262399.25</v>
+        <v>1456609.25</v>
       </c>
       <c r="J10">
-        <v>1465478.625</v>
+        <v>1266096.875</v>
       </c>
       <c r="K10">
-        <v>1560215.875</v>
+        <v>1383467.125</v>
       </c>
       <c r="L10">
-        <v>1424960</v>
+        <v>1294396.914580809</v>
       </c>
       <c r="M10">
-        <v>1268739.178071429</v>
+        <v>1152450.082617128</v>
       </c>
       <c r="N10">
-        <v>1459337.625</v>
+        <v>1719572.625</v>
       </c>
       <c r="O10">
-        <v>1707009</v>
+        <v>1156925.173252525</v>
       </c>
       <c r="P10">
-        <v>5301029</v>
+        <v>1151619.375</v>
       </c>
       <c r="Q10">
-        <v>121687288</v>
+        <v>-291259.5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -5831,46 +5831,46 @@
         <v>1806586</v>
       </c>
       <c r="D11">
-        <v>1665005.5</v>
+        <v>1582657.375</v>
       </c>
       <c r="E11">
-        <v>1629384</v>
+        <v>1519121.25</v>
       </c>
       <c r="F11">
-        <v>1519114.25</v>
+        <v>1519114.875</v>
       </c>
       <c r="G11">
-        <v>1596554.252462479</v>
+        <v>1556453.375</v>
       </c>
       <c r="H11">
-        <v>1640372.209543783</v>
+        <v>1615999.5</v>
       </c>
       <c r="I11">
-        <v>1640065</v>
+        <v>1476060.125</v>
       </c>
       <c r="J11">
-        <v>1613496.5</v>
+        <v>1588196</v>
       </c>
       <c r="K11">
-        <v>1556453.375</v>
+        <v>1483315.75</v>
       </c>
       <c r="L11">
-        <v>1493227.75</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="M11">
-        <v>1628183.403593268</v>
+        <v>1486643.648419273</v>
       </c>
       <c r="N11">
-        <v>1702015.875</v>
+        <v>1254688.25</v>
       </c>
       <c r="O11">
-        <v>1250486.875</v>
+        <v>1479461.2672061</v>
       </c>
       <c r="P11">
-        <v>-9722884</v>
+        <v>1483729.25</v>
       </c>
       <c r="Q11">
-        <v>142371872</v>
+        <v>-1886393.375</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -5884,46 +5884,46 @@
         <v>1897429</v>
       </c>
       <c r="D12">
-        <v>1566386.25</v>
+        <v>1637751.625</v>
       </c>
       <c r="E12">
-        <v>1482327.625</v>
+        <v>1519121.125</v>
       </c>
       <c r="F12">
-        <v>1519115.875</v>
+        <v>1519117.625</v>
       </c>
       <c r="G12">
-        <v>1546412.336450647</v>
+        <v>1561701.125</v>
       </c>
       <c r="H12">
-        <v>1508445.876045872</v>
+        <v>1759045.125</v>
       </c>
       <c r="I12">
-        <v>1487295.5</v>
+        <v>1543041.25</v>
       </c>
       <c r="J12">
-        <v>1419399.625</v>
+        <v>1487369.75</v>
       </c>
       <c r="K12">
-        <v>1561701.125</v>
+        <v>1486884.875</v>
       </c>
       <c r="L12">
-        <v>1526799.875</v>
+        <v>1435000.503529123</v>
       </c>
       <c r="M12">
-        <v>1532326.057188312</v>
+        <v>1158835.736308967</v>
       </c>
       <c r="N12">
-        <v>1510336.125</v>
+        <v>1142924.125</v>
       </c>
       <c r="O12">
-        <v>1171651</v>
+        <v>1208603.357985931</v>
       </c>
       <c r="P12">
-        <v>14690363</v>
+        <v>1158798.25</v>
       </c>
       <c r="Q12">
-        <v>132800768</v>
+        <v>363229.09375</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -5937,46 +5937,46 @@
         <v>1463885</v>
       </c>
       <c r="D13">
-        <v>1194498</v>
+        <v>1159116.5</v>
       </c>
       <c r="E13">
-        <v>1195579.375</v>
+        <v>1519118.75</v>
       </c>
       <c r="F13">
-        <v>1519117</v>
+        <v>1519115.375</v>
       </c>
       <c r="G13">
-        <v>1378359.383405433</v>
+        <v>1569838.875</v>
       </c>
       <c r="H13">
-        <v>1339828.049465796</v>
+        <v>1142894.625</v>
       </c>
       <c r="I13">
-        <v>1345837</v>
+        <v>1079882</v>
       </c>
       <c r="J13">
-        <v>1167872.75</v>
+        <v>1061255.25</v>
       </c>
       <c r="K13">
-        <v>1569838.875</v>
+        <v>1088498.5</v>
       </c>
       <c r="L13">
-        <v>1158738.75</v>
+        <v>1246216.310953626</v>
       </c>
       <c r="M13">
-        <v>1338782.533041181</v>
+        <v>1234342.654181498</v>
       </c>
       <c r="N13">
-        <v>1261125.5</v>
+        <v>1118106.625</v>
       </c>
       <c r="O13">
-        <v>1116055.5</v>
+        <v>1231191.071115424</v>
       </c>
       <c r="P13">
-        <v>7437751.5</v>
+        <v>1234547.875</v>
       </c>
       <c r="Q13">
-        <v>146455424</v>
+        <v>-171823.8125</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -5990,46 +5990,46 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1422745</v>
+        <v>1259132</v>
       </c>
       <c r="E14">
-        <v>1329392.125</v>
+        <v>1519113</v>
       </c>
       <c r="F14">
-        <v>1519116.875</v>
+        <v>1519116.375</v>
       </c>
       <c r="G14">
-        <v>1596554.252462479</v>
+        <v>1618884.625</v>
       </c>
       <c r="H14">
-        <v>1569121.216538792</v>
+        <v>1191729.625</v>
       </c>
       <c r="I14">
-        <v>1565038.5</v>
+        <v>1120773.25</v>
       </c>
       <c r="J14">
-        <v>1390872.125</v>
+        <v>985107.75</v>
       </c>
       <c r="K14">
-        <v>1618884.625</v>
+        <v>926701.375</v>
       </c>
       <c r="L14">
-        <v>1348740.75</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="M14">
-        <v>1544383.154632035</v>
+        <v>1472524.083386335</v>
       </c>
       <c r="N14">
-        <v>1541492.125</v>
+        <v>1252394.875</v>
       </c>
       <c r="O14">
-        <v>1243974.375</v>
+        <v>1468368.372747815</v>
       </c>
       <c r="P14">
-        <v>16527379</v>
+        <v>1474535.875</v>
       </c>
       <c r="Q14">
-        <v>136785376</v>
+        <v>490736.4375</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -6043,46 +6043,46 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1472937.25</v>
+        <v>1478791.875</v>
       </c>
       <c r="E15">
-        <v>1549449.625</v>
+        <v>1519108</v>
       </c>
       <c r="F15">
-        <v>1519116.5</v>
+        <v>1519116.125</v>
       </c>
       <c r="G15">
-        <v>1596554.252462479</v>
+        <v>1653967.25</v>
       </c>
       <c r="H15">
-        <v>1562658.053418773</v>
+        <v>1501700.5</v>
       </c>
       <c r="I15">
-        <v>1532964.75</v>
+        <v>1411506.5</v>
       </c>
       <c r="J15">
-        <v>1481293.5</v>
+        <v>1217831.25</v>
       </c>
       <c r="K15">
-        <v>1653967.25</v>
+        <v>1342672.125</v>
       </c>
       <c r="L15">
-        <v>1445671.5</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="M15">
-        <v>1542203.928554113</v>
+        <v>1329079.169561621</v>
       </c>
       <c r="N15">
-        <v>1576750</v>
+        <v>1104534.5</v>
       </c>
       <c r="O15">
-        <v>1085094</v>
+        <v>1260219.148205073</v>
       </c>
       <c r="P15">
-        <v>205027.515625</v>
+        <v>1026867.8125</v>
       </c>
       <c r="Q15">
-        <v>142870976</v>
+        <v>-517661.34375</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -6096,46 +6096,46 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1225282</v>
+        <v>1210393.25</v>
       </c>
       <c r="E16">
-        <v>1267762.25</v>
+        <v>1519110.125</v>
       </c>
       <c r="F16">
-        <v>1519113.875</v>
+        <v>1519115.375</v>
       </c>
       <c r="G16">
-        <v>1438620.485344651</v>
+        <v>1653076.625</v>
       </c>
       <c r="H16">
-        <v>1282394.117060028</v>
+        <v>1189670.5</v>
       </c>
       <c r="I16">
-        <v>1262399.25</v>
+        <v>1272479.875</v>
       </c>
       <c r="J16">
-        <v>1282929.5</v>
+        <v>1132628</v>
       </c>
       <c r="K16">
-        <v>1653076.625</v>
+        <v>1167768</v>
       </c>
       <c r="L16">
-        <v>1207465.625</v>
+        <v>1294396.914580809</v>
       </c>
       <c r="M16">
-        <v>1268739.178071429</v>
+        <v>1152450.082617128</v>
       </c>
       <c r="N16">
-        <v>1336539.125</v>
+        <v>980265.6875</v>
       </c>
       <c r="O16">
-        <v>980263.0625</v>
+        <v>1156925.173252525</v>
       </c>
       <c r="P16">
-        <v>9928529</v>
+        <v>1151619.375</v>
       </c>
       <c r="Q16">
-        <v>293456608</v>
+        <v>-731774.875</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -6149,46 +6149,46 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1555136.25</v>
+        <v>1464710.875</v>
       </c>
       <c r="E17">
-        <v>1532316.5</v>
+        <v>1519113.5</v>
       </c>
       <c r="F17">
-        <v>1519111.625</v>
+        <v>1519115</v>
       </c>
       <c r="G17">
-        <v>1575254.172632287</v>
+        <v>1643904.5</v>
       </c>
       <c r="H17">
-        <v>1766827.615186955</v>
+        <v>1603558.75</v>
       </c>
       <c r="I17">
-        <v>1782602.25</v>
+        <v>1439218.125</v>
       </c>
       <c r="J17">
-        <v>1514133</v>
+        <v>1295346.875</v>
       </c>
       <c r="K17">
-        <v>1643904.5</v>
+        <v>1470297.625</v>
       </c>
       <c r="L17">
-        <v>1453376</v>
+        <v>1346048.108305059</v>
       </c>
       <c r="M17">
-        <v>1748760.084534271</v>
+        <v>1442000.946763866</v>
       </c>
       <c r="N17">
-        <v>1641193</v>
+        <v>1051195.625</v>
       </c>
       <c r="O17">
-        <v>1051196.5</v>
+        <v>1452941.251587471</v>
       </c>
       <c r="P17">
-        <v>10185617</v>
+        <v>1449161.75</v>
       </c>
       <c r="Q17">
-        <v>273027904</v>
+        <v>-404856.90625</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -6202,46 +6202,46 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1429345.125</v>
+        <v>1280346.875</v>
       </c>
       <c r="E18">
-        <v>1439301.625</v>
+        <v>1519117.25</v>
       </c>
       <c r="F18">
-        <v>1519112.875</v>
+        <v>1519117</v>
       </c>
       <c r="G18">
-        <v>1546412.336450647</v>
+        <v>1636456.5</v>
       </c>
       <c r="H18">
-        <v>1477479.022868395</v>
+        <v>1395630</v>
       </c>
       <c r="I18">
-        <v>1476213.5</v>
+        <v>1265208.375</v>
       </c>
       <c r="J18">
-        <v>1477752</v>
+        <v>1091471</v>
       </c>
       <c r="K18">
-        <v>1636456.5</v>
+        <v>1228704</v>
       </c>
       <c r="L18">
-        <v>1337294.375</v>
+        <v>1435000.503529123</v>
       </c>
       <c r="M18">
-        <v>1467276.503207348</v>
+        <v>1491106.297808664</v>
       </c>
       <c r="N18">
-        <v>1535619.25</v>
+        <v>895932.3125</v>
       </c>
       <c r="O18">
-        <v>892654.4375</v>
+        <v>1483025.473766511</v>
       </c>
       <c r="P18">
-        <v>-4351012</v>
+        <v>1491449.625</v>
       </c>
       <c r="Q18">
-        <v>287368288</v>
+        <v>504303.0625</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -6255,46 +6255,46 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1528997.875</v>
+        <v>1568747.875</v>
       </c>
       <c r="E19">
-        <v>1524660.125</v>
+        <v>1519121</v>
       </c>
       <c r="F19">
-        <v>1519113.875</v>
+        <v>1519114.5</v>
       </c>
       <c r="G19">
-        <v>1546412.336450647</v>
+        <v>1643381.5</v>
       </c>
       <c r="H19">
-        <v>1658769.750687365</v>
+        <v>1476878.5</v>
       </c>
       <c r="I19">
-        <v>1642793.625</v>
+        <v>1496374.5</v>
       </c>
       <c r="J19">
-        <v>1491644.75</v>
+        <v>1442426.25</v>
       </c>
       <c r="K19">
-        <v>1643381.5</v>
+        <v>1351840.25</v>
       </c>
       <c r="L19">
-        <v>1500764.375</v>
+        <v>1435000.503529123</v>
       </c>
       <c r="M19">
-        <v>1673671.087666667</v>
+        <v>1546946.084022604</v>
       </c>
       <c r="N19">
-        <v>1522459.875</v>
+        <v>865088.5</v>
       </c>
       <c r="O19">
-        <v>871919.625</v>
+        <v>1503492.553333333</v>
       </c>
       <c r="P19">
-        <v>3659847.25</v>
+        <v>1455460.625</v>
       </c>
       <c r="Q19">
-        <v>298429984</v>
+        <v>-2437550.5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -6308,46 +6308,46 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1623493.875</v>
+        <v>1448785.125</v>
       </c>
       <c r="E20">
-        <v>1532784.125</v>
+        <v>1519117.25</v>
       </c>
       <c r="F20">
-        <v>1519115.125</v>
+        <v>1519114.625</v>
       </c>
       <c r="G20">
-        <v>1596554.252462479</v>
+        <v>1706926.5</v>
       </c>
       <c r="H20">
-        <v>1543912.455570892</v>
+        <v>1421793</v>
       </c>
       <c r="I20">
-        <v>1543780.25</v>
+        <v>1430873.25</v>
       </c>
       <c r="J20">
-        <v>1598196.625</v>
+        <v>1373106.75</v>
       </c>
       <c r="K20">
-        <v>1706926.5</v>
+        <v>1230448.875</v>
       </c>
       <c r="L20">
-        <v>1497675.25</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="M20">
-        <v>1543377.142678572</v>
+        <v>1543780.540159507</v>
       </c>
       <c r="N20">
-        <v>1730338.875</v>
+        <v>821379.25</v>
       </c>
       <c r="O20">
-        <v>854393</v>
+        <v>1543803.585178572</v>
       </c>
       <c r="P20">
-        <v>3232072</v>
+        <v>1543780.5</v>
       </c>
       <c r="Q20">
-        <v>283822336</v>
+        <v>219622.140625</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -6361,46 +6361,46 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1230325.375</v>
+        <v>1273526.625</v>
       </c>
       <c r="E21">
-        <v>1241317.625</v>
+        <v>1519112.875</v>
       </c>
       <c r="F21">
-        <v>1519116.125</v>
+        <v>1519114.125</v>
       </c>
       <c r="G21">
-        <v>1378359.383405433</v>
+        <v>1704767.375</v>
       </c>
       <c r="H21">
-        <v>1339828.049465796</v>
+        <v>1103648.875</v>
       </c>
       <c r="I21">
-        <v>1345837</v>
+        <v>1205927.25</v>
       </c>
       <c r="J21">
-        <v>1247096.375</v>
+        <v>1168751.875</v>
       </c>
       <c r="K21">
-        <v>1704767.375</v>
+        <v>999211</v>
       </c>
       <c r="L21">
-        <v>1234285.375</v>
+        <v>1246216.310953626</v>
       </c>
       <c r="M21">
-        <v>1338782.533041181</v>
+        <v>1234342.654181498</v>
       </c>
       <c r="N21">
-        <v>1439710.125</v>
+        <v>577361.1875</v>
       </c>
       <c r="O21">
-        <v>556519.1875</v>
+        <v>1231191.071115424</v>
       </c>
       <c r="P21">
-        <v>8596320</v>
+        <v>1234547.875</v>
       </c>
       <c r="Q21">
-        <v>296268960</v>
+        <v>1276217.375</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -6414,46 +6414,46 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1478268</v>
+        <v>1448068.75</v>
       </c>
       <c r="E22">
-        <v>1475677.75</v>
+        <v>1519112.375</v>
       </c>
       <c r="F22">
-        <v>1519114.75</v>
+        <v>1519115</v>
       </c>
       <c r="G22">
-        <v>1596554.252462479</v>
+        <v>1781129.25</v>
       </c>
       <c r="H22">
-        <v>1569121.216538792</v>
+        <v>1272333.25</v>
       </c>
       <c r="I22">
-        <v>1565038.5</v>
+        <v>1445396.75</v>
       </c>
       <c r="J22">
-        <v>1428162.375</v>
+        <v>1322817</v>
       </c>
       <c r="K22">
-        <v>1781129.25</v>
+        <v>1403000.875</v>
       </c>
       <c r="L22">
-        <v>1489919.75</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="M22">
-        <v>1544383.154632035</v>
+        <v>1472524.083386335</v>
       </c>
       <c r="N22">
-        <v>1520919.5</v>
+        <v>1359023.625</v>
       </c>
       <c r="O22">
-        <v>1336936.375</v>
+        <v>1468368.372747815</v>
       </c>
       <c r="P22">
-        <v>-3550176.5</v>
+        <v>1474535.875</v>
       </c>
       <c r="Q22">
-        <v>300575456</v>
+        <v>-1393320.125</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -6467,46 +6467,46 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1665515.5</v>
+        <v>1617197.25</v>
       </c>
       <c r="E23">
-        <v>1625172.25</v>
+        <v>1519112.25</v>
       </c>
       <c r="F23">
-        <v>1519113.25</v>
+        <v>1519115.875</v>
       </c>
       <c r="G23">
-        <v>1596554.252462479</v>
+        <v>1848869</v>
       </c>
       <c r="H23">
-        <v>1503131.862804509</v>
+        <v>1238838.75</v>
       </c>
       <c r="I23">
-        <v>1497759.25</v>
+        <v>1577785.125</v>
       </c>
       <c r="J23">
-        <v>1643148.375</v>
+        <v>1635657.5</v>
       </c>
       <c r="K23">
-        <v>1848869</v>
+        <v>1451128.125</v>
       </c>
       <c r="L23">
-        <v>1650303.5</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="M23">
-        <v>1566455.693666667</v>
+        <v>1497213.382096811</v>
       </c>
       <c r="N23">
-        <v>1570840.25</v>
+        <v>958947.25</v>
       </c>
       <c r="O23">
-        <v>958947.375</v>
+        <v>1451685.651666667</v>
       </c>
       <c r="P23">
-        <v>2632624.25</v>
+        <v>1497756.625</v>
       </c>
       <c r="Q23">
-        <v>300648448</v>
+        <v>-1519798.375</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -6520,46 +6520,46 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1218281.375</v>
+        <v>1106708.125</v>
       </c>
       <c r="E24">
-        <v>1171355.75</v>
+        <v>1519113</v>
       </c>
       <c r="F24">
-        <v>1519114.5</v>
+        <v>1519115.5</v>
       </c>
       <c r="G24">
-        <v>1378359.383405433</v>
+        <v>1830492.5</v>
       </c>
       <c r="H24">
-        <v>1339828.049465796</v>
+        <v>832325.0625</v>
       </c>
       <c r="I24">
-        <v>1345837</v>
+        <v>1108339.125</v>
       </c>
       <c r="J24">
-        <v>1182302.875</v>
+        <v>1126800.375</v>
       </c>
       <c r="K24">
-        <v>1830492.5</v>
+        <v>879784.75</v>
       </c>
       <c r="L24">
-        <v>1180420.125</v>
+        <v>1246216.310953626</v>
       </c>
       <c r="M24">
-        <v>1338782.533041181</v>
+        <v>1234342.654181498</v>
       </c>
       <c r="N24">
-        <v>1248537</v>
+        <v>901140.4375</v>
       </c>
       <c r="O24">
-        <v>901143.1875</v>
+        <v>1231191.071115424</v>
       </c>
       <c r="P24">
-        <v>1677979.625</v>
+        <v>1234547.875</v>
       </c>
       <c r="Q24">
-        <v>296946272</v>
+        <v>-686889.3125</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -6573,46 +6573,46 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1279479.375</v>
+        <v>1329176.75</v>
       </c>
       <c r="E25">
-        <v>1266059</v>
+        <v>1519114.625</v>
       </c>
       <c r="F25">
-        <v>1519116.5</v>
+        <v>1519115.75</v>
       </c>
       <c r="G25">
-        <v>1546412.336450647</v>
+        <v>1894801.75</v>
       </c>
       <c r="H25">
-        <v>1477479.022868395</v>
+        <v>910978.8125</v>
       </c>
       <c r="I25">
-        <v>1476213.5</v>
+        <v>1317733.25</v>
       </c>
       <c r="J25">
-        <v>1251418</v>
+        <v>1305869.875</v>
       </c>
       <c r="K25">
-        <v>1894801.75</v>
+        <v>873183.8125</v>
       </c>
       <c r="L25">
-        <v>1261504.625</v>
+        <v>1435000.503529123</v>
       </c>
       <c r="M25">
-        <v>1467276.503207348</v>
+        <v>1491106.297808664</v>
       </c>
       <c r="N25">
-        <v>1441777.625</v>
+        <v>1545242.25</v>
       </c>
       <c r="O25">
-        <v>1531727.25</v>
+        <v>1483025.473766511</v>
       </c>
       <c r="P25">
-        <v>22908874</v>
+        <v>1491449.625</v>
       </c>
       <c r="Q25">
-        <v>300306400</v>
+        <v>-859781.25</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -6626,46 +6626,46 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1453774.125</v>
+        <v>1365741.75</v>
       </c>
       <c r="E26">
-        <v>1525388</v>
+        <v>1519129.25</v>
       </c>
       <c r="F26">
-        <v>1519115.375</v>
+        <v>1519115.75</v>
       </c>
       <c r="G26">
-        <v>1575254.172632287</v>
+        <v>1866472.5</v>
       </c>
       <c r="H26">
-        <v>1572121.270695592</v>
+        <v>936709</v>
       </c>
       <c r="I26">
-        <v>1566701.125</v>
+        <v>1467007</v>
       </c>
       <c r="J26">
-        <v>1451268</v>
+        <v>1499973.375</v>
       </c>
       <c r="K26">
-        <v>1866472.5</v>
+        <v>1197896.375</v>
       </c>
       <c r="L26">
-        <v>1498478.75</v>
+        <v>1346048.108305059</v>
       </c>
       <c r="M26">
-        <v>1553785.750038043</v>
+        <v>1327784.253650768</v>
       </c>
       <c r="N26">
-        <v>1415214.75</v>
+        <v>1173176.875</v>
       </c>
       <c r="O26">
-        <v>1173178.75</v>
+        <v>1319821.940061159</v>
       </c>
       <c r="P26">
-        <v>56430204</v>
+        <v>1326629.625</v>
       </c>
       <c r="Q26">
-        <v>289549984</v>
+        <v>1936102.75</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -6679,46 +6679,46 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1330766.125</v>
+        <v>1383180.875</v>
       </c>
       <c r="E27">
-        <v>1387719.625</v>
+        <v>1519147.5</v>
       </c>
       <c r="F27">
-        <v>1519113.625</v>
+        <v>1519115.625</v>
       </c>
       <c r="G27">
-        <v>1546412.336450647</v>
+        <v>1914133</v>
       </c>
       <c r="H27">
-        <v>1631605.227700375</v>
+        <v>1175124</v>
       </c>
       <c r="I27">
-        <v>1604845.125</v>
+        <v>1331825.75</v>
       </c>
       <c r="J27">
-        <v>1432584</v>
+        <v>1304837.125</v>
       </c>
       <c r="K27">
-        <v>1914133</v>
+        <v>1250269.375</v>
       </c>
       <c r="L27">
-        <v>1397579</v>
+        <v>1435000.503529123</v>
       </c>
       <c r="M27">
-        <v>1595892.84814602</v>
+        <v>1083876.882686356</v>
       </c>
       <c r="N27">
-        <v>1431621.5</v>
+        <v>1614119.25</v>
       </c>
       <c r="O27">
-        <v>1614120</v>
+        <v>1214417.715044011</v>
       </c>
       <c r="P27">
-        <v>54097484</v>
+        <v>902389.1875</v>
       </c>
       <c r="Q27">
-        <v>291768992</v>
+        <v>578937.625</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -6732,46 +6732,46 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1281141.75</v>
+        <v>1305964.625</v>
       </c>
       <c r="E28">
-        <v>1248790.125</v>
+        <v>1519157.125</v>
       </c>
       <c r="F28">
-        <v>1519113</v>
+        <v>1519115.5</v>
       </c>
       <c r="G28">
-        <v>1504682.242519008</v>
+        <v>1940886.375</v>
       </c>
       <c r="H28">
-        <v>1504988.800214461</v>
+        <v>828468.5</v>
       </c>
       <c r="I28">
-        <v>1506749.25</v>
+        <v>1290213.5</v>
       </c>
       <c r="J28">
-        <v>1276447.125</v>
+        <v>1342231.375</v>
       </c>
       <c r="K28">
-        <v>1940886.375</v>
+        <v>1035426.25</v>
       </c>
       <c r="L28">
-        <v>1292324.625</v>
+        <v>1325968.934625182</v>
       </c>
       <c r="M28">
-        <v>1502384.60077528</v>
+        <v>1337989.748700644</v>
       </c>
       <c r="N28">
-        <v>1368776</v>
+        <v>1108238.125</v>
       </c>
       <c r="O28">
-        <v>1115957</v>
+        <v>1337960.877529952</v>
       </c>
       <c r="P28">
-        <v>42709128</v>
+        <v>1337818.125</v>
       </c>
       <c r="Q28">
-        <v>285953280</v>
+        <v>45221.66015625</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -6785,46 +6785,46 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1589247.375</v>
+        <v>1406389.875</v>
       </c>
       <c r="E29">
-        <v>1563802.5</v>
+        <v>1519165.375</v>
       </c>
       <c r="F29">
-        <v>1519113.125</v>
+        <v>1519115.75</v>
       </c>
       <c r="G29">
-        <v>1575254.172632287</v>
+        <v>1922808.125</v>
       </c>
       <c r="H29">
-        <v>1766827.615186955</v>
+        <v>1037010.375</v>
       </c>
       <c r="I29">
-        <v>1782602.25</v>
+        <v>1392496.125</v>
       </c>
       <c r="J29">
-        <v>1603027.375</v>
+        <v>1597275.25</v>
       </c>
       <c r="K29">
-        <v>1922808.125</v>
+        <v>1068603</v>
       </c>
       <c r="L29">
-        <v>1601338.25</v>
+        <v>1346048.108305059</v>
       </c>
       <c r="M29">
-        <v>1748760.084534271</v>
+        <v>1442000.946763866</v>
       </c>
       <c r="N29">
-        <v>1608152</v>
+        <v>1160616.25</v>
       </c>
       <c r="O29">
-        <v>1159392</v>
+        <v>1452941.251587471</v>
       </c>
       <c r="P29">
-        <v>82174832</v>
+        <v>1449161.75</v>
       </c>
       <c r="Q29">
-        <v>301344288</v>
+        <v>3649840</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -6838,46 +6838,46 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1261300.375</v>
+        <v>1328947.5</v>
       </c>
       <c r="E30">
-        <v>1353133.5</v>
+        <v>1519188.5</v>
       </c>
       <c r="F30">
-        <v>1519114</v>
+        <v>1519115.375</v>
       </c>
       <c r="G30">
-        <v>1378359.383405433</v>
+        <v>1934629.5</v>
       </c>
       <c r="H30">
-        <v>1339828.049465796</v>
+        <v>1015299.875</v>
       </c>
       <c r="I30">
-        <v>1345837</v>
+        <v>1277249.875</v>
       </c>
       <c r="J30">
-        <v>1308017.875</v>
+        <v>1397321.5</v>
       </c>
       <c r="K30">
-        <v>1934629.5</v>
+        <v>1207831.125</v>
       </c>
       <c r="L30">
-        <v>1325626.625</v>
+        <v>1246216.310953626</v>
       </c>
       <c r="M30">
-        <v>1338782.533041181</v>
+        <v>1234342.654181498</v>
       </c>
       <c r="N30">
-        <v>1280568.25</v>
+        <v>1339702.125</v>
       </c>
       <c r="O30">
-        <v>1342543.375</v>
+        <v>1231191.071115424</v>
       </c>
       <c r="P30">
-        <v>87658120</v>
+        <v>1234547.875</v>
       </c>
       <c r="Q30">
-        <v>290629856</v>
+        <v>6965079</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -6891,46 +6891,46 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1381939</v>
+        <v>1409947.875</v>
       </c>
       <c r="E31">
-        <v>1422106.5</v>
+        <v>1519219.25</v>
       </c>
       <c r="F31">
-        <v>1519115.25</v>
+        <v>1519115.875</v>
       </c>
       <c r="G31">
-        <v>1575254.172632287</v>
+        <v>1979692.625</v>
       </c>
       <c r="H31">
-        <v>1572121.270695592</v>
+        <v>1080617.25</v>
       </c>
       <c r="I31">
-        <v>1566701.125</v>
+        <v>1589627.375</v>
       </c>
       <c r="J31">
-        <v>1400183.75</v>
+        <v>1562137.375</v>
       </c>
       <c r="K31">
-        <v>1979692.625</v>
+        <v>1208567.375</v>
       </c>
       <c r="L31">
-        <v>1408591.625</v>
+        <v>1346048.108305059</v>
       </c>
       <c r="M31">
-        <v>1553785.750038043</v>
+        <v>1327784.253650768</v>
       </c>
       <c r="N31">
-        <v>1512714.5</v>
+        <v>1174583.75</v>
       </c>
       <c r="O31">
-        <v>1174583.125</v>
+        <v>1319821.940061159</v>
       </c>
       <c r="P31">
-        <v>129366952</v>
+        <v>1326629.625</v>
       </c>
       <c r="Q31">
-        <v>286611424</v>
+        <v>9243377</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -6944,46 +6944,46 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1546653.875</v>
+        <v>1382710.5</v>
       </c>
       <c r="E32">
-        <v>1542300.625</v>
+        <v>1519233.125</v>
       </c>
       <c r="F32">
-        <v>1519115.125</v>
+        <v>1519115.5</v>
       </c>
       <c r="G32">
-        <v>1596554.252462479</v>
+        <v>1951668.875</v>
       </c>
       <c r="H32">
-        <v>1612944.147569249</v>
+        <v>1077603</v>
       </c>
       <c r="I32">
-        <v>1497917.875</v>
+        <v>1474756.5</v>
       </c>
       <c r="J32">
-        <v>1577465.875</v>
+        <v>1618341.125</v>
       </c>
       <c r="K32">
-        <v>1951668.875</v>
+        <v>1219815.125</v>
       </c>
       <c r="L32">
-        <v>1585878.375</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="M32">
-        <v>1707805.996380952</v>
+        <v>1187663.428997662</v>
       </c>
       <c r="N32">
-        <v>1490703.875</v>
+        <v>1383380.875</v>
       </c>
       <c r="O32">
-        <v>1383379.75</v>
+        <v>1408725.34647619</v>
       </c>
       <c r="P32">
-        <v>142557232</v>
+        <v>1022715.1875</v>
       </c>
       <c r="Q32">
-        <v>279126464</v>
+        <v>20208116</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -6997,46 +6997,46 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1274487.125</v>
+        <v>1248478.125</v>
       </c>
       <c r="E33">
-        <v>1312618.375</v>
+        <v>1519233.375</v>
       </c>
       <c r="F33">
-        <v>1519114</v>
+        <v>1519115.375</v>
       </c>
       <c r="G33">
-        <v>1378359.383405433</v>
+        <v>1930463.875</v>
       </c>
       <c r="H33">
-        <v>1339828.049465796</v>
+        <v>1034601.875</v>
       </c>
       <c r="I33">
-        <v>1345837</v>
+        <v>1305394.375</v>
       </c>
       <c r="J33">
-        <v>1268912.875</v>
+        <v>1283063.5</v>
       </c>
       <c r="K33">
-        <v>1930463.875</v>
+        <v>1129848.75</v>
       </c>
       <c r="L33">
-        <v>1279707.375</v>
+        <v>1246216.310953626</v>
       </c>
       <c r="M33">
-        <v>1338782.533041181</v>
+        <v>1234342.654181498</v>
       </c>
       <c r="N33">
-        <v>1323343.625</v>
+        <v>1100128.625</v>
       </c>
       <c r="O33">
-        <v>1100130.5</v>
+        <v>1231191.071115424</v>
       </c>
       <c r="P33">
-        <v>148238752</v>
+        <v>1234547.875</v>
       </c>
       <c r="Q33">
-        <v>291537568</v>
+        <v>33548888</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -7050,46 +7050,46 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1567245</v>
+        <v>1604714.875</v>
       </c>
       <c r="E34">
-        <v>1618451.375</v>
+        <v>1519232.75</v>
       </c>
       <c r="F34">
-        <v>1519113.375</v>
+        <v>1519115.125</v>
       </c>
       <c r="G34">
-        <v>1596554.252462479</v>
+        <v>1940879.125</v>
       </c>
       <c r="H34">
-        <v>1640372.209543783</v>
+        <v>1498642.5</v>
       </c>
       <c r="I34">
-        <v>1640065</v>
+        <v>1755530.75</v>
       </c>
       <c r="J34">
-        <v>1554193.75</v>
+        <v>1789507</v>
       </c>
       <c r="K34">
-        <v>1940879.125</v>
+        <v>1527250.5</v>
       </c>
       <c r="L34">
-        <v>1643444.125</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="M34">
-        <v>1628183.403593268</v>
+        <v>1486643.648419273</v>
       </c>
       <c r="N34">
-        <v>1611915.125</v>
+        <v>770661.8125</v>
       </c>
       <c r="O34">
-        <v>770656.3125</v>
+        <v>1479461.2672061</v>
       </c>
       <c r="P34">
-        <v>251126880</v>
+        <v>1483729.25</v>
       </c>
       <c r="Q34">
-        <v>274643072</v>
+        <v>56131876</v>
       </c>
     </row>
   </sheetData>

--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR5_경부선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR5_경부선.xlsx
@@ -514,25 +514,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1265204576981.411</v>
+        <v>1265204435439.359</v>
       </c>
       <c r="C3">
-        <v>1124813.129804863</v>
+        <v>1124813.066886831</v>
       </c>
       <c r="D3">
-        <v>0.0311979799404739</v>
+        <v>0.03119796878146103</v>
       </c>
       <c r="E3">
-        <v>555402.6041666666</v>
+        <v>555402.4375</v>
       </c>
       <c r="F3">
-        <v>0.1146408828211905</v>
+        <v>0.1146408362565406</v>
       </c>
       <c r="G3">
-        <v>255665.875</v>
+        <v>255665.75</v>
       </c>
       <c r="H3">
-        <v>0.0747663508951604</v>
+        <v>0.07476631601524987</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1033,7 +1033,7 @@
         <v>3186083.75</v>
       </c>
       <c r="E4">
-        <v>3152500</v>
+        <v>3152500.25</v>
       </c>
       <c r="F4">
         <v>3050349</v>
@@ -1139,7 +1139,7 @@
         <v>3189311.5</v>
       </c>
       <c r="E6">
-        <v>3152501.5</v>
+        <v>3152501.25</v>
       </c>
       <c r="F6">
         <v>3014767.5</v>
@@ -1192,7 +1192,7 @@
         <v>3298762.75</v>
       </c>
       <c r="E7">
-        <v>3152502.25</v>
+        <v>3152501.75</v>
       </c>
       <c r="F7">
         <v>3202956</v>
@@ -1245,7 +1245,7 @@
         <v>3367579.25</v>
       </c>
       <c r="E8">
-        <v>3152501.75</v>
+        <v>3152502.25</v>
       </c>
       <c r="F8">
         <v>3317956</v>
@@ -1298,7 +1298,7 @@
         <v>3385911</v>
       </c>
       <c r="E9">
-        <v>3152501.5</v>
+        <v>3152502.25</v>
       </c>
       <c r="F9">
         <v>3410940.75</v>
@@ -1457,7 +1457,7 @@
         <v>3274700</v>
       </c>
       <c r="E12">
-        <v>3152501.75</v>
+        <v>3152502.25</v>
       </c>
       <c r="F12">
         <v>3162613</v>
@@ -1510,7 +1510,7 @@
         <v>3403701.5</v>
       </c>
       <c r="E13">
-        <v>3152501.75</v>
+        <v>3152502.5</v>
       </c>
       <c r="F13">
         <v>2943271.25</v>
@@ -1616,7 +1616,7 @@
         <v>3611019</v>
       </c>
       <c r="E15">
-        <v>3152502.25</v>
+        <v>3152501.25</v>
       </c>
       <c r="F15">
         <v>3367644.5</v>
@@ -1669,7 +1669,7 @@
         <v>3573648.5</v>
       </c>
       <c r="E16">
-        <v>3152502.25</v>
+        <v>3152500.5</v>
       </c>
       <c r="F16">
         <v>3218099</v>
@@ -1722,7 +1722,7 @@
         <v>3660756.75</v>
       </c>
       <c r="E17">
-        <v>3152502.5</v>
+        <v>3152500.5</v>
       </c>
       <c r="F17">
         <v>3030124.75</v>
@@ -1775,7 +1775,7 @@
         <v>3604046.75</v>
       </c>
       <c r="E18">
-        <v>3152502.75</v>
+        <v>3152502</v>
       </c>
       <c r="F18">
         <v>3015422.25</v>
@@ -1828,7 +1828,7 @@
         <v>3650265.25</v>
       </c>
       <c r="E19">
-        <v>3152502.75</v>
+        <v>3152503.25</v>
       </c>
       <c r="F19">
         <v>2988883.25</v>
@@ -1881,7 +1881,7 @@
         <v>3759440.5</v>
       </c>
       <c r="E20">
-        <v>3152503.25</v>
+        <v>3152503</v>
       </c>
       <c r="F20">
         <v>3245488.25</v>
@@ -1934,7 +1934,7 @@
         <v>3788538.5</v>
       </c>
       <c r="E21">
-        <v>3152502.75</v>
+        <v>3152502</v>
       </c>
       <c r="F21">
         <v>3111347.5</v>
@@ -1987,7 +1987,7 @@
         <v>3839723</v>
       </c>
       <c r="E22">
-        <v>3152502.5</v>
+        <v>3152502</v>
       </c>
       <c r="F22">
         <v>3275268.5</v>
@@ -2040,7 +2040,7 @@
         <v>3808182.75</v>
       </c>
       <c r="E23">
-        <v>3152502</v>
+        <v>3152502.25</v>
       </c>
       <c r="F23">
         <v>3052940.75</v>
@@ -2093,7 +2093,7 @@
         <v>3862500.25</v>
       </c>
       <c r="E24">
-        <v>3152500.75</v>
+        <v>3152501.25</v>
       </c>
       <c r="F24">
         <v>2258928.75</v>
@@ -2146,7 +2146,7 @@
         <v>3918111.25</v>
       </c>
       <c r="E25">
-        <v>3152500.25</v>
+        <v>3152502</v>
       </c>
       <c r="F25">
         <v>1757311</v>
@@ -2199,7 +2199,7 @@
         <v>4008163</v>
       </c>
       <c r="E26">
-        <v>3152501</v>
+        <v>3152503.75</v>
       </c>
       <c r="F26">
         <v>2044267</v>
@@ -2252,7 +2252,7 @@
         <v>4007408</v>
       </c>
       <c r="E27">
-        <v>3152502</v>
+        <v>3152505.5</v>
       </c>
       <c r="F27">
         <v>2354871</v>
@@ -2305,7 +2305,7 @@
         <v>4037032.5</v>
       </c>
       <c r="E28">
-        <v>3152502.75</v>
+        <v>3152515</v>
       </c>
       <c r="F28">
         <v>2535241.25</v>
@@ -2358,7 +2358,7 @@
         <v>4060179.25</v>
       </c>
       <c r="E29">
-        <v>3152502.75</v>
+        <v>3152526.25</v>
       </c>
       <c r="F29">
         <v>2556284.5</v>
@@ -2411,7 +2411,7 @@
         <v>4097172.25</v>
       </c>
       <c r="E30">
-        <v>3152502.25</v>
+        <v>3152529.25</v>
       </c>
       <c r="F30">
         <v>2892802.25</v>
@@ -2464,7 +2464,7 @@
         <v>4099446.75</v>
       </c>
       <c r="E31">
-        <v>3152502.25</v>
+        <v>3152528.5</v>
       </c>
       <c r="F31">
         <v>2086352.375</v>
@@ -2517,7 +2517,7 @@
         <v>4081235</v>
       </c>
       <c r="E32">
-        <v>3152501.5</v>
+        <v>3152528.5</v>
       </c>
       <c r="F32">
         <v>2768211</v>
@@ -2570,7 +2570,7 @@
         <v>4114394.75</v>
       </c>
       <c r="E33">
-        <v>3152500.5</v>
+        <v>3152528.75</v>
       </c>
       <c r="F33">
         <v>2819592.25</v>
@@ -2623,7 +2623,7 @@
         <v>4202335.5</v>
       </c>
       <c r="E34">
-        <v>3152500.25</v>
+        <v>3152529</v>
       </c>
       <c r="F34">
         <v>2206129.5</v>
@@ -2856,184 +2856,184 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>247199670627.6641</v>
+        <v>247161691277.25</v>
       </c>
       <c r="C8">
-        <v>497191.7845536711</v>
+        <v>497153.5892229382</v>
       </c>
       <c r="D8">
-        <v>0.03036069453859159</v>
+        <v>0.03035380748645236</v>
       </c>
       <c r="E8">
-        <v>282766.8125</v>
+        <v>282722.9583333333</v>
       </c>
       <c r="F8">
-        <v>0.1235349772150863</v>
+        <v>0.1235157162785253</v>
       </c>
       <c r="G8">
-        <v>132180.1875</v>
+        <v>132190.125</v>
       </c>
       <c r="H8">
-        <v>0.08037676708171781</v>
+        <v>0.08038942861659168</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>338009699472.8268</v>
+        <v>247199670627.6641</v>
       </c>
       <c r="C9">
-        <v>581386.0158903264</v>
+        <v>497191.7845536711</v>
       </c>
       <c r="D9">
-        <v>0.05488690027920087</v>
+        <v>0.03036069453859159</v>
       </c>
       <c r="E9">
-        <v>379622.71875</v>
+        <v>282766.8125</v>
       </c>
       <c r="F9">
-        <v>0.1822243675451237</v>
+        <v>0.1235349772150863</v>
       </c>
       <c r="G9">
-        <v>257982.625</v>
+        <v>132180.1875</v>
       </c>
       <c r="H9">
-        <v>0.1455564083664238</v>
+        <v>0.08037676708171781</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>398761668216.0394</v>
+        <v>338009699472.8268</v>
       </c>
       <c r="C10">
-        <v>631475.7859301015</v>
+        <v>581386.0158903264</v>
       </c>
       <c r="D10">
-        <v>0.05899126158986721</v>
+        <v>0.05488690027920087</v>
       </c>
       <c r="E10">
-        <v>427519.6901822548</v>
+        <v>379622.71875</v>
       </c>
       <c r="F10">
-        <v>0.2020709781579455</v>
+        <v>0.1822243675451237</v>
       </c>
       <c r="G10">
-        <v>264222.5697775854</v>
+        <v>257982.625</v>
       </c>
       <c r="H10">
-        <v>0.1556120647637498</v>
+        <v>0.1455564083664238</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>456020602694.944</v>
+        <v>398761668216.0394</v>
       </c>
       <c r="C11">
-        <v>675292.9754520952</v>
+        <v>631475.7859301015</v>
       </c>
       <c r="D11">
-        <v>0.06534679437301573</v>
+        <v>0.05899126158986721</v>
       </c>
       <c r="E11">
-        <v>448327.4895833333</v>
+        <v>427519.6901822548</v>
       </c>
       <c r="F11">
-        <v>0.2106377807566827</v>
+        <v>0.2020709781579455</v>
       </c>
       <c r="G11">
-        <v>269849.3125</v>
+        <v>264222.5697775854</v>
       </c>
       <c r="H11">
-        <v>0.1556169209015091</v>
+        <v>0.1556120647637498</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>381992967205.2991</v>
+        <v>456020602694.944</v>
       </c>
       <c r="C12">
-        <v>618055.7961910067</v>
+        <v>675292.9754520952</v>
       </c>
       <c r="D12">
-        <v>0.06020833197102277</v>
+        <v>0.06534679437301573</v>
       </c>
       <c r="E12">
-        <v>441586.3563890685</v>
+        <v>448327.4895833333</v>
       </c>
       <c r="F12">
-        <v>0.2120049920333621</v>
+        <v>0.2106377807566827</v>
       </c>
       <c r="G12">
-        <v>272799.7787001334</v>
+        <v>269849.3125</v>
       </c>
       <c r="H12">
-        <v>0.1681337955906951</v>
+        <v>0.1556169209015091</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>430958427005.9175</v>
+        <v>381992967205.2991</v>
       </c>
       <c r="C13">
-        <v>656474.2394076994</v>
+        <v>618055.7961910067</v>
       </c>
       <c r="D13">
-        <v>0.06309638084805512</v>
+        <v>0.06020833197102277</v>
       </c>
       <c r="E13">
-        <v>449890.0699850105</v>
+        <v>441586.3563890685</v>
       </c>
       <c r="F13">
-        <v>0.2120791310383352</v>
+        <v>0.2120049920333621</v>
       </c>
       <c r="G13">
-        <v>289863.0755536533</v>
+        <v>272799.7787001334</v>
       </c>
       <c r="H13">
-        <v>0.1797210794798603</v>
+        <v>0.1681337955906951</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>13726674607922.48</v>
+        <v>430958427005.9175</v>
       </c>
       <c r="C14">
-        <v>3704952.71331801</v>
+        <v>656474.2394076994</v>
       </c>
       <c r="D14">
-        <v>4.403913693165217</v>
+        <v>0.06309638084805512</v>
       </c>
       <c r="E14">
-        <v>3334526.516927083</v>
+        <v>449890.0699850105</v>
       </c>
       <c r="F14">
-        <v>1.867888949242807</v>
+        <v>0.2120791310383352</v>
       </c>
       <c r="G14">
-        <v>3073163.4140625</v>
+        <v>289863.0755536533</v>
       </c>
       <c r="H14">
-        <v>1.741561622707276</v>
+        <v>0.1797210794798603</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3104,25 +3104,25 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>20</v>
@@ -3157,25 +3157,25 @@
         <v>1828108.125</v>
       </c>
       <c r="J2">
+        <v>1633463.625</v>
+      </c>
+      <c r="K2">
         <v>1633390.625</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1692501</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1577056.373167345</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1573084.5</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1573140.788124288</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1585893.393873661</v>
-      </c>
-      <c r="P2">
-        <v>-1489702.25</v>
       </c>
       <c r="Q2">
         <v>6841545</v>
@@ -3210,25 +3210,25 @@
         <v>1598326.875</v>
       </c>
       <c r="J3">
+        <v>1633441.375</v>
+      </c>
+      <c r="K3">
         <v>1633388.625</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1524739.375</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1311097.965650433</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1147885</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1407300.091833307</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1235633.837670139</v>
-      </c>
-      <c r="P3">
-        <v>190331.921875</v>
       </c>
       <c r="Q3">
         <v>-7156669</v>
@@ -3263,25 +3263,25 @@
         <v>1672841.125</v>
       </c>
       <c r="J4">
+        <v>1633419</v>
+      </c>
+      <c r="K4">
         <v>1633387</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1599459.25</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1404977.487277484</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1397695.875</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1397348.895083698</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1430026.011222554</v>
-      </c>
-      <c r="P4">
-        <v>3776664.25</v>
       </c>
       <c r="Q4">
         <v>1782819</v>
@@ -3316,25 +3316,25 @@
         <v>1641789</v>
       </c>
       <c r="J5">
+        <v>1633480.75</v>
+      </c>
+      <c r="K5">
         <v>1633388.625</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1588335.25</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1577056.373167345</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1573084.5</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1573140.788124288</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1585893.393873661</v>
-      </c>
-      <c r="P5">
-        <v>3740449</v>
       </c>
       <c r="Q5">
         <v>-22982858</v>
@@ -3369,25 +3369,25 @@
         <v>1413417.25</v>
       </c>
       <c r="J6">
+        <v>1633520.25</v>
+      </c>
+      <c r="K6">
         <v>1633393.25</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1194480.5</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1294574.883054811</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1301152.25</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1301223.094813609</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1296976.770405408</v>
-      </c>
-      <c r="P6">
-        <v>-1594668.75</v>
       </c>
       <c r="Q6">
         <v>-5624222.5</v>
@@ -3422,25 +3422,25 @@
         <v>1582390.875</v>
       </c>
       <c r="J7">
+        <v>1633531.75</v>
+      </c>
+      <c r="K7">
         <v>1633395.875</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1454097.25</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1616382.641584249</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1920173.375</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1259751.897384204</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1505980.484778641</v>
-      </c>
-      <c r="P7">
-        <v>-2826063</v>
       </c>
       <c r="Q7">
         <v>458287.5</v>
@@ -3475,25 +3475,25 @@
         <v>1831194</v>
       </c>
       <c r="J8">
+        <v>1633530.25</v>
+      </c>
+      <c r="K8">
         <v>1633393.125</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1583721.5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1404977.487277484</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1397695.875</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1397348.895083698</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1430026.011222554</v>
-      </c>
-      <c r="P8">
-        <v>3791650.75</v>
       </c>
       <c r="Q8">
         <v>8964313</v>
@@ -3528,25 +3528,25 @@
         <v>1621454.25</v>
       </c>
       <c r="J9">
+        <v>1633513.625</v>
+      </c>
+      <c r="K9">
         <v>1633389.875</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1854001.25</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1294574.883054811</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1301152.25</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1301223.094813609</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1296976.770405408</v>
-      </c>
-      <c r="P9">
-        <v>8318005</v>
       </c>
       <c r="Q9">
         <v>7857252.5</v>
@@ -3581,25 +3581,25 @@
         <v>2020832</v>
       </c>
       <c r="J10">
+        <v>1633516.75</v>
+      </c>
+      <c r="K10">
         <v>1633390.75</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2095700</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1782518.693607143</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1805938.75</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1805096.800257878</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1585893.393873661</v>
-      </c>
-      <c r="P10">
-        <v>7417212.5</v>
       </c>
       <c r="Q10">
         <v>9880277</v>
@@ -3634,25 +3634,25 @@
         <v>1301476.375</v>
       </c>
       <c r="J11">
+        <v>1633536.875</v>
+      </c>
+      <c r="K11">
         <v>1633393.25</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1171223.875</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1294574.883054811</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1301152.25</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1301223.094813609</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1296976.770405408</v>
-      </c>
-      <c r="P11">
-        <v>6262512.5</v>
       </c>
       <c r="Q11">
         <v>9322751</v>
@@ -3687,25 +3687,25 @@
         <v>1390440.25</v>
       </c>
       <c r="J12">
+        <v>1633516</v>
+      </c>
+      <c r="K12">
         <v>1633390.5</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1092843.125</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1226555.37102381</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1199544.875</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1302437.547516035</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1235633.837670139</v>
-      </c>
-      <c r="P12">
-        <v>4182832.75</v>
       </c>
       <c r="Q12">
         <v>8224925.5</v>
@@ -3740,25 +3740,25 @@
         <v>1726511.5</v>
       </c>
       <c r="J13">
+        <v>1633542.5</v>
+      </c>
+      <c r="K13">
         <v>1633392.75</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1269133.5</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1475988.675893217</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1471873.375</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1472300.735482956</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1505980.484778641</v>
-      </c>
-      <c r="P13">
-        <v>1431856.625</v>
       </c>
       <c r="Q13">
         <v>-29097776</v>
@@ -3793,25 +3793,25 @@
         <v>1445237</v>
       </c>
       <c r="J14">
+        <v>1633545.25</v>
+      </c>
+      <c r="K14">
         <v>1633393.375</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1522083.75</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1294574.883054811</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1301152.25</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1301223.094813609</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1296976.770405408</v>
-      </c>
-      <c r="P14">
-        <v>-4520499</v>
       </c>
       <c r="Q14">
         <v>-13558821</v>
@@ -3846,25 +3846,25 @@
         <v>1511017.75</v>
       </c>
       <c r="J15">
+        <v>1633540.625</v>
+      </c>
+      <c r="K15">
         <v>1633392.75</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1080884.25</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1010955.78231277</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1006218.875</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1008050.338460679</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1357112.014799315</v>
-      </c>
-      <c r="P15">
-        <v>-9366522</v>
       </c>
       <c r="Q15">
         <v>11437883</v>
@@ -3899,25 +3899,25 @@
         <v>1484779.625</v>
       </c>
       <c r="J16">
+        <v>1633531.25</v>
+      </c>
+      <c r="K16">
         <v>1633391.875</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>992963.5625</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1577056.373167345</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1573084.5</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1573140.788124288</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1585893.393873661</v>
-      </c>
-      <c r="P16">
-        <v>-3513175.75</v>
       </c>
       <c r="Q16">
         <v>-27280610</v>
@@ -3952,25 +3952,25 @@
         <v>1468301.5</v>
       </c>
       <c r="J17">
+        <v>1633542.625</v>
+      </c>
+      <c r="K17">
         <v>1633391.75</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>850355.0625</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1294574.883054811</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1301152.25</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1301223.094813609</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1296976.770405408</v>
-      </c>
-      <c r="P17">
-        <v>2310363</v>
       </c>
       <c r="Q17">
         <v>26875498</v>
@@ -4005,25 +4005,25 @@
         <v>1490651.125</v>
       </c>
       <c r="J18">
+        <v>1633543.25</v>
+      </c>
+      <c r="K18">
         <v>1633392.75</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>668145.8125</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1577056.373167345</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1573084.5</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1573140.788124288</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1585893.393873661</v>
-      </c>
-      <c r="P18">
-        <v>4955671.5</v>
       </c>
       <c r="Q18">
         <v>8046869</v>
@@ -4058,25 +4058,25 @@
         <v>1515870.125</v>
       </c>
       <c r="J19">
+        <v>1633549.75</v>
+      </c>
+      <c r="K19">
         <v>1633391.625</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>742420.125</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1404977.487277484</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1397695.875</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1397348.895083698</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1430026.011222554</v>
-      </c>
-      <c r="P19">
-        <v>7600993.5</v>
       </c>
       <c r="Q19">
         <v>-20636708</v>
@@ -4111,25 +4111,25 @@
         <v>1196800</v>
       </c>
       <c r="J20">
+        <v>1633554</v>
+      </c>
+      <c r="K20">
         <v>1633391.25</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>725525.4375</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1294574.883054811</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1301152.25</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1301223.094813609</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1296976.770405408</v>
-      </c>
-      <c r="P20">
-        <v>5387820</v>
       </c>
       <c r="Q20">
         <v>75854240</v>
@@ -4164,25 +4164,25 @@
         <v>1641508</v>
       </c>
       <c r="J21">
+        <v>1633543.5</v>
+      </c>
+      <c r="K21">
         <v>1633390.5</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>633554</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1577056.373167345</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1573084.5</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>1573140.788124288</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>1585893.393873661</v>
-      </c>
-      <c r="P21">
-        <v>2957005.25</v>
       </c>
       <c r="Q21">
         <v>94693184</v>
@@ -4217,25 +4217,25 @@
         <v>1417777.875</v>
       </c>
       <c r="J22">
+        <v>1633552</v>
+      </c>
+      <c r="K22">
         <v>1633392</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1335752.25</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>1404977.487277484</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1397695.875</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1397348.895083698</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1430026.011222554</v>
-      </c>
-      <c r="P22">
-        <v>6272134</v>
       </c>
       <c r="Q22">
         <v>71228328</v>
@@ -4270,25 +4270,25 @@
         <v>1191125.875</v>
       </c>
       <c r="J23">
+        <v>1633560.375</v>
+      </c>
+      <c r="K23">
         <v>1633392.75</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>863679.4375</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1404977.487277484</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1397695.875</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>1397348.895083698</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>1430026.011222554</v>
-      </c>
-      <c r="P23">
-        <v>10182083</v>
       </c>
       <c r="Q23">
         <v>80643512</v>
@@ -4323,25 +4323,25 @@
         <v>1054246.875</v>
       </c>
       <c r="J24">
+        <v>1633544.5</v>
+      </c>
+      <c r="K24">
         <v>1633392.5</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1175357.5</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1294574.883054811</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1301152.25</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1301223.094813609</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1296976.770405408</v>
-      </c>
-      <c r="P24">
-        <v>7234012.5</v>
       </c>
       <c r="Q24">
         <v>77911320</v>
@@ -4376,25 +4376,25 @@
         <v>1358636.125</v>
       </c>
       <c r="J25">
+        <v>1633547</v>
+      </c>
+      <c r="K25">
         <v>1633392.75</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1388723.625</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1532445.604012432</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1521003.625</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1520934.012806861</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1505980.484778641</v>
-      </c>
-      <c r="P25">
-        <v>3058717.25</v>
       </c>
       <c r="Q25">
         <v>86174936</v>
@@ -4429,25 +4429,25 @@
         <v>1419496.625</v>
       </c>
       <c r="J26">
+        <v>1633550.125</v>
+      </c>
+      <c r="K26">
         <v>1633392.75</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1264234.75</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1294574.883054811</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1301152.25</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1301223.094813609</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1296976.770405408</v>
-      </c>
-      <c r="P26">
-        <v>52520856</v>
       </c>
       <c r="Q26">
         <v>98695368</v>
@@ -4482,25 +4482,25 @@
         <v>1605559</v>
       </c>
       <c r="J27">
+        <v>1633553.75</v>
+      </c>
+      <c r="K27">
         <v>1633392.5</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1644044.75</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1577056.373167345</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1573084.5</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1573140.788124288</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1585893.393873661</v>
-      </c>
-      <c r="P27">
-        <v>116998744</v>
       </c>
       <c r="Q27">
         <v>82349008</v>
@@ -4535,25 +4535,25 @@
         <v>1468671.625</v>
       </c>
       <c r="J28">
+        <v>1633546.625</v>
+      </c>
+      <c r="K28">
         <v>1633392.875</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>976551.1875</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1010955.78231277</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1006218.875</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1008050.338460679</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1357112.014799315</v>
-      </c>
-      <c r="P28">
-        <v>152097488</v>
       </c>
       <c r="Q28">
         <v>72016864</v>
@@ -4588,25 +4588,25 @@
         <v>1415956.625</v>
       </c>
       <c r="J29">
+        <v>1633555.375</v>
+      </c>
+      <c r="K29">
         <v>1633393</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1381574</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1294574.883054811</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1301152.25</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1301223.094813609</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1296976.770405408</v>
-      </c>
-      <c r="P29">
-        <v>175696832</v>
       </c>
       <c r="Q29">
         <v>86760872</v>
@@ -4641,25 +4641,25 @@
         <v>1711299</v>
       </c>
       <c r="J30">
+        <v>1633546.875</v>
+      </c>
+      <c r="K30">
         <v>1633393.25</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1563135.5</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1475988.675893217</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1471873.375</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1472300.735482956</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>1505980.484778641</v>
-      </c>
-      <c r="P30">
-        <v>187294608</v>
       </c>
       <c r="Q30">
         <v>55034808</v>
@@ -4694,25 +4694,25 @@
         <v>1257652</v>
       </c>
       <c r="J31">
+        <v>1633554.5</v>
+      </c>
+      <c r="K31">
         <v>1633393.625</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>908942.0625</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1294574.883054811</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1301152.25</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1301223.094813609</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>1296976.770405408</v>
-      </c>
-      <c r="P31">
-        <v>192606720</v>
       </c>
       <c r="Q31">
         <v>78570952</v>
@@ -4747,25 +4747,25 @@
         <v>1485792.25</v>
       </c>
       <c r="J32">
+        <v>1633543.25</v>
+      </c>
+      <c r="K32">
         <v>1633393.25</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>1383477.875</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>1657209.087059524</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>1444086.5</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>1519225.7991397</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>1357112.014799315</v>
-      </c>
-      <c r="P32">
-        <v>239213168</v>
       </c>
       <c r="Q32">
         <v>124557400</v>
@@ -4800,25 +4800,25 @@
         <v>1708508.25</v>
       </c>
       <c r="J33">
+        <v>1633586</v>
+      </c>
+      <c r="K33">
         <v>1633393.25</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>1218730.125</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>1577056.373167345</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>1573084.5</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>1573140.788124288</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>1585893.393873661</v>
-      </c>
-      <c r="P33">
-        <v>314064864</v>
       </c>
       <c r="Q33">
         <v>130749320</v>
@@ -4853,25 +4853,25 @@
         <v>1415491.375</v>
       </c>
       <c r="J34">
+        <v>1633626.375</v>
+      </c>
+      <c r="K34">
         <v>1633393.25</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>957974.5625</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>1294574.883054811</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>1301152.25</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>1301223.094813609</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>1296976.770405408</v>
-      </c>
-      <c r="P34">
-        <v>349148256</v>
       </c>
       <c r="Q34">
         <v>270904832</v>
@@ -4941,314 +4941,314 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>438451842064.3737</v>
+        <v>438450893829.0651</v>
       </c>
       <c r="C3">
-        <v>662156.9618031465</v>
+        <v>662156.2457827195</v>
       </c>
       <c r="D3">
-        <v>0.0417998703813297</v>
+        <v>0.04179992748355474</v>
       </c>
       <c r="E3">
-        <v>343698.28125</v>
+        <v>343699.0833333333</v>
       </c>
       <c r="F3">
-        <v>0.141018779079593</v>
+        <v>0.1410193524807227</v>
       </c>
       <c r="G3">
-        <v>174675.6875</v>
+        <v>174680.1875</v>
       </c>
       <c r="H3">
-        <v>0.1012723172840722</v>
+        <v>0.1012750399988068</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>438450893829.0651</v>
+        <v>460501263285.2643</v>
       </c>
       <c r="C4">
-        <v>662156.2457827195</v>
+        <v>678602.4338928239</v>
       </c>
       <c r="D4">
-        <v>0.04179992748355474</v>
+        <v>0.0431845355458178</v>
       </c>
       <c r="E4">
-        <v>343699.0833333333</v>
+        <v>350929.3645833333</v>
       </c>
       <c r="F4">
-        <v>0.1410193524807227</v>
+        <v>0.1442689624597255</v>
       </c>
       <c r="G4">
-        <v>174680.1875</v>
+        <v>187916.5</v>
       </c>
       <c r="H4">
-        <v>0.1012750399988068</v>
+        <v>0.1103321401743857</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>460501263285.2643</v>
+        <v>402136112603.8372</v>
       </c>
       <c r="C5">
-        <v>678602.4338928239</v>
+        <v>634142.0287316062</v>
       </c>
       <c r="D5">
-        <v>0.0431845355458178</v>
+        <v>0.04196958807036855</v>
       </c>
       <c r="E5">
-        <v>350929.3645833333</v>
+        <v>359503.8229166667</v>
       </c>
       <c r="F5">
-        <v>0.1442689624597255</v>
+        <v>0.1589445555544583</v>
       </c>
       <c r="G5">
-        <v>187916.5</v>
+        <v>186721.125</v>
       </c>
       <c r="H5">
-        <v>0.1103321401743857</v>
+        <v>0.1092944338227112</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>402136112603.8372</v>
+        <v>359878737101.7617</v>
       </c>
       <c r="C6">
-        <v>634142.0287316062</v>
+        <v>599898.9390737091</v>
       </c>
       <c r="D6">
-        <v>0.04196958807036855</v>
+        <v>0.0411248250088063</v>
       </c>
       <c r="E6">
-        <v>359503.8229166667</v>
+        <v>353871.6145833333</v>
       </c>
       <c r="F6">
-        <v>0.1589445555544583</v>
+        <v>0.1580678705555697</v>
       </c>
       <c r="G6">
-        <v>186721.125</v>
+        <v>242851.25</v>
       </c>
       <c r="H6">
-        <v>0.1092944338227112</v>
+        <v>0.134966367363078</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>359878737101.7617</v>
+        <v>408053703394.5886</v>
       </c>
       <c r="C7">
-        <v>599898.9390737091</v>
+        <v>638790.8134863779</v>
       </c>
       <c r="D7">
-        <v>0.0411248250088063</v>
+        <v>0.04912415830263839</v>
       </c>
       <c r="E7">
-        <v>353871.6145833333</v>
+        <v>386822.2708333333</v>
       </c>
       <c r="F7">
-        <v>0.1580678705555697</v>
+        <v>0.1748605251556144</v>
       </c>
       <c r="G7">
-        <v>242851.25</v>
+        <v>228523</v>
       </c>
       <c r="H7">
-        <v>0.134966367363078</v>
+        <v>0.1336441776587921</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>408053703394.5886</v>
+        <v>428751801654.6354</v>
       </c>
       <c r="C8">
-        <v>638790.8134863779</v>
+        <v>654791.4184338669</v>
       </c>
       <c r="D8">
-        <v>0.04912415830263839</v>
+        <v>0.0515681000603806</v>
       </c>
       <c r="E8">
-        <v>386822.2708333333</v>
+        <v>406751.9375</v>
       </c>
       <c r="F8">
-        <v>0.1748605251556144</v>
+        <v>0.1856088049829405</v>
       </c>
       <c r="G8">
-        <v>228523</v>
+        <v>285572.1875</v>
       </c>
       <c r="H8">
-        <v>0.1336441776587921</v>
+        <v>0.1690562585100195</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>428751801654.6354</v>
+        <v>511004115342.0595</v>
       </c>
       <c r="C9">
-        <v>654791.4184338669</v>
+        <v>714845.5185157557</v>
       </c>
       <c r="D9">
-        <v>0.0515681000603806</v>
+        <v>0.06212360477041039</v>
       </c>
       <c r="E9">
-        <v>406751.9375</v>
+        <v>468826.5686384171</v>
       </c>
       <c r="F9">
-        <v>0.1856088049829405</v>
+        <v>0.2167399540175605</v>
       </c>
       <c r="G9">
-        <v>285572.1875</v>
+        <v>332633.0832993905</v>
       </c>
       <c r="H9">
-        <v>0.1690562585100195</v>
+        <v>0.1927208646397953</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>511004115342.0595</v>
+        <v>551469471895.5131</v>
       </c>
       <c r="C10">
-        <v>714845.5185157557</v>
+        <v>742609.9056001833</v>
       </c>
       <c r="D10">
-        <v>0.06212360477041039</v>
+        <v>0.07738291434745002</v>
       </c>
       <c r="E10">
-        <v>468826.5686384171</v>
+        <v>515408.7098127464</v>
       </c>
       <c r="F10">
-        <v>0.2167399540175605</v>
+        <v>0.2442473833592276</v>
       </c>
       <c r="G10">
-        <v>332633.0832993905</v>
+        <v>386807.1837238795</v>
       </c>
       <c r="H10">
-        <v>0.1927208646397953</v>
+        <v>0.2125983898802027</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>551469471895.5131</v>
+        <v>543827428310.2305</v>
       </c>
       <c r="C11">
-        <v>742609.9056001833</v>
+        <v>737446.5596300728</v>
       </c>
       <c r="D11">
-        <v>0.07738291434745002</v>
+        <v>0.07585815015356369</v>
       </c>
       <c r="E11">
-        <v>515408.7098127464</v>
+        <v>488249.15625</v>
       </c>
       <c r="F11">
-        <v>0.2442473833592276</v>
+        <v>0.2279481403766437</v>
       </c>
       <c r="G11">
-        <v>386807.1837238795</v>
+        <v>381761.9375</v>
       </c>
       <c r="H11">
-        <v>0.2125983898802027</v>
+        <v>0.2328738441979647</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>543827428310.2305</v>
+        <v>551456497194.179</v>
       </c>
       <c r="C12">
-        <v>737446.5596300728</v>
+        <v>742601.1696692774</v>
       </c>
       <c r="D12">
-        <v>0.07585815015356369</v>
+        <v>0.07665938038688526</v>
       </c>
       <c r="E12">
-        <v>488249.15625</v>
+        <v>516156.1146082203</v>
       </c>
       <c r="F12">
-        <v>0.2279481403766437</v>
+        <v>0.2443931866395865</v>
       </c>
       <c r="G12">
-        <v>381761.9375</v>
+        <v>370689.4759802831</v>
       </c>
       <c r="H12">
-        <v>0.2328738441979647</v>
+        <v>0.2207321456726261</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>551456497194.179</v>
+        <v>565979785592.1979</v>
       </c>
       <c r="C13">
-        <v>742601.1696692774</v>
+        <v>752316.2802918716</v>
       </c>
       <c r="D13">
-        <v>0.07665938038688526</v>
+        <v>0.08152135966820766</v>
       </c>
       <c r="E13">
-        <v>516156.1146082203</v>
+        <v>529044.0833333334</v>
       </c>
       <c r="F13">
-        <v>0.2443931866395865</v>
+        <v>0.2516718614670594</v>
       </c>
       <c r="G13">
-        <v>370689.4759802831</v>
+        <v>388229.3125</v>
       </c>
       <c r="H13">
-        <v>0.2207321456726261</v>
+        <v>0.2205584409765367</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>565979785592.1979</v>
+        <v>1755333231432.031</v>
       </c>
       <c r="C14">
-        <v>752316.2802918716</v>
+        <v>1324889.894078761</v>
       </c>
       <c r="D14">
-        <v>0.08152135966820766</v>
+        <v>0.6496040125441827</v>
       </c>
       <c r="E14">
-        <v>529044.0833333334</v>
+        <v>1235246</v>
       </c>
       <c r="F14">
-        <v>0.2516718614670594</v>
+        <v>0.7364148481347463</v>
       </c>
       <c r="G14">
-        <v>388229.3125</v>
+        <v>1392365.375</v>
       </c>
       <c r="H14">
-        <v>0.2205584409765367</v>
+        <v>0.8757773405172747</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5304,40 +5304,40 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>20</v>
@@ -5357,40 +5357,40 @@
         <v>1508140.375</v>
       </c>
       <c r="E2">
-        <v>1519109</v>
+        <v>1519113.625</v>
       </c>
       <c r="F2">
-        <v>1519113.625</v>
+        <v>1479137.5</v>
       </c>
       <c r="G2">
-        <v>1479137.5</v>
+        <v>1328482.125</v>
       </c>
       <c r="H2">
-        <v>1328482.125</v>
+        <v>1419313.125</v>
       </c>
       <c r="I2">
-        <v>1419313.125</v>
+        <v>1490509.25</v>
       </c>
       <c r="J2">
-        <v>1490509.25</v>
+        <v>1409436.125</v>
       </c>
       <c r="K2">
-        <v>1409436.125</v>
+        <v>1246216.310953626</v>
       </c>
       <c r="L2">
-        <v>1246216.310953626</v>
+        <v>1234342.654181498</v>
       </c>
       <c r="M2">
-        <v>1234342.654181498</v>
+        <v>1581517.75</v>
       </c>
       <c r="N2">
-        <v>1581517.75</v>
+        <v>1231191.071115424</v>
       </c>
       <c r="O2">
-        <v>1231191.071115424</v>
+        <v>1234547.875</v>
       </c>
       <c r="P2">
-        <v>1234547.875</v>
+        <v>3219344.25</v>
       </c>
       <c r="Q2">
         <v>-230283.671875</v>
@@ -5410,40 +5410,40 @@
         <v>1727789.25</v>
       </c>
       <c r="E3">
-        <v>1519110.125</v>
+        <v>1519114.125</v>
       </c>
       <c r="F3">
-        <v>1519114.125</v>
+        <v>1453901.125</v>
       </c>
       <c r="G3">
-        <v>1453901.125</v>
+        <v>1623148.375</v>
       </c>
       <c r="H3">
-        <v>1623148.375</v>
+        <v>1779503</v>
       </c>
       <c r="I3">
-        <v>1779503</v>
+        <v>1682833.875</v>
       </c>
       <c r="J3">
-        <v>1682833.875</v>
+        <v>1630606.75</v>
       </c>
       <c r="K3">
-        <v>1630606.75</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="L3">
-        <v>1463777.91882041</v>
+        <v>1486643.648419273</v>
       </c>
       <c r="M3">
-        <v>1486643.648419273</v>
+        <v>1504797</v>
       </c>
       <c r="N3">
-        <v>1504797</v>
+        <v>1479461.2672061</v>
       </c>
       <c r="O3">
-        <v>1479461.2672061</v>
+        <v>1483729.25</v>
       </c>
       <c r="P3">
-        <v>1483729.25</v>
+        <v>3219344.5</v>
       </c>
       <c r="Q3">
         <v>-1988878.5</v>
@@ -5466,37 +5466,37 @@
         <v>1519112.375</v>
       </c>
       <c r="F4">
-        <v>1519112.375</v>
+        <v>1459812.25</v>
       </c>
       <c r="G4">
-        <v>1459812.25</v>
+        <v>1323990</v>
       </c>
       <c r="H4">
-        <v>1323990</v>
+        <v>1333263.75</v>
       </c>
       <c r="I4">
-        <v>1333263.75</v>
+        <v>1374969.75</v>
       </c>
       <c r="J4">
-        <v>1374969.75</v>
+        <v>1306365.375</v>
       </c>
       <c r="K4">
-        <v>1306365.375</v>
+        <v>1435000.503529123</v>
       </c>
       <c r="L4">
-        <v>1435000.503529123</v>
+        <v>1491106.297808664</v>
       </c>
       <c r="M4">
-        <v>1491106.297808664</v>
+        <v>1412428.125</v>
       </c>
       <c r="N4">
-        <v>1412428.125</v>
+        <v>1483025.473766511</v>
       </c>
       <c r="O4">
-        <v>1483025.473766511</v>
+        <v>1491449.625</v>
       </c>
       <c r="P4">
-        <v>1491449.625</v>
+        <v>3111789.5</v>
       </c>
       <c r="Q4">
         <v>1144208.875</v>
@@ -5516,40 +5516,40 @@
         <v>1514410.25</v>
       </c>
       <c r="E5">
-        <v>1519113.25</v>
+        <v>1519111.375</v>
       </c>
       <c r="F5">
-        <v>1519111.375</v>
+        <v>1487305.375</v>
       </c>
       <c r="G5">
-        <v>1487305.375</v>
+        <v>1468185.125</v>
       </c>
       <c r="H5">
-        <v>1468185.125</v>
+        <v>1461171.25</v>
       </c>
       <c r="I5">
-        <v>1461171.25</v>
+        <v>1479026.125</v>
       </c>
       <c r="J5">
-        <v>1479026.125</v>
+        <v>1238950.75</v>
       </c>
       <c r="K5">
-        <v>1238950.75</v>
+        <v>1325968.934625182</v>
       </c>
       <c r="L5">
-        <v>1325968.934625182</v>
+        <v>1337989.748700644</v>
       </c>
       <c r="M5">
-        <v>1337989.748700644</v>
+        <v>1419515.75</v>
       </c>
       <c r="N5">
-        <v>1419515.75</v>
+        <v>1337960.877529952</v>
       </c>
       <c r="O5">
-        <v>1337960.877529952</v>
+        <v>1337818.125</v>
       </c>
       <c r="P5">
-        <v>1337818.125</v>
+        <v>2865949.25</v>
       </c>
       <c r="Q5">
         <v>-2478484.5</v>
@@ -5569,40 +5569,40 @@
         <v>1619806</v>
       </c>
       <c r="E6">
-        <v>1519112.625</v>
+        <v>1519115.875</v>
       </c>
       <c r="F6">
-        <v>1519115.875</v>
+        <v>1477078.75</v>
       </c>
       <c r="G6">
-        <v>1477078.75</v>
+        <v>1550159.125</v>
       </c>
       <c r="H6">
-        <v>1550159.125</v>
+        <v>1603247.375</v>
       </c>
       <c r="I6">
-        <v>1603247.375</v>
+        <v>1596115.25</v>
       </c>
       <c r="J6">
-        <v>1596115.25</v>
+        <v>1561002.75</v>
       </c>
       <c r="K6">
-        <v>1561002.75</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="L6">
-        <v>1463777.91882041</v>
+        <v>1486643.648419273</v>
       </c>
       <c r="M6">
-        <v>1486643.648419273</v>
+        <v>1376279.25</v>
       </c>
       <c r="N6">
-        <v>1376279.25</v>
+        <v>1479461.2672061</v>
       </c>
       <c r="O6">
-        <v>1479461.2672061</v>
+        <v>1483729.25</v>
       </c>
       <c r="P6">
-        <v>1483729.25</v>
+        <v>2620109.5</v>
       </c>
       <c r="Q6">
         <v>-238028.1875</v>
@@ -5622,40 +5622,40 @@
         <v>1543127.5</v>
       </c>
       <c r="E7">
-        <v>1519112.875</v>
+        <v>1519116.5</v>
       </c>
       <c r="F7">
-        <v>1519116.5</v>
+        <v>1479298.375</v>
       </c>
       <c r="G7">
-        <v>1479298.375</v>
+        <v>1429460.375</v>
       </c>
       <c r="H7">
-        <v>1429460.375</v>
+        <v>1496762.625</v>
       </c>
       <c r="I7">
-        <v>1496762.625</v>
+        <v>1519878</v>
       </c>
       <c r="J7">
-        <v>1519878</v>
+        <v>1502140.25</v>
       </c>
       <c r="K7">
-        <v>1502140.25</v>
+        <v>1294396.914580809</v>
       </c>
       <c r="L7">
-        <v>1294396.914580809</v>
+        <v>1133037.984132968</v>
       </c>
       <c r="M7">
-        <v>1133037.984132968</v>
+        <v>1071676.25</v>
       </c>
       <c r="N7">
-        <v>1071676.25</v>
+        <v>1172455.780833333</v>
       </c>
       <c r="O7">
-        <v>1172455.780833333</v>
+        <v>1133108.125</v>
       </c>
       <c r="P7">
-        <v>1133108.125</v>
+        <v>2374270</v>
       </c>
       <c r="Q7">
         <v>-1720805.375</v>
@@ -5675,40 +5675,40 @@
         <v>1768315.5</v>
       </c>
       <c r="E8">
-        <v>1519116.125</v>
+        <v>1519117.625</v>
       </c>
       <c r="F8">
-        <v>1519117.625</v>
+        <v>1548621</v>
       </c>
       <c r="G8">
-        <v>1548621</v>
+        <v>1650381.5</v>
       </c>
       <c r="H8">
-        <v>1650381.5</v>
+        <v>1694701.75</v>
       </c>
       <c r="I8">
-        <v>1694701.75</v>
+        <v>1652434.75</v>
       </c>
       <c r="J8">
-        <v>1652434.75</v>
+        <v>1643700.25</v>
       </c>
       <c r="K8">
-        <v>1643700.25</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="L8">
-        <v>1463777.91882041</v>
+        <v>1389550.12540709</v>
       </c>
       <c r="M8">
-        <v>1389550.12540709</v>
+        <v>1402165.5</v>
       </c>
       <c r="N8">
-        <v>1402165.5</v>
+        <v>1330843.077422796</v>
       </c>
       <c r="O8">
-        <v>1330843.077422796</v>
+        <v>1236039.375</v>
       </c>
       <c r="P8">
-        <v>1236039.375</v>
+        <v>2334501</v>
       </c>
       <c r="Q8">
         <v>-352761.28125</v>
@@ -5728,40 +5728,40 @@
         <v>1491596.625</v>
       </c>
       <c r="E9">
-        <v>1519119.25</v>
+        <v>1519117</v>
       </c>
       <c r="F9">
-        <v>1519117</v>
+        <v>1530747.75</v>
       </c>
       <c r="G9">
-        <v>1530747.75</v>
+        <v>1464484</v>
       </c>
       <c r="H9">
-        <v>1464484</v>
+        <v>1514260.125</v>
       </c>
       <c r="I9">
-        <v>1514260.125</v>
+        <v>1345547.375</v>
       </c>
       <c r="J9">
-        <v>1345547.375</v>
+        <v>1488883.25</v>
       </c>
       <c r="K9">
-        <v>1488883.25</v>
+        <v>1346048.108305059</v>
       </c>
       <c r="L9">
-        <v>1346048.108305059</v>
+        <v>1327784.253650768</v>
       </c>
       <c r="M9">
-        <v>1327784.253650768</v>
+        <v>1710890.625</v>
       </c>
       <c r="N9">
-        <v>1710890.625</v>
+        <v>1319821.940061159</v>
       </c>
       <c r="O9">
-        <v>1319821.940061159</v>
+        <v>1326629.625</v>
       </c>
       <c r="P9">
-        <v>1326629.625</v>
+        <v>2748086.75</v>
       </c>
       <c r="Q9">
         <v>378053.71875</v>
@@ -5781,40 +5781,40 @@
         <v>1479394.375</v>
       </c>
       <c r="E10">
-        <v>1519120.375</v>
+        <v>1519113.625</v>
       </c>
       <c r="F10">
-        <v>1519113.625</v>
+        <v>1560215.875</v>
       </c>
       <c r="G10">
-        <v>1560215.875</v>
+        <v>1433999.25</v>
       </c>
       <c r="H10">
-        <v>1433999.25</v>
+        <v>1456609.25</v>
       </c>
       <c r="I10">
-        <v>1456609.25</v>
+        <v>1266096.875</v>
       </c>
       <c r="J10">
-        <v>1266096.875</v>
+        <v>1383467.125</v>
       </c>
       <c r="K10">
-        <v>1383467.125</v>
+        <v>1294396.914580809</v>
       </c>
       <c r="L10">
-        <v>1294396.914580809</v>
+        <v>1152450.082617128</v>
       </c>
       <c r="M10">
-        <v>1152450.082617128</v>
+        <v>1719572.625</v>
       </c>
       <c r="N10">
-        <v>1719572.625</v>
+        <v>1156925.173252525</v>
       </c>
       <c r="O10">
-        <v>1156925.173252525</v>
+        <v>1151619.375</v>
       </c>
       <c r="P10">
-        <v>1151619.375</v>
+        <v>3161671.75</v>
       </c>
       <c r="Q10">
         <v>-291259.5</v>
@@ -5834,40 +5834,40 @@
         <v>1582657.375</v>
       </c>
       <c r="E11">
-        <v>1519121.25</v>
+        <v>1519114.875</v>
       </c>
       <c r="F11">
-        <v>1519114.875</v>
+        <v>1556453.375</v>
       </c>
       <c r="G11">
-        <v>1556453.375</v>
+        <v>1615999.5</v>
       </c>
       <c r="H11">
-        <v>1615999.5</v>
+        <v>1476060.125</v>
       </c>
       <c r="I11">
-        <v>1476060.125</v>
+        <v>1588196</v>
       </c>
       <c r="J11">
-        <v>1588196</v>
+        <v>1483315.75</v>
       </c>
       <c r="K11">
-        <v>1483315.75</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="L11">
-        <v>1463777.91882041</v>
+        <v>1486643.648419273</v>
       </c>
       <c r="M11">
-        <v>1486643.648419273</v>
+        <v>1254688.25</v>
       </c>
       <c r="N11">
-        <v>1254688.25</v>
+        <v>1479461.2672061</v>
       </c>
       <c r="O11">
-        <v>1479461.2672061</v>
+        <v>1483729.25</v>
       </c>
       <c r="P11">
-        <v>1483729.25</v>
+        <v>3575257.25</v>
       </c>
       <c r="Q11">
         <v>-1886393.375</v>
@@ -5887,40 +5887,40 @@
         <v>1637751.625</v>
       </c>
       <c r="E12">
-        <v>1519121.125</v>
+        <v>1519117.625</v>
       </c>
       <c r="F12">
-        <v>1519117.625</v>
+        <v>1561701.125</v>
       </c>
       <c r="G12">
-        <v>1561701.125</v>
+        <v>1759045.125</v>
       </c>
       <c r="H12">
-        <v>1759045.125</v>
+        <v>1543041.25</v>
       </c>
       <c r="I12">
-        <v>1543041.25</v>
+        <v>1487369.75</v>
       </c>
       <c r="J12">
-        <v>1487369.75</v>
+        <v>1486884.875</v>
       </c>
       <c r="K12">
-        <v>1486884.875</v>
+        <v>1435000.503529123</v>
       </c>
       <c r="L12">
-        <v>1435000.503529123</v>
+        <v>1158835.736308967</v>
       </c>
       <c r="M12">
-        <v>1158835.736308967</v>
+        <v>1142924.125</v>
       </c>
       <c r="N12">
-        <v>1142924.125</v>
+        <v>1208603.357985931</v>
       </c>
       <c r="O12">
-        <v>1208603.357985931</v>
+        <v>1158798.25</v>
       </c>
       <c r="P12">
-        <v>1158798.25</v>
+        <v>3763242.75</v>
       </c>
       <c r="Q12">
         <v>363229.09375</v>
@@ -5940,40 +5940,40 @@
         <v>1159116.5</v>
       </c>
       <c r="E13">
-        <v>1519118.75</v>
+        <v>1519115.375</v>
       </c>
       <c r="F13">
-        <v>1519115.375</v>
+        <v>1569838.875</v>
       </c>
       <c r="G13">
-        <v>1569838.875</v>
+        <v>1142894.625</v>
       </c>
       <c r="H13">
-        <v>1142894.625</v>
+        <v>1079882</v>
       </c>
       <c r="I13">
-        <v>1079882</v>
+        <v>1061255.25</v>
       </c>
       <c r="J13">
-        <v>1061255.25</v>
+        <v>1088498.5</v>
       </c>
       <c r="K13">
-        <v>1088498.5</v>
+        <v>1246216.310953626</v>
       </c>
       <c r="L13">
-        <v>1246216.310953626</v>
+        <v>1234342.654181498</v>
       </c>
       <c r="M13">
-        <v>1234342.654181498</v>
+        <v>1118106.625</v>
       </c>
       <c r="N13">
-        <v>1118106.625</v>
+        <v>1231191.071115424</v>
       </c>
       <c r="O13">
-        <v>1231191.071115424</v>
+        <v>1234547.875</v>
       </c>
       <c r="P13">
-        <v>1234547.875</v>
+        <v>2973629.5</v>
       </c>
       <c r="Q13">
         <v>-171823.8125</v>
@@ -5993,40 +5993,40 @@
         <v>1259132</v>
       </c>
       <c r="E14">
-        <v>1519113</v>
+        <v>1519116.375</v>
       </c>
       <c r="F14">
-        <v>1519116.375</v>
+        <v>1618884.625</v>
       </c>
       <c r="G14">
-        <v>1618884.625</v>
+        <v>1191729.625</v>
       </c>
       <c r="H14">
-        <v>1191729.625</v>
+        <v>1120773.25</v>
       </c>
       <c r="I14">
-        <v>1120773.25</v>
+        <v>985107.75</v>
       </c>
       <c r="J14">
-        <v>985107.75</v>
+        <v>926701.375</v>
       </c>
       <c r="K14">
-        <v>926701.375</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="L14">
-        <v>1463777.91882041</v>
+        <v>1472524.083386335</v>
       </c>
       <c r="M14">
-        <v>1472524.083386335</v>
+        <v>1252394.875</v>
       </c>
       <c r="N14">
-        <v>1252394.875</v>
+        <v>1468368.372747815</v>
       </c>
       <c r="O14">
-        <v>1468368.372747815</v>
+        <v>1474535.875</v>
       </c>
       <c r="P14">
-        <v>1474535.875</v>
+        <v>2184017.75</v>
       </c>
       <c r="Q14">
         <v>490736.4375</v>
@@ -6046,40 +6046,40 @@
         <v>1478791.875</v>
       </c>
       <c r="E15">
-        <v>1519108</v>
+        <v>1519116.125</v>
       </c>
       <c r="F15">
-        <v>1519116.125</v>
+        <v>1653967.25</v>
       </c>
       <c r="G15">
-        <v>1653967.25</v>
+        <v>1501700.5</v>
       </c>
       <c r="H15">
-        <v>1501700.5</v>
+        <v>1411506.5</v>
       </c>
       <c r="I15">
-        <v>1411506.5</v>
+        <v>1217831.25</v>
       </c>
       <c r="J15">
-        <v>1217831.25</v>
+        <v>1342672.125</v>
       </c>
       <c r="K15">
-        <v>1342672.125</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="L15">
-        <v>1463777.91882041</v>
+        <v>1329079.169561621</v>
       </c>
       <c r="M15">
-        <v>1329079.169561621</v>
+        <v>1104534.5</v>
       </c>
       <c r="N15">
-        <v>1104534.5</v>
+        <v>1260219.148205073</v>
       </c>
       <c r="O15">
-        <v>1260219.148205073</v>
+        <v>1026867.8125</v>
       </c>
       <c r="P15">
-        <v>1026867.8125</v>
+        <v>1394404.5</v>
       </c>
       <c r="Q15">
         <v>-517661.34375</v>
@@ -6099,40 +6099,40 @@
         <v>1210393.25</v>
       </c>
       <c r="E16">
-        <v>1519110.125</v>
+        <v>1519115.375</v>
       </c>
       <c r="F16">
-        <v>1519115.375</v>
+        <v>1653076.625</v>
       </c>
       <c r="G16">
-        <v>1653076.625</v>
+        <v>1189670.5</v>
       </c>
       <c r="H16">
-        <v>1189670.5</v>
+        <v>1272479.875</v>
       </c>
       <c r="I16">
-        <v>1272479.875</v>
+        <v>1132628</v>
       </c>
       <c r="J16">
-        <v>1132628</v>
+        <v>1167768</v>
       </c>
       <c r="K16">
-        <v>1167768</v>
+        <v>1294396.914580809</v>
       </c>
       <c r="L16">
-        <v>1294396.914580809</v>
+        <v>1152450.082617128</v>
       </c>
       <c r="M16">
-        <v>1152450.082617128</v>
+        <v>980265.6875</v>
       </c>
       <c r="N16">
-        <v>980265.6875</v>
+        <v>1156925.173252525</v>
       </c>
       <c r="O16">
-        <v>1156925.173252525</v>
+        <v>1151619.375</v>
       </c>
       <c r="P16">
-        <v>1151619.375</v>
+        <v>677985.125</v>
       </c>
       <c r="Q16">
         <v>-731774.875</v>
@@ -6152,40 +6152,40 @@
         <v>1464710.875</v>
       </c>
       <c r="E17">
-        <v>1519113.5</v>
+        <v>1519115</v>
       </c>
       <c r="F17">
-        <v>1519115</v>
+        <v>1643904.5</v>
       </c>
       <c r="G17">
-        <v>1643904.5</v>
+        <v>1603558.75</v>
       </c>
       <c r="H17">
-        <v>1603558.75</v>
+        <v>1439218.125</v>
       </c>
       <c r="I17">
-        <v>1439218.125</v>
+        <v>1295346.875</v>
       </c>
       <c r="J17">
-        <v>1295346.875</v>
+        <v>1470297.625</v>
       </c>
       <c r="K17">
-        <v>1470297.625</v>
+        <v>1346048.108305059</v>
       </c>
       <c r="L17">
-        <v>1346048.108305059</v>
+        <v>1442000.946763866</v>
       </c>
       <c r="M17">
-        <v>1442000.946763866</v>
+        <v>1051195.625</v>
       </c>
       <c r="N17">
-        <v>1051195.625</v>
+        <v>1452941.251587471</v>
       </c>
       <c r="O17">
-        <v>1452941.251587471</v>
+        <v>1449161.75</v>
       </c>
       <c r="P17">
-        <v>1449161.75</v>
+        <v>1059446.25</v>
       </c>
       <c r="Q17">
         <v>-404856.90625</v>
@@ -6205,40 +6205,40 @@
         <v>1280346.875</v>
       </c>
       <c r="E18">
-        <v>1519117.25</v>
+        <v>1519117</v>
       </c>
       <c r="F18">
-        <v>1519117</v>
+        <v>1636456.5</v>
       </c>
       <c r="G18">
-        <v>1636456.5</v>
+        <v>1395630</v>
       </c>
       <c r="H18">
-        <v>1395630</v>
+        <v>1265208.375</v>
       </c>
       <c r="I18">
-        <v>1265208.375</v>
+        <v>1091471</v>
       </c>
       <c r="J18">
-        <v>1091471</v>
+        <v>1228704</v>
       </c>
       <c r="K18">
-        <v>1228704</v>
+        <v>1435000.503529123</v>
       </c>
       <c r="L18">
-        <v>1435000.503529123</v>
+        <v>1491106.297808664</v>
       </c>
       <c r="M18">
-        <v>1491106.297808664</v>
+        <v>895932.3125</v>
       </c>
       <c r="N18">
-        <v>895932.3125</v>
+        <v>1483025.473766511</v>
       </c>
       <c r="O18">
-        <v>1483025.473766511</v>
+        <v>1491449.625</v>
       </c>
       <c r="P18">
-        <v>1491449.625</v>
+        <v>1440907.5</v>
       </c>
       <c r="Q18">
         <v>504303.0625</v>
@@ -6258,40 +6258,40 @@
         <v>1568747.875</v>
       </c>
       <c r="E19">
-        <v>1519121</v>
+        <v>1519114.5</v>
       </c>
       <c r="F19">
-        <v>1519114.5</v>
+        <v>1643381.5</v>
       </c>
       <c r="G19">
-        <v>1643381.5</v>
+        <v>1476878.5</v>
       </c>
       <c r="H19">
-        <v>1476878.5</v>
+        <v>1496374.5</v>
       </c>
       <c r="I19">
-        <v>1496374.5</v>
+        <v>1442426.25</v>
       </c>
       <c r="J19">
-        <v>1442426.25</v>
+        <v>1351840.25</v>
       </c>
       <c r="K19">
-        <v>1351840.25</v>
+        <v>1435000.503529123</v>
       </c>
       <c r="L19">
-        <v>1435000.503529123</v>
+        <v>1546946.084022604</v>
       </c>
       <c r="M19">
-        <v>1546946.084022604</v>
+        <v>865088.5</v>
       </c>
       <c r="N19">
-        <v>865088.5</v>
+        <v>1503492.553333333</v>
       </c>
       <c r="O19">
-        <v>1503492.553333333</v>
+        <v>1455460.625</v>
       </c>
       <c r="P19">
-        <v>1455460.625</v>
+        <v>1822369.375</v>
       </c>
       <c r="Q19">
         <v>-2437550.5</v>
@@ -6311,40 +6311,40 @@
         <v>1448785.125</v>
       </c>
       <c r="E20">
-        <v>1519117.25</v>
+        <v>1519114.625</v>
       </c>
       <c r="F20">
-        <v>1519114.625</v>
+        <v>1706926.5</v>
       </c>
       <c r="G20">
-        <v>1706926.5</v>
+        <v>1421793</v>
       </c>
       <c r="H20">
-        <v>1421793</v>
+        <v>1430873.25</v>
       </c>
       <c r="I20">
-        <v>1430873.25</v>
+        <v>1373106.75</v>
       </c>
       <c r="J20">
-        <v>1373106.75</v>
+        <v>1230448.875</v>
       </c>
       <c r="K20">
-        <v>1230448.875</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="L20">
-        <v>1463777.91882041</v>
+        <v>1543780.540159507</v>
       </c>
       <c r="M20">
-        <v>1543780.540159507</v>
+        <v>821379.25</v>
       </c>
       <c r="N20">
-        <v>821379.25</v>
+        <v>1543803.585178572</v>
       </c>
       <c r="O20">
-        <v>1543803.585178572</v>
+        <v>1543780.5</v>
       </c>
       <c r="P20">
-        <v>1543780.5</v>
+        <v>2203829</v>
       </c>
       <c r="Q20">
         <v>219622.140625</v>
@@ -6364,40 +6364,40 @@
         <v>1273526.625</v>
       </c>
       <c r="E21">
-        <v>1519112.875</v>
+        <v>1519114.125</v>
       </c>
       <c r="F21">
-        <v>1519114.125</v>
+        <v>1704767.375</v>
       </c>
       <c r="G21">
-        <v>1704767.375</v>
+        <v>1103648.875</v>
       </c>
       <c r="H21">
-        <v>1103648.875</v>
+        <v>1205927.25</v>
       </c>
       <c r="I21">
-        <v>1205927.25</v>
+        <v>1168751.875</v>
       </c>
       <c r="J21">
-        <v>1168751.875</v>
+        <v>999211</v>
       </c>
       <c r="K21">
-        <v>999211</v>
+        <v>1246216.310953626</v>
       </c>
       <c r="L21">
-        <v>1246216.310953626</v>
+        <v>1234342.654181498</v>
       </c>
       <c r="M21">
-        <v>1234342.654181498</v>
+        <v>577361.1875</v>
       </c>
       <c r="N21">
-        <v>577361.1875</v>
+        <v>1231191.071115424</v>
       </c>
       <c r="O21">
-        <v>1231191.071115424</v>
+        <v>1234547.875</v>
       </c>
       <c r="P21">
-        <v>1234547.875</v>
+        <v>2226277.75</v>
       </c>
       <c r="Q21">
         <v>1276217.375</v>
@@ -6417,40 +6417,40 @@
         <v>1448068.75</v>
       </c>
       <c r="E22">
-        <v>1519112.375</v>
+        <v>1519115</v>
       </c>
       <c r="F22">
-        <v>1519115</v>
+        <v>1781129.25</v>
       </c>
       <c r="G22">
-        <v>1781129.25</v>
+        <v>1272333.25</v>
       </c>
       <c r="H22">
-        <v>1272333.25</v>
+        <v>1445396.75</v>
       </c>
       <c r="I22">
-        <v>1445396.75</v>
+        <v>1322817</v>
       </c>
       <c r="J22">
-        <v>1322817</v>
+        <v>1403000.875</v>
       </c>
       <c r="K22">
-        <v>1403000.875</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="L22">
-        <v>1463777.91882041</v>
+        <v>1472524.083386335</v>
       </c>
       <c r="M22">
-        <v>1472524.083386335</v>
+        <v>1359023.625</v>
       </c>
       <c r="N22">
-        <v>1359023.625</v>
+        <v>1468368.372747815</v>
       </c>
       <c r="O22">
-        <v>1468368.372747815</v>
+        <v>1474535.875</v>
       </c>
       <c r="P22">
-        <v>1474535.875</v>
+        <v>2224792.75</v>
       </c>
       <c r="Q22">
         <v>-1393320.125</v>
@@ -6470,40 +6470,40 @@
         <v>1617197.25</v>
       </c>
       <c r="E23">
-        <v>1519112.25</v>
+        <v>1519115.875</v>
       </c>
       <c r="F23">
-        <v>1519115.875</v>
+        <v>1848869</v>
       </c>
       <c r="G23">
-        <v>1848869</v>
+        <v>1238838.75</v>
       </c>
       <c r="H23">
-        <v>1238838.75</v>
+        <v>1577785.125</v>
       </c>
       <c r="I23">
-        <v>1577785.125</v>
+        <v>1635657.5</v>
       </c>
       <c r="J23">
-        <v>1635657.5</v>
+        <v>1451128.125</v>
       </c>
       <c r="K23">
-        <v>1451128.125</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="L23">
-        <v>1463777.91882041</v>
+        <v>1497213.382096811</v>
       </c>
       <c r="M23">
-        <v>1497213.382096811</v>
+        <v>958947.25</v>
       </c>
       <c r="N23">
-        <v>958947.25</v>
+        <v>1451685.651666667</v>
       </c>
       <c r="O23">
-        <v>1451685.651666667</v>
+        <v>1497756.625</v>
       </c>
       <c r="P23">
-        <v>1497756.625</v>
+        <v>2223307.75</v>
       </c>
       <c r="Q23">
         <v>-1519798.375</v>
@@ -6523,40 +6523,40 @@
         <v>1106708.125</v>
       </c>
       <c r="E24">
-        <v>1519113</v>
+        <v>1519115.5</v>
       </c>
       <c r="F24">
-        <v>1519115.5</v>
+        <v>1830492.5</v>
       </c>
       <c r="G24">
-        <v>1830492.5</v>
+        <v>832325.0625</v>
       </c>
       <c r="H24">
-        <v>832325.0625</v>
+        <v>1108339.125</v>
       </c>
       <c r="I24">
-        <v>1108339.125</v>
+        <v>1126800.375</v>
       </c>
       <c r="J24">
-        <v>1126800.375</v>
+        <v>879784.75</v>
       </c>
       <c r="K24">
-        <v>879784.75</v>
+        <v>1246216.310953626</v>
       </c>
       <c r="L24">
-        <v>1246216.310953626</v>
+        <v>1234342.654181498</v>
       </c>
       <c r="M24">
-        <v>1234342.654181498</v>
+        <v>901140.4375</v>
       </c>
       <c r="N24">
-        <v>901140.4375</v>
+        <v>1231191.071115424</v>
       </c>
       <c r="O24">
-        <v>1231191.071115424</v>
+        <v>1234547.875</v>
       </c>
       <c r="P24">
-        <v>1234547.875</v>
+        <v>2221822.75</v>
       </c>
       <c r="Q24">
         <v>-686889.3125</v>
@@ -6576,40 +6576,40 @@
         <v>1329176.75</v>
       </c>
       <c r="E25">
-        <v>1519114.625</v>
+        <v>1519115.75</v>
       </c>
       <c r="F25">
-        <v>1519115.75</v>
+        <v>1894801.75</v>
       </c>
       <c r="G25">
-        <v>1894801.75</v>
+        <v>910978.8125</v>
       </c>
       <c r="H25">
-        <v>910978.8125</v>
+        <v>1317733.25</v>
       </c>
       <c r="I25">
-        <v>1317733.25</v>
+        <v>1305869.875</v>
       </c>
       <c r="J25">
-        <v>1305869.875</v>
+        <v>873183.8125</v>
       </c>
       <c r="K25">
-        <v>873183.8125</v>
+        <v>1435000.503529123</v>
       </c>
       <c r="L25">
-        <v>1435000.503529123</v>
+        <v>1491106.297808664</v>
       </c>
       <c r="M25">
-        <v>1491106.297808664</v>
+        <v>1545242.25</v>
       </c>
       <c r="N25">
-        <v>1545242.25</v>
+        <v>1483025.473766511</v>
       </c>
       <c r="O25">
-        <v>1483025.473766511</v>
+        <v>1491449.625</v>
       </c>
       <c r="P25">
-        <v>1491449.625</v>
+        <v>2121544.5</v>
       </c>
       <c r="Q25">
         <v>-859781.25</v>
@@ -6629,40 +6629,40 @@
         <v>1365741.75</v>
       </c>
       <c r="E26">
-        <v>1519129.25</v>
+        <v>1519115.75</v>
       </c>
       <c r="F26">
-        <v>1519115.75</v>
+        <v>1866472.5</v>
       </c>
       <c r="G26">
-        <v>1866472.5</v>
+        <v>936709</v>
       </c>
       <c r="H26">
-        <v>936709</v>
+        <v>1467007</v>
       </c>
       <c r="I26">
-        <v>1467007</v>
+        <v>1499973.375</v>
       </c>
       <c r="J26">
-        <v>1499973.375</v>
+        <v>1197896.375</v>
       </c>
       <c r="K26">
-        <v>1197896.375</v>
+        <v>1346048.108305059</v>
       </c>
       <c r="L26">
-        <v>1346048.108305059</v>
+        <v>1327784.253650768</v>
       </c>
       <c r="M26">
-        <v>1327784.253650768</v>
+        <v>1173176.875</v>
       </c>
       <c r="N26">
-        <v>1173176.875</v>
+        <v>1319821.940061159</v>
       </c>
       <c r="O26">
-        <v>1319821.940061159</v>
+        <v>1326629.625</v>
       </c>
       <c r="P26">
-        <v>1326629.625</v>
+        <v>1998467.375</v>
       </c>
       <c r="Q26">
         <v>1936102.75</v>
@@ -6682,40 +6682,40 @@
         <v>1383180.875</v>
       </c>
       <c r="E27">
-        <v>1519147.5</v>
+        <v>1519115.625</v>
       </c>
       <c r="F27">
-        <v>1519115.625</v>
+        <v>1914133</v>
       </c>
       <c r="G27">
-        <v>1914133</v>
+        <v>1175124</v>
       </c>
       <c r="H27">
-        <v>1175124</v>
+        <v>1331825.75</v>
       </c>
       <c r="I27">
-        <v>1331825.75</v>
+        <v>1304837.125</v>
       </c>
       <c r="J27">
-        <v>1304837.125</v>
+        <v>1250269.375</v>
       </c>
       <c r="K27">
-        <v>1250269.375</v>
+        <v>1435000.503529123</v>
       </c>
       <c r="L27">
-        <v>1435000.503529123</v>
+        <v>1083876.882686356</v>
       </c>
       <c r="M27">
-        <v>1083876.882686356</v>
+        <v>1614119.25</v>
       </c>
       <c r="N27">
-        <v>1614119.25</v>
+        <v>1214417.715044011</v>
       </c>
       <c r="O27">
-        <v>1214417.715044011</v>
+        <v>902389.1875</v>
       </c>
       <c r="P27">
-        <v>902389.1875</v>
+        <v>1875390</v>
       </c>
       <c r="Q27">
         <v>578937.625</v>
@@ -6735,40 +6735,40 @@
         <v>1305964.625</v>
       </c>
       <c r="E28">
-        <v>1519157.125</v>
+        <v>1519115.5</v>
       </c>
       <c r="F28">
-        <v>1519115.5</v>
+        <v>1940886.375</v>
       </c>
       <c r="G28">
-        <v>1940886.375</v>
+        <v>828468.5</v>
       </c>
       <c r="H28">
-        <v>828468.5</v>
+        <v>1290213.5</v>
       </c>
       <c r="I28">
-        <v>1290213.5</v>
+        <v>1342231.375</v>
       </c>
       <c r="J28">
-        <v>1342231.375</v>
+        <v>1035426.25</v>
       </c>
       <c r="K28">
-        <v>1035426.25</v>
+        <v>1325968.934625182</v>
       </c>
       <c r="L28">
-        <v>1325968.934625182</v>
+        <v>1337989.748700644</v>
       </c>
       <c r="M28">
-        <v>1337989.748700644</v>
+        <v>1108238.125</v>
       </c>
       <c r="N28">
-        <v>1108238.125</v>
+        <v>1337960.877529952</v>
       </c>
       <c r="O28">
-        <v>1337960.877529952</v>
+        <v>1337818.125</v>
       </c>
       <c r="P28">
-        <v>1337818.125</v>
+        <v>1752313.875</v>
       </c>
       <c r="Q28">
         <v>45221.66015625</v>
@@ -6788,40 +6788,40 @@
         <v>1406389.875</v>
       </c>
       <c r="E29">
-        <v>1519165.375</v>
+        <v>1519115.75</v>
       </c>
       <c r="F29">
-        <v>1519115.75</v>
+        <v>1922808.125</v>
       </c>
       <c r="G29">
-        <v>1922808.125</v>
+        <v>1037010.375</v>
       </c>
       <c r="H29">
-        <v>1037010.375</v>
+        <v>1392496.125</v>
       </c>
       <c r="I29">
-        <v>1392496.125</v>
+        <v>1597275.25</v>
       </c>
       <c r="J29">
-        <v>1597275.25</v>
+        <v>1068603</v>
       </c>
       <c r="K29">
-        <v>1068603</v>
+        <v>1346048.108305059</v>
       </c>
       <c r="L29">
-        <v>1346048.108305059</v>
+        <v>1442000.946763866</v>
       </c>
       <c r="M29">
-        <v>1442000.946763866</v>
+        <v>1160616.25</v>
       </c>
       <c r="N29">
-        <v>1160616.25</v>
+        <v>1452941.251587471</v>
       </c>
       <c r="O29">
-        <v>1452941.251587471</v>
+        <v>1449161.75</v>
       </c>
       <c r="P29">
-        <v>1449161.75</v>
+        <v>2788145.5</v>
       </c>
       <c r="Q29">
         <v>3649840</v>
@@ -6841,40 +6841,40 @@
         <v>1328947.5</v>
       </c>
       <c r="E30">
-        <v>1519188.5</v>
+        <v>1519115.375</v>
       </c>
       <c r="F30">
-        <v>1519115.375</v>
+        <v>1934629.5</v>
       </c>
       <c r="G30">
-        <v>1934629.5</v>
+        <v>1015299.875</v>
       </c>
       <c r="H30">
-        <v>1015299.875</v>
+        <v>1277249.875</v>
       </c>
       <c r="I30">
-        <v>1277249.875</v>
+        <v>1397321.5</v>
       </c>
       <c r="J30">
-        <v>1397321.5</v>
+        <v>1207831.125</v>
       </c>
       <c r="K30">
-        <v>1207831.125</v>
+        <v>1246216.310953626</v>
       </c>
       <c r="L30">
-        <v>1246216.310953626</v>
+        <v>1234342.654181498</v>
       </c>
       <c r="M30">
-        <v>1234342.654181498</v>
+        <v>1339702.125</v>
       </c>
       <c r="N30">
-        <v>1339702.125</v>
+        <v>1231191.071115424</v>
       </c>
       <c r="O30">
-        <v>1231191.071115424</v>
+        <v>1234547.875</v>
       </c>
       <c r="P30">
-        <v>1234547.875</v>
+        <v>4350749</v>
       </c>
       <c r="Q30">
         <v>6965079</v>
@@ -6894,40 +6894,40 @@
         <v>1409947.875</v>
       </c>
       <c r="E31">
-        <v>1519219.25</v>
+        <v>1519115.875</v>
       </c>
       <c r="F31">
-        <v>1519115.875</v>
+        <v>1979692.625</v>
       </c>
       <c r="G31">
-        <v>1979692.625</v>
+        <v>1080617.25</v>
       </c>
       <c r="H31">
-        <v>1080617.25</v>
+        <v>1589627.375</v>
       </c>
       <c r="I31">
-        <v>1589627.375</v>
+        <v>1562137.375</v>
       </c>
       <c r="J31">
-        <v>1562137.375</v>
+        <v>1208567.375</v>
       </c>
       <c r="K31">
-        <v>1208567.375</v>
+        <v>1346048.108305059</v>
       </c>
       <c r="L31">
-        <v>1346048.108305059</v>
+        <v>1327784.253650768</v>
       </c>
       <c r="M31">
-        <v>1327784.253650768</v>
+        <v>1174583.75</v>
       </c>
       <c r="N31">
-        <v>1174583.75</v>
+        <v>1319821.940061159</v>
       </c>
       <c r="O31">
-        <v>1319821.940061159</v>
+        <v>1326629.625</v>
       </c>
       <c r="P31">
-        <v>1326629.625</v>
+        <v>5913354.5</v>
       </c>
       <c r="Q31">
         <v>9243377</v>
@@ -6947,40 +6947,40 @@
         <v>1382710.5</v>
       </c>
       <c r="E32">
-        <v>1519233.125</v>
+        <v>1519115.5</v>
       </c>
       <c r="F32">
-        <v>1519115.5</v>
+        <v>1951668.875</v>
       </c>
       <c r="G32">
-        <v>1951668.875</v>
+        <v>1077603</v>
       </c>
       <c r="H32">
-        <v>1077603</v>
+        <v>1474756.5</v>
       </c>
       <c r="I32">
-        <v>1474756.5</v>
+        <v>1618341.125</v>
       </c>
       <c r="J32">
-        <v>1618341.125</v>
+        <v>1219815.125</v>
       </c>
       <c r="K32">
-        <v>1219815.125</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="L32">
-        <v>1463777.91882041</v>
+        <v>1187663.428997662</v>
       </c>
       <c r="M32">
-        <v>1187663.428997662</v>
+        <v>1383380.875</v>
       </c>
       <c r="N32">
-        <v>1383380.875</v>
+        <v>1408725.34647619</v>
       </c>
       <c r="O32">
-        <v>1408725.34647619</v>
+        <v>1022715.1875</v>
       </c>
       <c r="P32">
-        <v>1022715.1875</v>
+        <v>7475956.5</v>
       </c>
       <c r="Q32">
         <v>20208116</v>
@@ -7000,40 +7000,40 @@
         <v>1248478.125</v>
       </c>
       <c r="E33">
-        <v>1519233.375</v>
+        <v>1519115.375</v>
       </c>
       <c r="F33">
-        <v>1519115.375</v>
+        <v>1930463.875</v>
       </c>
       <c r="G33">
-        <v>1930463.875</v>
+        <v>1034601.875</v>
       </c>
       <c r="H33">
-        <v>1034601.875</v>
+        <v>1305394.375</v>
       </c>
       <c r="I33">
-        <v>1305394.375</v>
+        <v>1283063.5</v>
       </c>
       <c r="J33">
-        <v>1283063.5</v>
+        <v>1129848.75</v>
       </c>
       <c r="K33">
-        <v>1129848.75</v>
+        <v>1246216.310953626</v>
       </c>
       <c r="L33">
-        <v>1246216.310953626</v>
+        <v>1234342.654181498</v>
       </c>
       <c r="M33">
-        <v>1234342.654181498</v>
+        <v>1100128.625</v>
       </c>
       <c r="N33">
-        <v>1100128.625</v>
+        <v>1231191.071115424</v>
       </c>
       <c r="O33">
-        <v>1231191.071115424</v>
+        <v>1234547.875</v>
       </c>
       <c r="P33">
-        <v>1234547.875</v>
+        <v>8159595.5</v>
       </c>
       <c r="Q33">
         <v>33548888</v>
@@ -7053,40 +7053,40 @@
         <v>1604714.875</v>
       </c>
       <c r="E34">
-        <v>1519232.75</v>
+        <v>1519115.125</v>
       </c>
       <c r="F34">
-        <v>1519115.125</v>
+        <v>1940879.125</v>
       </c>
       <c r="G34">
-        <v>1940879.125</v>
+        <v>1498642.5</v>
       </c>
       <c r="H34">
-        <v>1498642.5</v>
+        <v>1755530.75</v>
       </c>
       <c r="I34">
-        <v>1755530.75</v>
+        <v>1789507</v>
       </c>
       <c r="J34">
-        <v>1789507</v>
+        <v>1527250.5</v>
       </c>
       <c r="K34">
-        <v>1527250.5</v>
+        <v>1463777.91882041</v>
       </c>
       <c r="L34">
-        <v>1463777.91882041</v>
+        <v>1486643.648419273</v>
       </c>
       <c r="M34">
-        <v>1486643.648419273</v>
+        <v>770661.8125</v>
       </c>
       <c r="N34">
-        <v>770661.8125</v>
+        <v>1479461.2672061</v>
       </c>
       <c r="O34">
-        <v>1479461.2672061</v>
+        <v>1483729.25</v>
       </c>
       <c r="P34">
-        <v>1483729.25</v>
+        <v>8159595</v>
       </c>
       <c r="Q34">
         <v>56131876</v>
